--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -1349,27 +1349,15 @@
     <t>Investigating</t>
   </si>
   <si>
-    <t>Routing @ Pena</t>
-  </si>
-  <si>
     <t>Premature downgrade at 78th Signal 4S</t>
   </si>
   <si>
-    <t>Routing at 61st Signal 2S</t>
-  </si>
-  <si>
-    <t>Routing at 61st Signal 2N</t>
-  </si>
-  <si>
     <t>Onboard entered a failed state</t>
   </si>
   <si>
     <t>Ticket Needed</t>
   </si>
   <si>
-    <t>CP 61st seemed out of service</t>
-  </si>
-  <si>
     <t>Reverser handle needs to be in forward position when selecting track</t>
   </si>
   <si>
@@ -1419,6 +1407,18 @@
   </si>
   <si>
     <t>No issue found in logs, no issue found in service log. Signals ahead were all PROCEED CAB. GPS was acceptable. Not sure why a cut out happened here.</t>
+  </si>
+  <si>
+    <t>Routing @ Pena, MAP DISAPPEARED</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Link failures to 78th</t>
+  </si>
+  <si>
+    <t>Link failures to 61st</t>
   </si>
 </sst>
 </file>
@@ -1909,49 +1909,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2015,6 +1973,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2334,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="61" t="str">
-        <f t="shared" ref="K3:K34" si="0">IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
+        <f t="shared" ref="K3" si="0">IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L3" s="61" t="str">
@@ -2571,7 +2550,7 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M3" s="12">
-        <f t="shared" ref="M3:M34" si="1">I3-F3</f>
+        <f t="shared" ref="M3" si="1">I3-F3</f>
         <v>2.1840277775481809E-2</v>
       </c>
       <c r="N3" s="13"/>
@@ -2580,27 +2559,27 @@
       <c r="Q3" s="62"/>
       <c r="R3" s="52"/>
       <c r="T3" s="74" t="str">
-        <f t="shared" ref="T3:T34" si="2">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E3-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I3+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B3&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T3" si="2">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E3-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I3+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B3&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 03:20:08-0600',mode:absolute,to:'2016-05-13 03:54:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U3" s="74" t="str">
-        <f t="shared" ref="U3:U8" si="3">IF(Y3&lt;23,"Y","N")</f>
+        <f t="shared" ref="U3" si="3">IF(Y3&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V3" s="74" t="e">
-        <f t="shared" ref="V3:V12" si="4">VALUE(LEFT(A3,3))-VALUE(LEFT(A2,3))</f>
+        <f t="shared" ref="V3" si="4">VALUE(LEFT(A3,3))-VALUE(LEFT(A2,3))</f>
         <v>#VALUE!</v>
       </c>
       <c r="W3" s="74">
-        <f>RIGHT(D3,LEN(D3)-4)/10000</f>
+        <f t="shared" ref="W3:W34" si="5">RIGHT(D3,LEN(D3)-4)/10000</f>
         <v>1.9195</v>
       </c>
       <c r="X3" s="74">
-        <f>RIGHT(H3,LEN(H3)-4)/10000</f>
+        <f t="shared" ref="X3:X34" si="6">RIGHT(H3,LEN(H3)-4)/10000</f>
         <v>23.332699999999999</v>
       </c>
       <c r="Y3" s="74">
-        <f>ABS(X3-W3)</f>
+        <f t="shared" ref="Y3:Y34" si="7">ABS(X3-W3)</f>
         <v>21.4132</v>
       </c>
       <c r="Z3" s="75" t="e">
@@ -2644,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="61" t="str">
-        <f>IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
+        <f t="shared" ref="K4:K35" si="8">IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L4" s="61" t="str">
@@ -2652,7 +2631,7 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M4" s="12">
-        <f>I4-F4</f>
+        <f t="shared" ref="M4:M35" si="9">I4-F4</f>
         <v>2.268518517666962E-3</v>
       </c>
       <c r="N4" s="13"/>
@@ -2667,27 +2646,27 @@
         <v>426</v>
       </c>
       <c r="T4" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T4:T35" si="10">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 03:09:07-0600',mode:absolute,to:'2016-05-13 03:17:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U4" s="74" t="str">
-        <f>IF(Y4&lt;23,"Y","N")</f>
+        <f t="shared" ref="U4:U35" si="11">IF(Y4&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V4" s="74">
-        <f>VALUE(LEFT(A4,3))-VALUE(LEFT(A3,3))</f>
+        <f t="shared" ref="V4:V35" si="12">VALUE(LEFT(A4,3))-VALUE(LEFT(A3,3))</f>
         <v>0</v>
       </c>
       <c r="W4" s="74">
-        <f>RIGHT(D4,LEN(D4)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="X4" s="74">
-        <f>RIGHT(H4,LEN(H4)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="Y4" s="74">
-        <f>ABS(X4-W4)</f>
+        <f t="shared" si="7"/>
         <v>5.8300000000000005E-2</v>
       </c>
       <c r="Z4" s="75" t="e">
@@ -2731,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="61" t="str">
-        <f>IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
+        <f t="shared" si="8"/>
         <v>4015/4016</v>
       </c>
       <c r="L5" s="61" t="str">
@@ -2739,7 +2718,7 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M5" s="12">
-        <f>I5-F5</f>
+        <f t="shared" si="9"/>
         <v>2.9571759259852115E-2</v>
       </c>
       <c r="N5" s="13">
@@ -2751,27 +2730,27 @@
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
       <c r="T5" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 04:06:37-0600',mode:absolute,to:'2016-05-13 04:52:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U5" s="74" t="str">
-        <f>IF(Y5&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V5" s="74">
-        <f>VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W5" s="74">
-        <f>RIGHT(D5,LEN(D5)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.267900000000001</v>
       </c>
       <c r="X5" s="74">
-        <f>RIGHT(H5,LEN(H5)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="Y5" s="74">
-        <f>ABS(X5-W5)</f>
+        <f t="shared" si="7"/>
         <v>23.255400000000002</v>
       </c>
       <c r="Z5" s="75" t="e">
@@ -2815,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="61" t="str">
-        <f>IF(ISEVEN(B6),(B6-1)&amp;"/"&amp;B6,B6&amp;"/"&amp;(B6+1))</f>
+        <f t="shared" si="8"/>
         <v>4009/4010</v>
       </c>
       <c r="L6" s="61" t="str">
@@ -2823,7 +2802,7 @@
         <v>CHANDLER</v>
       </c>
       <c r="M6" s="12">
-        <f>I6-F6</f>
+        <f t="shared" si="9"/>
         <v>2.1504629628907423E-2</v>
       </c>
       <c r="N6" s="13"/>
@@ -2838,27 +2817,27 @@
         <v>426</v>
       </c>
       <c r="T6" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 03:50:06-0600',mode:absolute,to:'2016-05-13 04:24:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U6" s="74" t="str">
-        <f>IF(Y6&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>Y</v>
       </c>
       <c r="V6" s="74">
-        <f>VALUE(LEFT(A6,3))-VALUE(LEFT(A5,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W6" s="74">
-        <f>RIGHT(D6,LEN(D6)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>1.9197</v>
       </c>
       <c r="X6" s="74">
-        <f>RIGHT(H6,LEN(H6)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y6" s="74">
-        <f>ABS(X6-W6)</f>
+        <f t="shared" si="7"/>
         <v>21.409200000000002</v>
       </c>
       <c r="Z6" s="75" t="e">
@@ -2902,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="61" t="str">
-        <f>IF(ISEVEN(B7),(B7-1)&amp;"/"&amp;B7,B7&amp;"/"&amp;(B7+1))</f>
+        <f t="shared" si="8"/>
         <v>4009/4010</v>
       </c>
       <c r="L7" s="61" t="str">
@@ -2910,7 +2889,7 @@
         <v>CHANDLER</v>
       </c>
       <c r="M7" s="12">
-        <f>I7-F7</f>
+        <f t="shared" si="9"/>
         <v>2.4652777792653069E-3</v>
       </c>
       <c r="N7" s="13"/>
@@ -2919,27 +2898,27 @@
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
       <c r="T7" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E7-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I7+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B7&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 03:40:06-0600',mode:absolute,to:'2016-05-13 03:46:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U7" s="74" t="str">
-        <f>IF(Y7&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>Y</v>
       </c>
       <c r="V7" s="74">
-        <f>VALUE(LEFT(A7,3))-VALUE(LEFT(A6,3))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W7" s="74">
-        <f>RIGHT(D7,LEN(D7)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="X7" s="74">
-        <f>RIGHT(H7,LEN(H7)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>0.11269999999999999</v>
       </c>
       <c r="Y7" s="74">
-        <f>ABS(X7-W7)</f>
+        <f t="shared" si="7"/>
         <v>3.7199999999999997E-2</v>
       </c>
       <c r="Z7" s="75" t="e">
@@ -2983,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="61" t="str">
-        <f>IF(ISEVEN(B8),(B8-1)&amp;"/"&amp;B8,B8&amp;"/"&amp;(B8+1))</f>
+        <f t="shared" si="8"/>
         <v>4025/4026</v>
       </c>
       <c r="L8" s="61" t="str">
@@ -2991,11 +2970,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M8" s="12">
-        <f>I8-F8</f>
+        <f t="shared" si="9"/>
         <v>2.7974537035333924E-2</v>
       </c>
       <c r="N8" s="13">
-        <f>$M8*24*60</f>
+        <f t="shared" ref="N8:N35" si="13">$M8*24*60</f>
         <v>40.283333330880851</v>
       </c>
       <c r="O8" s="13"/>
@@ -3003,27 +2982,27 @@
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
       <c r="T8" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E8-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I8+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B8&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 04:35:41-0600',mode:absolute,to:'2016-05-13 05:20:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U8" s="74" t="str">
-        <f>IF(Y8&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V8" s="74">
-        <f>VALUE(LEFT(A8,3))-VALUE(LEFT(A7,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W8" s="74">
-        <f>RIGHT(D8,LEN(D8)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.2653</v>
       </c>
       <c r="X8" s="74">
-        <f>RIGHT(H8,LEN(H8)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y8" s="74">
-        <f>ABS(X8-W8)</f>
+        <f t="shared" si="7"/>
         <v>23.250399999999999</v>
       </c>
       <c r="Z8" s="75" t="e">
@@ -3067,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="61" t="str">
-        <f>IF(ISEVEN(B9),(B9-1)&amp;"/"&amp;B9,B9&amp;"/"&amp;(B9+1))</f>
+        <f t="shared" si="8"/>
         <v>4019/4020</v>
       </c>
       <c r="L9" s="61" t="str">
@@ -3075,11 +3054,11 @@
         <v>STARKS</v>
       </c>
       <c r="M9" s="12">
-        <f>I9-F9</f>
+        <f t="shared" si="9"/>
         <v>2.7557870365853887E-2</v>
       </c>
       <c r="N9" s="13">
-        <f>$M9*24*60</f>
+        <f t="shared" si="13"/>
         <v>39.683333326829597</v>
       </c>
       <c r="O9" s="13"/>
@@ -3087,27 +3066,27 @@
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
       <c r="T9" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E9-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I9+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B9&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 04:25:11-0600',mode:absolute,to:'2016-05-13 05:08:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U9" s="74" t="str">
-        <f>IF(Y9&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V9" s="74">
-        <f>VALUE(LEFT(A9,3))-VALUE(LEFT(A8,3))</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="W9" s="74">
-        <f>RIGHT(D9,LEN(D9)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X9" s="74">
-        <f>RIGHT(H9,LEN(H9)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3322</v>
       </c>
       <c r="Y9" s="74">
-        <f>ABS(X9-W9)</f>
+        <f t="shared" si="7"/>
         <v>23.285599999999999</v>
       </c>
       <c r="Z9" s="75" t="e">
@@ -3151,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="61" t="str">
-        <f>IF(ISEVEN(B10),(B10-1)&amp;"/"&amp;B10,B10&amp;"/"&amp;(B10+1))</f>
+        <f t="shared" si="8"/>
         <v>4019/4020</v>
       </c>
       <c r="L10" s="61" t="str">
@@ -3159,11 +3138,11 @@
         <v>STARKS</v>
       </c>
       <c r="M10" s="12">
-        <f>I10-F10</f>
+        <f t="shared" si="9"/>
         <v>2.6249999995343387E-2</v>
       </c>
       <c r="N10" s="13">
-        <f>$M10*24*60</f>
+        <f t="shared" si="13"/>
         <v>37.799999993294477</v>
       </c>
       <c r="O10" s="13"/>
@@ -3171,27 +3150,27 @@
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
       <c r="T10" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E10-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I10+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B10&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 05:22:10-0600',mode:absolute,to:'2016-05-13 06:05:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U10" s="74" t="str">
-        <f>IF(Y10&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V10" s="74">
-        <f>VALUE(LEFT(A10,3))-VALUE(LEFT(A9,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W10" s="74">
-        <f>RIGHT(D10,LEN(D10)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.249300000000002</v>
       </c>
       <c r="X10" s="74">
-        <f>RIGHT(H10,LEN(H10)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y10" s="74">
-        <f>ABS(X10-W10)</f>
+        <f t="shared" si="7"/>
         <v>23.233700000000002</v>
       </c>
       <c r="Z10" s="75" t="e">
@@ -3235,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="61" t="str">
-        <f>IF(ISEVEN(B11),(B11-1)&amp;"/"&amp;B11,B11&amp;"/"&amp;(B11+1))</f>
+        <f t="shared" si="8"/>
         <v>4039/4040</v>
       </c>
       <c r="L11" s="61" t="str">
@@ -3243,11 +3222,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M11" s="12">
-        <f>I11-F11</f>
+        <f t="shared" si="9"/>
         <v>2.8599537035916001E-2</v>
       </c>
       <c r="N11" s="13">
-        <f>$M11*24*60</f>
+        <f t="shared" si="13"/>
         <v>41.183333331719041</v>
       </c>
       <c r="O11" s="13"/>
@@ -3255,27 +3234,27 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="T11" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E11-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I11+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B11&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 04:36:44-0600',mode:absolute,to:'2016-05-13 05:21:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U11" s="74" t="str">
-        <f>IF(Y11&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V11" s="74">
-        <f>VALUE(LEFT(A11,3))-VALUE(LEFT(A10,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W11" s="74">
-        <f>RIGHT(D11,LEN(D11)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X11" s="74">
-        <f>RIGHT(H11,LEN(H11)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y11" s="74">
-        <f>ABS(X11-W11)</f>
+        <f t="shared" si="7"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z11" s="75" t="e">
@@ -3319,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="61" t="str">
-        <f>IF(ISEVEN(B12),(B12-1)&amp;"/"&amp;B12,B12&amp;"/"&amp;(B12+1))</f>
+        <f t="shared" si="8"/>
         <v>4039/4040</v>
       </c>
       <c r="L12" s="61" t="str">
@@ -3327,11 +3306,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M12" s="12">
-        <f>I12-F12</f>
+        <f t="shared" si="9"/>
         <v>2.4942129632108845E-2</v>
       </c>
       <c r="N12" s="13">
-        <f>$M12*24*60</f>
+        <f t="shared" si="13"/>
         <v>35.916666670236737</v>
       </c>
       <c r="O12" s="13"/>
@@ -3339,27 +3318,27 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
       <c r="T12" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E12-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I12+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B12&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 05:36:04-0600',mode:absolute,to:'2016-05-13 06:18:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U12" s="74" t="str">
-        <f>IF(Y12&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V12" s="74">
-        <f>VALUE(LEFT(A12,3))-VALUE(LEFT(A11,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W12" s="74">
-        <f>RIGHT(D12,LEN(D12)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X12" s="74">
-        <f>RIGHT(H12,LEN(H12)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y12" s="74">
-        <f>ABS(X12-W12)</f>
+        <f t="shared" si="7"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z12" s="75" t="e">
@@ -3403,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="61" t="str">
-        <f>IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
+        <f t="shared" si="8"/>
         <v>4043/4044</v>
       </c>
       <c r="L13" s="61" t="str">
@@ -3411,11 +3390,11 @@
         <v>YORK</v>
       </c>
       <c r="M13" s="12">
-        <f>I13-F13</f>
+        <f t="shared" si="9"/>
         <v>2.6527777779847383E-2</v>
       </c>
       <c r="N13" s="13">
-        <f>$M13*24*60</f>
+        <f t="shared" si="13"/>
         <v>38.200000002980232</v>
       </c>
       <c r="O13" s="13"/>
@@ -3423,27 +3402,27 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
       <c r="T13" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E13-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I13+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B13&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 04:54:18-0600',mode:absolute,to:'2016-05-13 05:37:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U13" s="74" t="str">
-        <f>IF(Y13&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V13" s="74">
-        <f>VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W13" s="74">
-        <f>RIGHT(D13,LEN(D13)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="X13" s="74">
-        <f>RIGHT(H13,LEN(H13)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3309</v>
       </c>
       <c r="Y13" s="74">
-        <f>ABS(X13-W13)</f>
+        <f t="shared" si="7"/>
         <v>23.253699999999998</v>
       </c>
       <c r="Z13" s="75">
@@ -3487,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="61" t="str">
-        <f>IF(ISEVEN(B14),(B14-1)&amp;"/"&amp;B14,B14&amp;"/"&amp;(B14+1))</f>
+        <f t="shared" si="8"/>
         <v>4043/4044</v>
       </c>
       <c r="L14" s="61" t="str">
@@ -3495,11 +3474,11 @@
         <v>YORK</v>
       </c>
       <c r="M14" s="12">
-        <f>I14-F14</f>
+        <f t="shared" si="9"/>
         <v>3.1365740745968651E-2</v>
       </c>
       <c r="N14" s="13">
-        <f>$M14*24*60</f>
+        <f t="shared" si="13"/>
         <v>45.166666674194857</v>
       </c>
       <c r="O14" s="13"/>
@@ -3507,27 +3486,27 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="T14" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E14-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I14+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B14&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 05:46:12-0600',mode:absolute,to:'2016-05-13 06:34:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U14" s="74" t="str">
-        <f>IF(Y14&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V14" s="74">
-        <f>VALUE(LEFT(A14,3))-VALUE(LEFT(A13,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W14" s="74">
-        <f>RIGHT(D14,LEN(D14)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.2988</v>
       </c>
       <c r="X14" s="74">
-        <f>RIGHT(H14,LEN(H14)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y14" s="74">
-        <f>ABS(X14-W14)</f>
+        <f t="shared" si="7"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z14" s="75" t="e">
@@ -3571,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="61" t="str">
-        <f>IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
+        <f t="shared" si="8"/>
         <v>4015/4016</v>
       </c>
       <c r="L15" s="61" t="str">
@@ -3579,11 +3558,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M15" s="12">
-        <f>I15-F15</f>
+        <f t="shared" si="9"/>
         <v>3.3680555556202307E-2</v>
       </c>
       <c r="N15" s="13">
-        <f>$M15*24*60</f>
+        <f t="shared" si="13"/>
         <v>48.500000000931323</v>
       </c>
       <c r="O15" s="13"/>
@@ -3591,27 +3570,27 @@
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
       <c r="T15" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 04:59:43-0600',mode:absolute,to:'2016-05-13 05:51:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U15" s="74" t="str">
-        <f>IF(Y15&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V15" s="74">
-        <f>VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W15" s="74">
-        <f>RIGHT(D15,LEN(D15)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X15" s="74">
-        <f>RIGHT(H15,LEN(H15)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y15" s="74">
-        <f>ABS(X15-W15)</f>
+        <f t="shared" si="7"/>
         <v>23.286200000000001</v>
       </c>
       <c r="Z15" s="75" t="e">
@@ -3655,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="61" t="str">
-        <f>IF(ISEVEN(B16),(B16-1)&amp;"/"&amp;B16,B16&amp;"/"&amp;(B16+1))</f>
+        <f t="shared" si="8"/>
         <v>4015/4016</v>
       </c>
       <c r="L16" s="61" t="str">
@@ -3663,11 +3642,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M16" s="12">
-        <f>I16-F16</f>
+        <f t="shared" si="9"/>
         <v>2.8715277781884652E-2</v>
       </c>
       <c r="N16" s="13">
-        <f>$M16*24*60</f>
+        <f t="shared" si="13"/>
         <v>41.350000005913898</v>
       </c>
       <c r="O16" s="13"/>
@@ -3675,27 +3654,27 @@
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="T16" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E16-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I16+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B16&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:04:09-0600',mode:absolute,to:'2016-05-13 06:49:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U16" s="74" t="str">
-        <f>IF(Y16&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V16" s="74">
-        <f>VALUE(LEFT(A16,3))-VALUE(LEFT(A15,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W16" s="74">
-        <f>RIGHT(D16,LEN(D16)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X16" s="74">
-        <f>RIGHT(H16,LEN(H16)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y16" s="74">
-        <f>ABS(X16-W16)</f>
+        <f t="shared" si="7"/>
         <v>23.2821</v>
       </c>
       <c r="Z16" s="75" t="e">
@@ -3739,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="61" t="str">
-        <f>IF(ISEVEN(B17),(B17-1)&amp;"/"&amp;B17,B17&amp;"/"&amp;(B17+1))</f>
+        <f t="shared" si="8"/>
         <v>4009/4010</v>
       </c>
       <c r="L17" s="61" t="str">
@@ -3747,11 +3726,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M17" s="12">
-        <f>I17-F17</f>
+        <f t="shared" si="9"/>
         <v>2.6828703703358769E-2</v>
       </c>
       <c r="N17" s="13">
-        <f>$M17*24*60</f>
+        <f t="shared" si="13"/>
         <v>38.633333332836628</v>
       </c>
       <c r="O17" s="13"/>
@@ -3759,27 +3738,27 @@
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
       <c r="T17" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E17-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I17+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B17&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 05:24:01-0600',mode:absolute,to:'2016-05-13 06:06:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U17" s="74" t="str">
-        <f>IF(Y17&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V17" s="74">
-        <f>VALUE(LEFT(A17,3))-VALUE(LEFT(A16,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W17" s="74">
-        <f>RIGHT(D17,LEN(D17)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>7.5700000000000003E-2</v>
       </c>
       <c r="X17" s="74">
-        <f>RIGHT(H17,LEN(H17)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3276</v>
       </c>
       <c r="Y17" s="74">
-        <f>ABS(X17-W17)</f>
+        <f t="shared" si="7"/>
         <v>23.251899999999999</v>
       </c>
       <c r="Z17" s="75" t="e">
@@ -3823,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="61" t="str">
-        <f>IF(ISEVEN(B18),(B18-1)&amp;"/"&amp;B18,B18&amp;"/"&amp;(B18+1))</f>
+        <f t="shared" si="8"/>
         <v>4009/4010</v>
       </c>
       <c r="L18" s="61" t="str">
@@ -3831,11 +3810,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M18" s="12">
-        <f>I18-F18</f>
+        <f t="shared" si="9"/>
         <v>3.0254629629780538E-2</v>
       </c>
       <c r="N18" s="13">
-        <f>$M18*24*60</f>
+        <f t="shared" si="13"/>
         <v>43.566666666883975</v>
       </c>
       <c r="O18" s="13"/>
@@ -3843,27 +3822,27 @@
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
       <c r="T18" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E18-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I18+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B18&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:18:36-0600',mode:absolute,to:'2016-05-13 07:06:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U18" s="74" t="str">
-        <f>IF(Y18&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V18" s="74">
-        <f>VALUE(LEFT(A18,3))-VALUE(LEFT(A17,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W18" s="74">
-        <f>RIGHT(D18,LEN(D18)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.2971</v>
       </c>
       <c r="X18" s="74">
-        <f>RIGHT(H18,LEN(H18)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y18" s="74">
-        <f>ABS(X18-W18)</f>
+        <f t="shared" si="7"/>
         <v>23.2819</v>
       </c>
       <c r="Z18" s="75" t="e">
@@ -3907,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="61" t="str">
-        <f>IF(ISEVEN(B19),(B19-1)&amp;"/"&amp;B19,B19&amp;"/"&amp;(B19+1))</f>
+        <f t="shared" si="8"/>
         <v>4025/4026</v>
       </c>
       <c r="L19" s="61" t="str">
@@ -3915,11 +3894,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M19" s="12">
-        <f>I19-F19</f>
+        <f t="shared" si="9"/>
         <v>3.3587962963792961E-2</v>
       </c>
       <c r="N19" s="13">
-        <f>$M19*24*60</f>
+        <f t="shared" si="13"/>
         <v>48.366666667861864</v>
       </c>
       <c r="O19" s="13"/>
@@ -3927,27 +3906,27 @@
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
       <c r="T19" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E19-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I19+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B19&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 05:29:50-0600',mode:absolute,to:'2016-05-13 06:21:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U19" s="74" t="str">
-        <f>IF(Y19&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V19" s="74">
-        <f>VALUE(LEFT(A19,3))-VALUE(LEFT(A18,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W19" s="74">
-        <f>RIGHT(D19,LEN(D19)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X19" s="74">
-        <f>RIGHT(H19,LEN(H19)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3293</v>
       </c>
       <c r="Y19" s="74">
-        <f>ABS(X19-W19)</f>
+        <f t="shared" si="7"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z19" s="75" t="e">
@@ -3991,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="61" t="str">
-        <f>IF(ISEVEN(B20),(B20-1)&amp;"/"&amp;B20,B20&amp;"/"&amp;(B20+1))</f>
+        <f t="shared" si="8"/>
         <v>4025/4026</v>
       </c>
       <c r="L20" s="61" t="str">
@@ -3999,11 +3978,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M20" s="12">
-        <f>I20-F20</f>
+        <f t="shared" si="9"/>
         <v>2.8761574074451346E-2</v>
       </c>
       <c r="N20" s="13">
-        <f>$M20*24*60</f>
+        <f t="shared" si="13"/>
         <v>41.416666667209938</v>
       </c>
       <c r="O20" s="13"/>
@@ -4011,27 +3990,27 @@
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
       <c r="T20" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E20-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I20+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B20&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:34:34-0600',mode:absolute,to:'2016-05-13 07:19:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U20" s="74" t="str">
-        <f>IF(Y20&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V20" s="74">
-        <f>VALUE(LEFT(A20,3))-VALUE(LEFT(A19,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W20" s="74">
-        <f>RIGHT(D20,LEN(D20)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.2972</v>
       </c>
       <c r="X20" s="74">
-        <f>RIGHT(H20,LEN(H20)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y20" s="74">
-        <f>ABS(X20-W20)</f>
+        <f t="shared" si="7"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z20" s="75" t="e">
@@ -4075,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="61" t="str">
-        <f>IF(ISEVEN(B21),(B21-1)&amp;"/"&amp;B21,B21&amp;"/"&amp;(B21+1))</f>
+        <f t="shared" si="8"/>
         <v>4013/4014</v>
       </c>
       <c r="L21" s="61" t="str">
@@ -4083,11 +4062,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M21" s="12">
-        <f>I21-F21</f>
+        <f t="shared" si="9"/>
         <v>3.2581018516793847E-2</v>
       </c>
       <c r="N21" s="13">
-        <f>$M21*24*60</f>
+        <f t="shared" si="13"/>
         <v>46.91666666418314</v>
       </c>
       <c r="O21" s="13"/>
@@ -4095,27 +4074,27 @@
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
       <c r="T21" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E21-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I21+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B21&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:47:30-0600',mode:absolute,to:'2016-05-13 07:38:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U21" s="74" t="str">
-        <f>IF(Y21&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V21" s="74">
-        <f>VALUE(LEFT(A21,3))-VALUE(LEFT(A20,3))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="W21" s="74">
-        <f>RIGHT(D21,LEN(D21)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X21" s="74">
-        <f>RIGHT(H21,LEN(H21)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y21" s="74">
-        <f>ABS(X21-W21)</f>
+        <f t="shared" si="7"/>
         <v>23.282999999999998</v>
       </c>
       <c r="Z21" s="75" t="e">
@@ -4159,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="61" t="str">
-        <f>IF(ISEVEN(B22),(B22-1)&amp;"/"&amp;B22,B22&amp;"/"&amp;(B22+1))</f>
+        <f t="shared" si="8"/>
         <v>4019/4020</v>
       </c>
       <c r="L22" s="61" t="str">
@@ -4167,11 +4146,11 @@
         <v>STARKS</v>
       </c>
       <c r="M22" s="12">
-        <f>I22-F22</f>
+        <f t="shared" si="9"/>
         <v>2.6921296295768116E-2</v>
       </c>
       <c r="N22" s="13">
-        <f>$M22*24*60</f>
+        <f t="shared" si="13"/>
         <v>38.766666665906087</v>
       </c>
       <c r="O22" s="13"/>
@@ -4179,27 +4158,27 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="T22" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E22-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I22+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B22&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:10:30-0600',mode:absolute,to:'2016-05-13 06:52:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U22" s="74" t="str">
-        <f>IF(Y22&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V22" s="74">
-        <f>VALUE(LEFT(A22,3))-VALUE(LEFT(A21,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W22" s="74">
-        <f>RIGHT(D22,LEN(D22)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X22" s="74">
-        <f>RIGHT(H22,LEN(H22)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.332899999999999</v>
       </c>
       <c r="Y22" s="74">
-        <f>ABS(X22-W22)</f>
+        <f t="shared" si="7"/>
         <v>23.285799999999998</v>
       </c>
       <c r="Z22" s="75" t="e">
@@ -4243,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="61" t="str">
-        <f>IF(ISEVEN(B23),(B23-1)&amp;"/"&amp;B23,B23&amp;"/"&amp;(B23+1))</f>
+        <f t="shared" si="8"/>
         <v>4019/4020</v>
       </c>
       <c r="L23" s="61" t="str">
@@ -4251,11 +4230,11 @@
         <v>STARKS</v>
       </c>
       <c r="M23" s="12">
-        <f>I23-F23</f>
+        <f t="shared" si="9"/>
         <v>2.976851852145046E-2</v>
       </c>
       <c r="N23" s="13">
-        <f>$M23*24*60</f>
+        <f t="shared" si="13"/>
         <v>42.866666670888662</v>
       </c>
       <c r="O23" s="13"/>
@@ -4263,27 +4242,27 @@
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
       <c r="T23" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E23-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I23+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B23&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:06:48-0600',mode:absolute,to:'2016-05-13 07:52:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U23" s="74" t="str">
-        <f>IF(Y23&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V23" s="74">
-        <f>VALUE(LEFT(A23,3))-VALUE(LEFT(A22,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W23" s="74">
-        <f>RIGHT(D23,LEN(D23)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.302299999999999</v>
       </c>
       <c r="X23" s="74">
-        <f>RIGHT(H23,LEN(H23)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y23" s="74">
-        <f>ABS(X23-W23)</f>
+        <f t="shared" si="7"/>
         <v>23.288399999999999</v>
       </c>
       <c r="Z23" s="75" t="e">
@@ -4327,7 +4306,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="61" t="str">
-        <f>IF(ISEVEN(B24),(B24-1)&amp;"/"&amp;B24,B24&amp;"/"&amp;(B24+1))</f>
+        <f t="shared" si="8"/>
         <v>4039/4040</v>
       </c>
       <c r="L24" s="61" t="str">
@@ -4335,11 +4314,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M24" s="12">
-        <f>I24-F24</f>
+        <f t="shared" si="9"/>
         <v>2.7453703703940846E-2</v>
       </c>
       <c r="N24" s="13">
-        <f>$M24*24*60</f>
+        <f t="shared" si="13"/>
         <v>39.533333333674818</v>
       </c>
       <c r="O24" s="13"/>
@@ -4347,27 +4326,27 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="T24" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E24-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I24+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B24&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:24:25-0600',mode:absolute,to:'2016-05-13 07:07:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U24" s="74" t="str">
-        <f>IF(Y24&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V24" s="74">
-        <f>VALUE(LEFT(A24,3))-VALUE(LEFT(A23,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W24" s="74">
-        <f>RIGHT(D24,LEN(D24)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X24" s="74">
-        <f>RIGHT(H24,LEN(H24)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y24" s="74">
-        <f>ABS(X24-W24)</f>
+        <f t="shared" si="7"/>
         <v>23.284599999999998</v>
       </c>
       <c r="Z24" s="75">
@@ -4411,7 +4390,7 @@
         <v>3</v>
       </c>
       <c r="K25" s="61" t="str">
-        <f>IF(ISEVEN(B25),(B25-1)&amp;"/"&amp;B25,B25&amp;"/"&amp;(B25+1))</f>
+        <f t="shared" si="8"/>
         <v>4039/4040</v>
       </c>
       <c r="L25" s="61" t="str">
@@ -4419,11 +4398,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M25" s="12">
-        <f>I25-F25</f>
+        <f t="shared" si="9"/>
         <v>2.6342592595028691E-2</v>
       </c>
       <c r="N25" s="13">
-        <f>$M25*24*60</f>
+        <f t="shared" si="13"/>
         <v>37.933333336841315</v>
       </c>
       <c r="O25" s="13"/>
@@ -4431,27 +4410,27 @@
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
       <c r="T25" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E25-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I25+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B25&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:22:44-0600',mode:absolute,to:'2016-05-13 08:05:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U25" s="74" t="str">
-        <f>IF(Y25&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V25" s="74">
-        <f>VALUE(LEFT(A25,3))-VALUE(LEFT(A24,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W25" s="74">
-        <f>RIGHT(D25,LEN(D25)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.2973</v>
       </c>
       <c r="X25" s="74">
-        <f>RIGHT(H25,LEN(H25)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y25" s="74">
-        <f>ABS(X25-W25)</f>
+        <f t="shared" si="7"/>
         <v>23.2821</v>
       </c>
       <c r="Z25" s="75">
@@ -4495,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="61" t="str">
-        <f>IF(ISEVEN(B26),(B26-1)&amp;"/"&amp;B26,B26&amp;"/"&amp;(B26+1))</f>
+        <f t="shared" si="8"/>
         <v>4043/4044</v>
       </c>
       <c r="L26" s="61" t="str">
@@ -4503,11 +4482,11 @@
         <v>YORK</v>
       </c>
       <c r="M26" s="12">
-        <f>I26-F26</f>
+        <f t="shared" si="9"/>
         <v>2.9872685183363501E-2</v>
       </c>
       <c r="N26" s="13">
-        <f>$M26*24*60</f>
+        <f t="shared" si="13"/>
         <v>43.016666664043441</v>
       </c>
       <c r="O26" s="13"/>
@@ -4515,27 +4494,27 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
       <c r="T26" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E26-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I26+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B26&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:35:53-0600',mode:absolute,to:'2016-05-13 07:22:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U26" s="74" t="str">
-        <f>IF(Y26&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V26" s="74">
-        <f>VALUE(LEFT(A26,3))-VALUE(LEFT(A25,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W26" s="74">
-        <f>RIGHT(D26,LEN(D26)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="X26" s="74">
-        <f>RIGHT(H26,LEN(H26)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y26" s="74">
-        <f>ABS(X26-W26)</f>
+        <f t="shared" si="7"/>
         <v>23.286199999999997</v>
       </c>
       <c r="Z26" s="75" t="e">
@@ -4579,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="61" t="str">
-        <f>IF(ISEVEN(B27),(B27-1)&amp;"/"&amp;B27,B27&amp;"/"&amp;(B27+1))</f>
+        <f t="shared" si="8"/>
         <v>4043/4044</v>
       </c>
       <c r="L27" s="61" t="str">
@@ -4587,11 +4566,11 @@
         <v>YORK</v>
       </c>
       <c r="M27" s="12">
-        <f>I27-F27</f>
+        <f t="shared" si="9"/>
         <v>3.195601851621177E-2</v>
       </c>
       <c r="N27" s="13">
-        <f>$M27*24*60</f>
+        <f t="shared" si="13"/>
         <v>46.016666663344949</v>
       </c>
       <c r="O27" s="13"/>
@@ -4599,27 +4578,27 @@
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="T27" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E27-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I27+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B27&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:29:55-0600',mode:absolute,to:'2016-05-13 08:19:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U27" s="74" t="str">
-        <f>IF(Y27&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V27" s="74">
-        <f>VALUE(LEFT(A27,3))-VALUE(LEFT(A26,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W27" s="74">
-        <f>RIGHT(D27,LEN(D27)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X27" s="74">
-        <f>RIGHT(H27,LEN(H27)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y27" s="74">
-        <f>ABS(X27-W27)</f>
+        <f t="shared" si="7"/>
         <v>23.2835</v>
       </c>
       <c r="Z27" s="75" t="e">
@@ -4663,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="61" t="str">
-        <f>IF(ISEVEN(B28),(B28-1)&amp;"/"&amp;B28,B28&amp;"/"&amp;(B28+1))</f>
+        <f t="shared" si="8"/>
         <v>4015/4016</v>
       </c>
       <c r="L28" s="61" t="str">
@@ -4671,11 +4650,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M28" s="12">
-        <f>I28-F28</f>
+        <f t="shared" si="9"/>
         <v>3.0601851845858619E-2</v>
       </c>
       <c r="N28" s="13">
-        <f>$M28*24*60</f>
+        <f t="shared" si="13"/>
         <v>44.066666658036411</v>
       </c>
       <c r="O28" s="13"/>
@@ -4683,27 +4662,27 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="T28" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E28-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I28+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B28&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 06:49:22-0600',mode:absolute,to:'2016-05-13 07:37:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U28" s="74" t="str">
-        <f>IF(Y28&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V28" s="74">
-        <f>VALUE(LEFT(A28,3))-VALUE(LEFT(A27,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W28" s="74">
-        <f>RIGHT(D28,LEN(D28)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X28" s="74">
-        <f>RIGHT(H28,LEN(H28)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y28" s="74">
-        <f>ABS(X28-W28)</f>
+        <f t="shared" si="7"/>
         <v>23.2835</v>
       </c>
       <c r="Z28" s="75" t="e">
@@ -4747,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="61" t="str">
-        <f>IF(ISEVEN(B29),(B29-1)&amp;"/"&amp;B29,B29&amp;"/"&amp;(B29+1))</f>
+        <f t="shared" si="8"/>
         <v>4015/4016</v>
       </c>
       <c r="L29" s="61" t="str">
@@ -4755,11 +4734,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M29" s="12">
-        <f>I29-F29</f>
+        <f t="shared" si="9"/>
         <v>3.2997685178997926E-2</v>
       </c>
       <c r="N29" s="13">
-        <f>$M29*24*60</f>
+        <f t="shared" si="13"/>
         <v>47.516666657757014</v>
       </c>
       <c r="O29" s="13"/>
@@ -4767,27 +4746,27 @@
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
       <c r="T29" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E29-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I29+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B29&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:42:58-0600',mode:absolute,to:'2016-05-13 08:34:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U29" s="74" t="str">
-        <f>IF(Y29&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V29" s="74">
-        <f>VALUE(LEFT(A29,3))-VALUE(LEFT(A28,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W29" s="74">
-        <f>RIGHT(D29,LEN(D29)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X29" s="74">
-        <f>RIGHT(H29,LEN(H29)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.67E-2</v>
       </c>
       <c r="Y29" s="74">
-        <f>ABS(X29-W29)</f>
+        <f t="shared" si="7"/>
         <v>23.281299999999998</v>
       </c>
       <c r="Z29" s="75" t="e">
@@ -4831,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="61" t="str">
-        <f>IF(ISEVEN(B30),(B30-1)&amp;"/"&amp;B30,B30&amp;"/"&amp;(B30+1))</f>
+        <f t="shared" si="8"/>
         <v>4009/4010</v>
       </c>
       <c r="L30" s="61" t="str">
@@ -4839,11 +4818,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M30" s="12">
-        <f>I30-F30</f>
+        <f t="shared" si="9"/>
         <v>2.5636574078816921E-2</v>
       </c>
       <c r="N30" s="13">
-        <f>$M30*24*60</f>
+        <f t="shared" si="13"/>
         <v>36.916666673496366</v>
       </c>
       <c r="O30" s="13"/>
@@ -4851,27 +4830,27 @@
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="T30" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E30-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I30+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B30&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:10:05-0600',mode:absolute,to:'2016-05-13 07:52:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U30" s="74" t="str">
-        <f>IF(Y30&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V30" s="74">
-        <f>VALUE(LEFT(A30,3))-VALUE(LEFT(A29,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W30" s="74">
-        <f>RIGHT(D30,LEN(D30)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.82E-2</v>
       </c>
       <c r="X30" s="74">
-        <f>RIGHT(H30,LEN(H30)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y30" s="74">
-        <f>ABS(X30-W30)</f>
+        <f t="shared" si="7"/>
         <v>23.281599999999997</v>
       </c>
       <c r="Z30" s="75" t="e">
@@ -4915,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="61" t="str">
-        <f>IF(ISEVEN(B31),(B31-1)&amp;"/"&amp;B31,B31&amp;"/"&amp;(B31+1))</f>
+        <f t="shared" si="8"/>
         <v>4009/4010</v>
       </c>
       <c r="L31" s="61" t="str">
@@ -4923,11 +4902,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M31" s="12">
-        <f>I31-F31</f>
+        <f t="shared" si="9"/>
         <v>2.9745370367891155E-2</v>
       </c>
       <c r="N31" s="13">
-        <f>$M31*24*60</f>
+        <f t="shared" si="13"/>
         <v>42.833333329763263</v>
       </c>
       <c r="O31" s="13"/>
@@ -4935,27 +4914,27 @@
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
       <c r="T31" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E31-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I31+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B31&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:02:07-0600',mode:absolute,to:'2016-05-13 08:48:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U31" s="74" t="str">
-        <f>IF(Y31&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V31" s="74">
-        <f>VALUE(LEFT(A31,3))-VALUE(LEFT(A30,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W31" s="74">
-        <f>RIGHT(D31,LEN(D31)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X31" s="74">
-        <f>RIGHT(H31,LEN(H31)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="Y31" s="74">
-        <f>ABS(X31-W31)</f>
+        <f t="shared" si="7"/>
         <v>23.276100000000003</v>
       </c>
       <c r="Z31" s="75" t="e">
@@ -4999,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="61" t="str">
-        <f>IF(ISEVEN(B32),(B32-1)&amp;"/"&amp;B32,B32&amp;"/"&amp;(B32+1))</f>
+        <f t="shared" si="8"/>
         <v>4025/4026</v>
       </c>
       <c r="L32" s="61" t="str">
@@ -5007,11 +4986,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M32" s="12">
-        <f>I32-F32</f>
+        <f t="shared" si="9"/>
         <v>3.0856481484079268E-2</v>
       </c>
       <c r="N32" s="13">
-        <f>$M32*24*60</f>
+        <f t="shared" si="13"/>
         <v>44.433333337074146</v>
       </c>
       <c r="O32" s="13"/>
@@ -5019,27 +4998,27 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="T32" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E32-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I32+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B32&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:19:26-0600',mode:absolute,to:'2016-05-13 08:07:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U32" s="74" t="str">
-        <f>IF(Y32&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V32" s="74">
-        <f>VALUE(LEFT(A32,3))-VALUE(LEFT(A31,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W32" s="74">
-        <f>RIGHT(D32,LEN(D32)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X32" s="74">
-        <f>RIGHT(H32,LEN(H32)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.328399999999998</v>
       </c>
       <c r="Y32" s="74">
-        <f>ABS(X32-W32)</f>
+        <f t="shared" si="7"/>
         <v>23.2837</v>
       </c>
       <c r="Z32" s="75" t="e">
@@ -5083,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="61" t="str">
-        <f>IF(ISEVEN(B33),(B33-1)&amp;"/"&amp;B33,B33&amp;"/"&amp;(B33+1))</f>
+        <f t="shared" si="8"/>
         <v>4025/4026</v>
       </c>
       <c r="L33" s="61" t="str">
@@ -5091,11 +5070,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M33" s="12">
-        <f>I33-F33</f>
+        <f t="shared" si="9"/>
         <v>2.976851852145046E-2</v>
       </c>
       <c r="N33" s="13">
-        <f>$M33*24*60</f>
+        <f t="shared" si="13"/>
         <v>42.866666670888662</v>
       </c>
       <c r="O33" s="13"/>
@@ -5103,27 +5082,27 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="T33" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E33-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I33+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B33&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:18:23-0600',mode:absolute,to:'2016-05-13 09:04:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U33" s="74" t="str">
-        <f>IF(Y33&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V33" s="74">
-        <f>VALUE(LEFT(A33,3))-VALUE(LEFT(A32,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W33" s="74">
-        <f>RIGHT(D33,LEN(D33)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>23.296299999999999</v>
       </c>
       <c r="X33" s="74">
-        <f>RIGHT(H33,LEN(H33)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y33" s="74">
-        <f>ABS(X33-W33)</f>
+        <f t="shared" si="7"/>
         <v>23.2807</v>
       </c>
       <c r="Z33" s="75" t="e">
@@ -5167,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="61" t="str">
-        <f>IF(ISEVEN(B34),(B34-1)&amp;"/"&amp;B34,B34&amp;"/"&amp;(B34+1))</f>
+        <f t="shared" si="8"/>
         <v>4037/4038</v>
       </c>
       <c r="L34" s="61" t="str">
@@ -5175,11 +5154,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M34" s="12">
-        <f>I34-F34</f>
+        <f t="shared" si="9"/>
         <v>2.457175926247146E-2</v>
       </c>
       <c r="N34" s="13">
-        <f>$M34*24*60</f>
+        <f t="shared" si="13"/>
         <v>35.383333337958902</v>
       </c>
       <c r="O34" s="13"/>
@@ -5187,27 +5166,27 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="T34" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E34-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I34+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B34&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:40:24-0600',mode:absolute,to:'2016-05-13 08:22:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U34" s="74" t="str">
-        <f>IF(Y34&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V34" s="74">
-        <f>VALUE(LEFT(A34,3))-VALUE(LEFT(A33,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W34" s="74">
-        <f>RIGHT(D34,LEN(D34)-4)/10000</f>
+        <f t="shared" si="5"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X34" s="74">
-        <f>RIGHT(H34,LEN(H34)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.331</v>
       </c>
       <c r="Y34" s="74">
-        <f>ABS(X34-W34)</f>
+        <f t="shared" si="7"/>
         <v>23.286999999999999</v>
       </c>
       <c r="Z34" s="75" t="e">
@@ -5251,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="61" t="str">
-        <f>IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
+        <f t="shared" si="8"/>
         <v>4037/4038</v>
       </c>
       <c r="L35" s="61" t="str">
@@ -5259,11 +5238,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M35" s="12">
-        <f>I35-F35</f>
+        <f t="shared" si="9"/>
         <v>2.8703703705104999E-2</v>
       </c>
       <c r="N35" s="13">
-        <f>$M35*24*60</f>
+        <f t="shared" si="13"/>
         <v>41.333333335351199</v>
       </c>
       <c r="O35" s="13"/>
@@ -5271,27 +5250,27 @@
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
       <c r="T35" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="10"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:34:07-0600',mode:absolute,to:'2016-05-13 09:18:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U35" s="74" t="str">
-        <f>IF(Y35&lt;23,"Y","N")</f>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="V35" s="74">
-        <f>VALUE(LEFT(A35,3))-VALUE(LEFT(A34,3))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W35" s="74">
-        <f>RIGHT(D35,LEN(D35)-4)/10000</f>
+        <f t="shared" ref="W35:W66" si="14">RIGHT(D35,LEN(D35)-4)/10000</f>
         <v>23.299099999999999</v>
       </c>
       <c r="X35" s="74">
-        <f>RIGHT(H35,LEN(H35)-4)/10000</f>
+        <f t="shared" ref="X35:X54" si="15">RIGHT(H35,LEN(H35)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y35" s="74">
-        <f>ABS(X35-W35)</f>
+        <f t="shared" ref="Y35:Y66" si="16">ABS(X35-W35)</f>
         <v>23.283899999999999</v>
       </c>
       <c r="Z35" s="75" t="e">
@@ -5335,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="61" t="str">
-        <f>IF(ISEVEN(B36),(B36-1)&amp;"/"&amp;B36,B36&amp;"/"&amp;(B36+1))</f>
+        <f t="shared" ref="K36:K67" si="17">IF(ISEVEN(B36),(B36-1)&amp;"/"&amp;B36,B36&amp;"/"&amp;(B36+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L36" s="61" t="str">
@@ -5343,7 +5322,7 @@
         <v>STARKS</v>
       </c>
       <c r="M36" s="12">
-        <f>I36-F36</f>
+        <f t="shared" ref="M36:M67" si="18">I36-F36</f>
         <v>2.3148148102336563E-3</v>
       </c>
       <c r="N36" s="13"/>
@@ -5359,27 +5338,27 @@
         <v>426</v>
       </c>
       <c r="T36" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T36:T67" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 07:57:10-0600',mode:absolute,to:'2016-05-13 08:03:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U36" s="74" t="str">
-        <f>IF(Y36&lt;23,"Y","N")</f>
+        <f t="shared" ref="U36:U67" si="20">IF(Y36&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V36" s="74">
-        <f>VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
+        <f t="shared" ref="V36:V67" si="21">VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
         <v>1</v>
       </c>
       <c r="W36" s="74">
-        <f>RIGHT(D36,LEN(D36)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="X36" s="74">
-        <f>RIGHT(H36,LEN(H36)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>0.1109</v>
       </c>
       <c r="Y36" s="74">
-        <f>ABS(X36-W36)</f>
+        <f t="shared" si="16"/>
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="Z36" s="75" t="e">
@@ -5423,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="61" t="str">
-        <f>IF(ISEVEN(B37),(B37-1)&amp;"/"&amp;B37,B37&amp;"/"&amp;(B37+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L37" s="61" t="str">
@@ -5431,11 +5410,11 @@
         <v>STARKS</v>
       </c>
       <c r="M37" s="12">
-        <f>I37-F37</f>
+        <f t="shared" si="18"/>
         <v>2.751157408056315E-2</v>
       </c>
       <c r="N37" s="13">
-        <f>$M37*24*60</f>
+        <f t="shared" ref="N37:N70" si="22">$M37*24*60</f>
         <v>39.616666676010936</v>
       </c>
       <c r="O37" s="13"/>
@@ -5443,27 +5422,27 @@
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
       <c r="T37" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E37-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I37+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B37&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:51:52-0600',mode:absolute,to:'2016-05-13 09:34:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U37" s="74" t="str">
-        <f>IF(Y37&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V37" s="74">
-        <f>VALUE(LEFT(A37,3))-VALUE(LEFT(A36,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W37" s="74">
-        <f>RIGHT(D37,LEN(D37)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.305099999999999</v>
       </c>
       <c r="X37" s="74">
-        <f>RIGHT(H37,LEN(H37)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y37" s="74">
-        <f>ABS(X37-W37)</f>
+        <f t="shared" si="16"/>
         <v>23.291699999999999</v>
       </c>
       <c r="Z37" s="75" t="e">
@@ -5507,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="61" t="str">
-        <f>IF(ISEVEN(B38),(B38-1)&amp;"/"&amp;B38,B38&amp;"/"&amp;(B38+1))</f>
+        <f t="shared" si="17"/>
         <v>4039/4040</v>
       </c>
       <c r="L38" s="61" t="str">
@@ -5515,11 +5494,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M38" s="12">
-        <f>I38-F38</f>
+        <f t="shared" si="18"/>
         <v>2.5127314816927537E-2</v>
       </c>
       <c r="N38" s="13">
-        <f>$M38*24*60</f>
+        <f t="shared" si="22"/>
         <v>36.183333336375654</v>
       </c>
       <c r="O38" s="13"/>
@@ -5527,27 +5506,27 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="T38" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E38-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I38+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B38&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:12:42-0600',mode:absolute,to:'2016-05-13 08:53:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U38" s="74" t="str">
-        <f>IF(Y38&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V38" s="74">
-        <f>VALUE(LEFT(A38,3))-VALUE(LEFT(A37,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W38" s="74">
-        <f>RIGHT(D38,LEN(D38)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X38" s="74">
-        <f>RIGHT(H38,LEN(H38)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.336300000000001</v>
       </c>
       <c r="Y38" s="74">
-        <f>ABS(X38-W38)</f>
+        <f t="shared" si="16"/>
         <v>23.290100000000002</v>
       </c>
       <c r="Z38" s="75" t="e">
@@ -5591,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="61" t="str">
-        <f>IF(ISEVEN(B39),(B39-1)&amp;"/"&amp;B39,B39&amp;"/"&amp;(B39+1))</f>
+        <f t="shared" si="17"/>
         <v>4039/4040</v>
       </c>
       <c r="L39" s="61" t="str">
@@ -5599,11 +5578,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M39" s="12">
-        <f>I39-F39</f>
+        <f t="shared" si="18"/>
         <v>2.6828703703358769E-2</v>
       </c>
       <c r="N39" s="13">
-        <f>$M39*24*60</f>
+        <f t="shared" si="22"/>
         <v>38.633333332836628</v>
       </c>
       <c r="O39" s="13"/>
@@ -5611,27 +5590,27 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="T39" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E39-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I39+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B39&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:06:35-0600',mode:absolute,to:'2016-05-13 09:48:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U39" s="74" t="str">
-        <f>IF(Y39&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V39" s="74">
-        <f>VALUE(LEFT(A39,3))-VALUE(LEFT(A38,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W39" s="74">
-        <f>RIGHT(D39,LEN(D39)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.2987</v>
       </c>
       <c r="X39" s="74">
-        <f>RIGHT(H39,LEN(H39)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y39" s="74">
-        <f>ABS(X39-W39)</f>
+        <f t="shared" si="16"/>
         <v>23.284199999999998</v>
       </c>
       <c r="Z39" s="75" t="e">
@@ -5675,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="61" t="str">
-        <f>IF(ISEVEN(B40),(B40-1)&amp;"/"&amp;B40,B40&amp;"/"&amp;(B40+1))</f>
+        <f t="shared" si="17"/>
         <v>4043/4044</v>
       </c>
       <c r="L40" s="61" t="str">
@@ -5683,11 +5662,11 @@
         <v>YORK</v>
       </c>
       <c r="M40" s="12">
-        <f>I40-F40</f>
+        <f t="shared" si="18"/>
         <v>2.8402777774317656E-2</v>
       </c>
       <c r="N40" s="13">
-        <f>$M40*24*60</f>
+        <f t="shared" si="22"/>
         <v>40.899999995017424</v>
       </c>
       <c r="O40" s="13"/>
@@ -5695,27 +5674,27 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="T40" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E40-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I40+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B40&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:23:04-0600',mode:absolute,to:'2016-05-13 09:07:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U40" s="74" t="str">
-        <f>IF(Y40&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V40" s="74">
-        <f>VALUE(LEFT(A40,3))-VALUE(LEFT(A39,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W40" s="74">
-        <f>RIGHT(D40,LEN(D40)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X40" s="74">
-        <f>RIGHT(H40,LEN(H40)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y40" s="74">
-        <f>ABS(X40-W40)</f>
+        <f t="shared" si="16"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z40" s="75" t="e">
@@ -5759,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="61" t="str">
-        <f>IF(ISEVEN(B41),(B41-1)&amp;"/"&amp;B41,B41&amp;"/"&amp;(B41+1))</f>
+        <f t="shared" si="17"/>
         <v>4043/4044</v>
       </c>
       <c r="L41" s="61" t="str">
@@ -5767,11 +5746,11 @@
         <v>YORK</v>
       </c>
       <c r="M41" s="12">
-        <f>I41-F41</f>
+        <f t="shared" si="18"/>
         <v>3.0173611106874887E-2</v>
       </c>
       <c r="N41" s="13">
-        <f>$M41*24*60</f>
+        <f t="shared" si="22"/>
         <v>43.449999993899837</v>
       </c>
       <c r="O41" s="13"/>
@@ -5779,27 +5758,27 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="T41" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E41-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I41+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B41&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:18:55-0600',mode:absolute,to:'2016-05-13 10:06:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U41" s="74" t="str">
-        <f>IF(Y41&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V41" s="74">
-        <f>VALUE(LEFT(A41,3))-VALUE(LEFT(A40,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W41" s="74">
-        <f>RIGHT(D41,LEN(D41)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.2971</v>
       </c>
       <c r="X41" s="74">
-        <f>RIGHT(H41,LEN(H41)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y41" s="74">
-        <f>ABS(X41-W41)</f>
+        <f t="shared" si="16"/>
         <v>23.283200000000001</v>
       </c>
       <c r="Z41" s="75" t="e">
@@ -5843,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="61" t="str">
-        <f>IF(ISEVEN(B42),(B42-1)&amp;"/"&amp;B42,B42&amp;"/"&amp;(B42+1))</f>
+        <f t="shared" si="17"/>
         <v>4015/4016</v>
       </c>
       <c r="L42" s="61" t="str">
@@ -5851,11 +5830,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M42" s="12">
-        <f>I42-F42</f>
+        <f t="shared" si="18"/>
         <v>2.9641203698702157E-2</v>
       </c>
       <c r="N42" s="13">
-        <f>$M42*24*60</f>
+        <f t="shared" si="22"/>
         <v>42.683333326131105</v>
       </c>
       <c r="O42" s="13"/>
@@ -5863,27 +5842,27 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="T42" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E42-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I42+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B42&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:34:45-0600',mode:absolute,to:'2016-05-13 09:21:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U42" s="74" t="str">
-        <f>IF(Y42&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V42" s="74">
-        <f>VALUE(LEFT(A42,3))-VALUE(LEFT(A41,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W42" s="74">
-        <f>RIGHT(D42,LEN(D42)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X42" s="74">
-        <f>RIGHT(H42,LEN(H42)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.331</v>
       </c>
       <c r="Y42" s="74">
-        <f>ABS(X42-W42)</f>
+        <f t="shared" si="16"/>
         <v>23.287199999999999</v>
       </c>
       <c r="Z42" s="75" t="e">
@@ -5927,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="61" t="str">
-        <f>IF(ISEVEN(B43),(B43-1)&amp;"/"&amp;B43,B43&amp;"/"&amp;(B43+1))</f>
+        <f t="shared" si="17"/>
         <v>4015/4016</v>
       </c>
       <c r="L43" s="61" t="str">
@@ -5935,11 +5914,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M43" s="12">
-        <f>I43-F43</f>
+        <f t="shared" si="18"/>
         <v>3.3009259255777579E-2</v>
       </c>
       <c r="N43" s="13">
-        <f>$M43*24*60</f>
+        <f t="shared" si="22"/>
         <v>47.533333328319713</v>
       </c>
       <c r="O43" s="13"/>
@@ -5947,27 +5926,27 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="T43" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E43-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I43+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B43&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:28:05-0600',mode:absolute,to:'2016-05-13 10:18:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U43" s="74" t="str">
-        <f>IF(Y43&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V43" s="74">
-        <f>VALUE(LEFT(A43,3))-VALUE(LEFT(A42,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W43" s="74">
-        <f>RIGHT(D43,LEN(D43)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.3</v>
       </c>
       <c r="X43" s="74">
-        <f>RIGHT(H43,LEN(H43)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y43" s="74">
-        <f>ABS(X43-W43)</f>
+        <f t="shared" si="16"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z43" s="75" t="e">
@@ -6011,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="61" t="str">
-        <f>IF(ISEVEN(B44),(B44-1)&amp;"/"&amp;B44,B44&amp;"/"&amp;(B44+1))</f>
+        <f t="shared" si="17"/>
         <v>4009/4010</v>
       </c>
       <c r="L44" s="61" t="str">
@@ -6019,11 +5998,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M44" s="12">
-        <f>I44-F44</f>
+        <f t="shared" si="18"/>
         <v>2.7210648149775807E-2</v>
       </c>
       <c r="N44" s="13">
-        <f>$M44*24*60</f>
+        <f t="shared" si="22"/>
         <v>39.183333335677162</v>
       </c>
       <c r="O44" s="13"/>
@@ -6031,27 +6010,27 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
       <c r="T44" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E44-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I44+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B44&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 08:54:10-0600',mode:absolute,to:'2016-05-13 09:36:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U44" s="74" t="str">
-        <f>IF(Y44&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V44" s="74">
-        <f>VALUE(LEFT(A44,3))-VALUE(LEFT(A43,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W44" s="74">
-        <f>RIGHT(D44,LEN(D44)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="X44" s="74">
-        <f>RIGHT(H44,LEN(H44)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y44" s="74">
-        <f>ABS(X44-W44)</f>
+        <f t="shared" si="16"/>
         <v>23.275499999999997</v>
       </c>
       <c r="Z44" s="75" t="e">
@@ -6095,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="61" t="str">
-        <f>IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
+        <f t="shared" si="17"/>
         <v>4009/4010</v>
       </c>
       <c r="L45" s="61" t="str">
@@ -6103,11 +6082,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M45" s="12">
-        <f>I45-F45</f>
+        <f t="shared" si="18"/>
         <v>3.0046296298678499E-2</v>
       </c>
       <c r="N45" s="13">
-        <f>$M45*24*60</f>
+        <f t="shared" si="22"/>
         <v>43.266666670097038</v>
       </c>
       <c r="O45" s="13"/>
@@ -6115,27 +6094,27 @@
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="T45" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:48:34-0600',mode:absolute,to:'2016-05-13 10:34:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U45" s="74" t="str">
-        <f>IF(Y45&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V45" s="74">
-        <f>VALUE(LEFT(A45,3))-VALUE(LEFT(A44,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W45" s="74">
-        <f>RIGHT(D45,LEN(D45)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X45" s="74">
-        <f>RIGHT(H45,LEN(H45)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y45" s="74">
-        <f>ABS(X45-W45)</f>
+        <f t="shared" si="16"/>
         <v>23.283099999999997</v>
       </c>
       <c r="Z45" s="75" t="e">
@@ -6179,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="61" t="str">
-        <f>IF(ISEVEN(B46),(B46-1)&amp;"/"&amp;B46,B46&amp;"/"&amp;(B46+1))</f>
+        <f t="shared" si="17"/>
         <v>4025/4026</v>
       </c>
       <c r="L46" s="61" t="str">
@@ -6187,11 +6166,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M46" s="12">
-        <f>I46-F46</f>
+        <f t="shared" si="18"/>
         <v>2.5740740740729962E-2</v>
       </c>
       <c r="N46" s="13">
-        <f>$M46*24*60</f>
+        <f t="shared" si="22"/>
         <v>37.066666666651145</v>
       </c>
       <c r="O46" s="13"/>
@@ -6199,27 +6178,27 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="T46" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E46-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I46+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B46&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:06:20-0600',mode:absolute,to:'2016-05-13 09:52:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U46" s="74" t="str">
-        <f>IF(Y46&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V46" s="74">
-        <f>VALUE(LEFT(A46,3))-VALUE(LEFT(A45,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W46" s="74">
-        <f>RIGHT(D46,LEN(D46)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X46" s="74">
-        <f>RIGHT(H46,LEN(H46)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.3325</v>
       </c>
       <c r="Y46" s="74">
-        <f>ABS(X46-W46)</f>
+        <f t="shared" si="16"/>
         <v>23.287600000000001</v>
       </c>
       <c r="Z46" s="75" t="e">
@@ -6263,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="61" t="str">
-        <f>IF(ISEVEN(B47),(B47-1)&amp;"/"&amp;B47,B47&amp;"/"&amp;(B47+1))</f>
+        <f t="shared" si="17"/>
         <v>4025/4026</v>
       </c>
       <c r="L47" s="61" t="str">
@@ -6271,11 +6250,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M47" s="12">
-        <f>I47-F47</f>
+        <f t="shared" si="18"/>
         <v>3.312500000174623E-2</v>
       </c>
       <c r="N47" s="13">
-        <f>$M47*24*60</f>
+        <f t="shared" si="22"/>
         <v>47.700000002514571</v>
       </c>
       <c r="O47" s="13"/>
@@ -6283,27 +6262,27 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
       <c r="T47" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E47-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I47+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B47&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:57:53-0600',mode:absolute,to:'2016-05-13 10:50:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U47" s="74" t="str">
-        <f>IF(Y47&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V47" s="74">
-        <f>VALUE(LEFT(A47,3))-VALUE(LEFT(A46,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W47" s="74">
-        <f>RIGHT(D47,LEN(D47)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X47" s="74">
-        <f>RIGHT(H47,LEN(H47)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y47" s="74">
-        <f>ABS(X47-W47)</f>
+        <f t="shared" si="16"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z47" s="75" t="e">
@@ -6347,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="61" t="str">
-        <f>IF(ISEVEN(B48),(B48-1)&amp;"/"&amp;B48,B48&amp;"/"&amp;(B48+1))</f>
+        <f t="shared" si="17"/>
         <v>4037/4038</v>
       </c>
       <c r="L48" s="61" t="str">
@@ -6355,11 +6334,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M48" s="12">
-        <f>I48-F48</f>
+        <f t="shared" si="18"/>
         <v>3.2083333331684116E-2</v>
       </c>
       <c r="N48" s="13">
-        <f>$M48*24*60</f>
+        <f t="shared" si="22"/>
         <v>46.199999997625127</v>
       </c>
       <c r="O48" s="13"/>
@@ -6367,27 +6346,27 @@
       <c r="Q48" s="62"/>
       <c r="R48" s="62"/>
       <c r="T48" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E48-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I48+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B48&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:18:17-0600',mode:absolute,to:'2016-05-13 10:07:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U48" s="74" t="str">
-        <f>IF(Y48&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V48" s="74">
-        <f>VALUE(LEFT(A48,3))-VALUE(LEFT(A47,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W48" s="74">
-        <f>RIGHT(D48,LEN(D48)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X48" s="74">
-        <f>RIGHT(H48,LEN(H48)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y48" s="74">
-        <f>ABS(X48-W48)</f>
+        <f t="shared" si="16"/>
         <v>23.2835</v>
       </c>
       <c r="Z48" s="75" t="e">
@@ -6431,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="61" t="str">
-        <f>IF(ISEVEN(B49),(B49-1)&amp;"/"&amp;B49,B49&amp;"/"&amp;(B49+1))</f>
+        <f t="shared" si="17"/>
         <v>4037/4038</v>
       </c>
       <c r="L49" s="61" t="str">
@@ -6439,11 +6418,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M49" s="12">
-        <f>I49-F49</f>
+        <f t="shared" si="18"/>
         <v>2.806712962774327E-2</v>
       </c>
       <c r="N49" s="13">
-        <f>$M49*24*60</f>
+        <f t="shared" si="22"/>
         <v>40.416666663950309</v>
       </c>
       <c r="O49" s="13"/>
@@ -6451,27 +6430,27 @@
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
       <c r="T49" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E49-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I49+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B49&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:20:30-0600',mode:absolute,to:'2016-05-13 11:04:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U49" s="74" t="str">
-        <f>IF(Y49&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V49" s="74">
-        <f>VALUE(LEFT(A49,3))-VALUE(LEFT(A48,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W49" s="74">
-        <f>RIGHT(D49,LEN(D49)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.2973</v>
       </c>
       <c r="X49" s="74">
-        <f>RIGHT(H49,LEN(H49)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y49" s="74">
-        <f>ABS(X49-W49)</f>
+        <f t="shared" si="16"/>
         <v>23.282799999999998</v>
       </c>
       <c r="Z49" s="75" t="e">
@@ -6515,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="61" t="str">
-        <f>IF(ISEVEN(B50),(B50-1)&amp;"/"&amp;B50,B50&amp;"/"&amp;(B50+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L50" s="61" t="str">
@@ -6523,11 +6502,11 @@
         <v>STARKS</v>
       </c>
       <c r="M50" s="12">
-        <f>I50-F50</f>
+        <f t="shared" si="18"/>
         <v>2.7060185180744156E-2</v>
       </c>
       <c r="N50" s="13">
-        <f>$M50*24*60</f>
+        <f t="shared" si="22"/>
         <v>38.966666660271585</v>
       </c>
       <c r="O50" s="13"/>
@@ -6535,27 +6514,27 @@
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
       <c r="T50" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E50-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I50+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B50&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:39:40-0600',mode:absolute,to:'2016-05-13 10:21:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U50" s="74" t="str">
-        <f>IF(Y50&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V50" s="74">
-        <f>VALUE(LEFT(A50,3))-VALUE(LEFT(A49,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W50" s="74">
-        <f>RIGHT(D50,LEN(D50)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X50" s="74">
-        <f>RIGHT(H50,LEN(H50)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.333400000000001</v>
       </c>
       <c r="Y50" s="74">
-        <f>ABS(X50-W50)</f>
+        <f t="shared" si="16"/>
         <v>23.289000000000001</v>
       </c>
       <c r="Z50" s="75" t="e">
@@ -6599,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="61" t="str">
-        <f>IF(ISEVEN(B51),(B51-1)&amp;"/"&amp;B51,B51&amp;"/"&amp;(B51+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L51" s="61" t="str">
@@ -6607,11 +6586,11 @@
         <v>STARKS</v>
       </c>
       <c r="M51" s="12">
-        <f>I51-F51</f>
+        <f t="shared" si="18"/>
         <v>3.0173611106874887E-2</v>
       </c>
       <c r="N51" s="13">
-        <f>$M51*24*60</f>
+        <f t="shared" si="22"/>
         <v>43.449999993899837</v>
       </c>
       <c r="O51" s="13"/>
@@ -6619,27 +6598,27 @@
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
       <c r="T51" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E51-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I51+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B51&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:33:27-0600',mode:absolute,to:'2016-05-13 11:20:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U51" s="74" t="str">
-        <f>IF(Y51&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V51" s="74">
-        <f>VALUE(LEFT(A51,3))-VALUE(LEFT(A50,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W51" s="74">
-        <f>RIGHT(D51,LEN(D51)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.301500000000001</v>
       </c>
       <c r="X51" s="74">
-        <f>RIGHT(H51,LEN(H51)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y51" s="74">
-        <f>ABS(X51-W51)</f>
+        <f t="shared" si="16"/>
         <v>23.2881</v>
       </c>
       <c r="Z51" s="75" t="e">
@@ -6683,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="61" t="str">
-        <f>IF(ISEVEN(B52),(B52-1)&amp;"/"&amp;B52,B52&amp;"/"&amp;(B52+1))</f>
+        <f t="shared" si="17"/>
         <v>4039/4040</v>
       </c>
       <c r="L52" s="61" t="str">
@@ -6691,11 +6670,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M52" s="12">
-        <f>I52-F52</f>
+        <f t="shared" si="18"/>
         <v>2.5300925932242535E-2</v>
       </c>
       <c r="N52" s="13">
-        <f>$M52*24*60</f>
+        <f t="shared" si="22"/>
         <v>36.43333334242925</v>
       </c>
       <c r="O52" s="13"/>
@@ -6703,27 +6682,27 @@
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
       <c r="T52" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E52-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I52+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B52&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 09:56:42-0600',mode:absolute,to:'2016-05-13 10:36:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U52" s="74" t="str">
-        <f>IF(Y52&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V52" s="74">
-        <f>VALUE(LEFT(A52,3))-VALUE(LEFT(A51,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W52" s="74">
-        <f>RIGHT(D52,LEN(D52)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X52" s="74">
-        <f>RIGHT(H52,LEN(H52)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y52" s="74">
-        <f>ABS(X52-W52)</f>
+        <f t="shared" si="16"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z52" s="75" t="e">
@@ -6767,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="61" t="str">
-        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
+        <f t="shared" si="17"/>
         <v>4039/4040</v>
       </c>
       <c r="L53" s="61" t="str">
@@ -6775,11 +6754,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M53" s="12">
-        <f>I53-F53</f>
+        <f t="shared" si="18"/>
         <v>2.5127314816927537E-2</v>
       </c>
       <c r="N53" s="13">
-        <f>$M53*24*60</f>
+        <f t="shared" si="22"/>
         <v>36.183333336375654</v>
       </c>
       <c r="O53" s="13"/>
@@ -6787,27 +6766,27 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="62"/>
       <c r="T53" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:52:35-0600',mode:absolute,to:'2016-05-13 11:33:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="74" t="str">
-        <f>IF(Y53&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V53" s="74">
-        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W53" s="74">
-        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.296900000000001</v>
       </c>
       <c r="X53" s="74">
-        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y53" s="74">
-        <f>ABS(X53-W53)</f>
+        <f t="shared" si="16"/>
         <v>23.280799999999999</v>
       </c>
       <c r="Z53" s="75" t="e">
@@ -6851,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="61" t="str">
-        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
+        <f t="shared" si="17"/>
         <v>4043/4044</v>
       </c>
       <c r="L54" s="61" t="str">
@@ -6859,11 +6838,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M54" s="12">
-        <f>I54-F54</f>
+        <f t="shared" si="18"/>
         <v>2.8078703704522923E-2</v>
       </c>
       <c r="N54" s="13">
-        <f>$M54*24*60</f>
+        <f t="shared" si="22"/>
         <v>40.433333334513009</v>
       </c>
       <c r="O54" s="13"/>
@@ -6871,27 +6850,27 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="T54" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:07:02-0600',mode:absolute,to:'2016-05-13 10:52:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="74" t="str">
-        <f>IF(Y54&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V54" s="74">
-        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W54" s="74">
-        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.53E-2</v>
       </c>
       <c r="X54" s="74">
-        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.33</v>
       </c>
       <c r="Y54" s="74">
-        <f>ABS(X54-W54)</f>
+        <f t="shared" si="16"/>
         <v>23.284699999999997</v>
       </c>
       <c r="Z54" s="75" t="e">
@@ -6935,7 +6914,7 @@
         <v>2</v>
       </c>
       <c r="K55" s="61" t="str">
-        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
+        <f t="shared" si="17"/>
         <v>4043/4044</v>
       </c>
       <c r="L55" s="61" t="str">
@@ -6943,11 +6922,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M55" s="12">
-        <f>I55-F55</f>
+        <f t="shared" si="18"/>
         <v>3.3518518517666962E-2</v>
       </c>
       <c r="N55" s="13">
-        <f>$M55*24*60</f>
+        <f t="shared" si="22"/>
         <v>48.266666665440425</v>
       </c>
       <c r="O55" s="13"/>
@@ -6955,26 +6934,26 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="T55" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:56:14-0600',mode:absolute,to:'2016-05-13 11:48:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="74" t="str">
-        <f>IF(Y55&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V55" s="74">
-        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W55" s="74">
-        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.2989</v>
       </c>
       <c r="X55" s="74">
         <v>0.20680000000000001</v>
       </c>
       <c r="Y55" s="74">
-        <f>ABS(X55-W55)</f>
+        <f t="shared" si="16"/>
         <v>23.092099999999999</v>
       </c>
       <c r="Z55" s="75">
@@ -7018,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="61" t="str">
-        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
+        <f t="shared" si="17"/>
         <v>4015/4016</v>
       </c>
       <c r="L56" s="61" t="str">
@@ -7026,11 +7005,11 @@
         <v>YORK</v>
       </c>
       <c r="M56" s="12">
-        <f>I56-F56</f>
+        <f t="shared" si="18"/>
         <v>2.8171296296932269E-2</v>
       </c>
       <c r="N56" s="13">
-        <f>$M56*24*60</f>
+        <f t="shared" si="22"/>
         <v>40.566666667582467</v>
       </c>
       <c r="O56" s="13"/>
@@ -7038,27 +7017,27 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
       <c r="T56" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:22:36-0600',mode:absolute,to:'2016-05-13 11:06:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="74" t="str">
-        <f>IF(Y56&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V56" s="74">
-        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W56" s="74">
-        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X56" s="74">
-        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
+        <f t="shared" ref="X56:X87" si="23">RIGHT(H56,LEN(H56)-4)/10000</f>
         <v>23.330100000000002</v>
       </c>
       <c r="Y56" s="74">
-        <f>ABS(X56-W56)</f>
+        <f t="shared" si="16"/>
         <v>23.284100000000002</v>
       </c>
       <c r="Z56" s="75" t="e">
@@ -7102,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="61" t="str">
-        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
+        <f t="shared" si="17"/>
         <v>4015/4016</v>
       </c>
       <c r="L57" s="61" t="str">
@@ -7110,11 +7089,11 @@
         <v>YORK</v>
       </c>
       <c r="M57" s="12">
-        <f>I57-F57</f>
+        <f t="shared" si="18"/>
         <v>2.8518518520286307E-2</v>
       </c>
       <c r="N57" s="13">
-        <f>$M57*24*60</f>
+        <f t="shared" si="22"/>
         <v>41.066666669212282</v>
       </c>
       <c r="O57" s="13"/>
@@ -7122,27 +7101,27 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
       <c r="T57" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 11:20:34-0600',mode:absolute,to:'2016-05-13 12:05:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="74" t="str">
-        <f>IF(Y57&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V57" s="74">
-        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W57" s="74">
-        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X57" s="74">
-        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.78E-2</v>
       </c>
       <c r="Y57" s="74">
-        <f>ABS(X57-W57)</f>
+        <f t="shared" si="16"/>
         <v>23.280199999999997</v>
       </c>
       <c r="Z57" s="75" t="e">
@@ -7186,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="61" t="str">
-        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
+        <f t="shared" si="17"/>
         <v>4009/4010</v>
       </c>
       <c r="L58" s="61" t="str">
@@ -7194,11 +7173,11 @@
         <v>ADANE</v>
       </c>
       <c r="M58" s="12">
-        <f>I58-F58</f>
+        <f t="shared" si="18"/>
         <v>2.8472222220443655E-2</v>
       </c>
       <c r="N58" s="13">
-        <f>$M58*24*60</f>
+        <f t="shared" si="22"/>
         <v>40.999999997438863</v>
       </c>
       <c r="O58" s="13"/>
@@ -7206,27 +7185,27 @@
       <c r="Q58" s="62"/>
       <c r="R58" s="62"/>
       <c r="T58" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:37:00-0600',mode:absolute,to:'2016-05-13 11:22:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="74" t="str">
-        <f>IF(Y58&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V58" s="74">
-        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W58" s="74">
-        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X58" s="74">
-        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.331</v>
       </c>
       <c r="Y58" s="74">
-        <f>ABS(X58-W58)</f>
+        <f t="shared" si="16"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z58" s="75" t="e">
@@ -7270,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="61" t="str">
-        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
+        <f t="shared" si="17"/>
         <v>4009/4010</v>
       </c>
       <c r="L59" s="61" t="str">
@@ -7278,11 +7257,11 @@
         <v>ADANE</v>
       </c>
       <c r="M59" s="12">
-        <f>I59-F59</f>
+        <f t="shared" si="18"/>
         <v>2.7523148142790888E-2</v>
       </c>
       <c r="N59" s="13">
-        <f>$M59*24*60</f>
+        <f t="shared" si="22"/>
         <v>39.633333325618878</v>
       </c>
       <c r="O59" s="13"/>
@@ -7290,27 +7269,27 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="T59" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 11:35:36-0600',mode:absolute,to:'2016-05-13 12:18:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="74" t="str">
-        <f>IF(Y59&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V59" s="74">
-        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W59" s="74">
-        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X59" s="74">
-        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y59" s="74">
-        <f>ABS(X59-W59)</f>
+        <f t="shared" si="16"/>
         <v>23.285800000000002</v>
       </c>
       <c r="Z59" s="75" t="e">
@@ -7354,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="61" t="str">
-        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
+        <f t="shared" si="17"/>
         <v>4025/4026</v>
       </c>
       <c r="L60" s="61" t="str">
@@ -7362,11 +7341,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M60" s="12">
-        <f>I60-F60</f>
+        <f t="shared" si="18"/>
         <v>2.9652777775481809E-2</v>
       </c>
       <c r="N60" s="13">
-        <f>$M60*24*60</f>
+        <f t="shared" si="22"/>
         <v>42.699999996693805</v>
       </c>
       <c r="O60" s="13"/>
@@ -7374,27 +7353,27 @@
       <c r="Q60" s="62"/>
       <c r="R60" s="62"/>
       <c r="T60" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 10:50:44-0600',mode:absolute,to:'2016-05-13 11:37:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="74" t="str">
-        <f>IF(Y60&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V60" s="74">
-        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W60" s="74">
-        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.82E-2</v>
       </c>
       <c r="X60" s="74">
-        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y60" s="74">
-        <f>ABS(X60-W60)</f>
+        <f t="shared" si="16"/>
         <v>23.281699999999997</v>
       </c>
       <c r="Z60" s="75" t="e">
@@ -7438,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="61" t="str">
-        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
+        <f t="shared" si="17"/>
         <v>4025/4026</v>
       </c>
       <c r="L61" s="61" t="str">
@@ -7446,11 +7425,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M61" s="12">
-        <f>I61-F61</f>
+        <f t="shared" si="18"/>
         <v>2.9363425928750075E-2</v>
       </c>
       <c r="N61" s="13">
-        <f>$M61*24*60</f>
+        <f t="shared" si="22"/>
         <v>42.283333337400109</v>
       </c>
       <c r="O61" s="13"/>
@@ -7458,27 +7437,27 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
       <c r="T61" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 11:47:58-0600',mode:absolute,to:'2016-05-13 12:34:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="74" t="str">
-        <f>IF(Y61&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V61" s="74">
-        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W61" s="74">
-        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X61" s="74">
-        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y61" s="74">
-        <f>ABS(X61-W61)</f>
+        <f t="shared" si="16"/>
         <v>23.282899999999998</v>
       </c>
       <c r="Z61" s="75" t="e">
@@ -7522,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="61" t="str">
-        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
+        <f t="shared" si="17"/>
         <v>4037/4038</v>
       </c>
       <c r="L62" s="61" t="str">
@@ -7530,11 +7509,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M62" s="12">
-        <f>I62-F62</f>
+        <f t="shared" si="18"/>
         <v>2.6747685180453118E-2</v>
       </c>
       <c r="N62" s="13">
-        <f>$M62*24*60</f>
+        <f t="shared" si="22"/>
         <v>38.51666665985249</v>
       </c>
       <c r="O62" s="13"/>
@@ -7542,27 +7521,27 @@
       <c r="Q62" s="62"/>
       <c r="R62" s="62"/>
       <c r="T62" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 11:10:29-0600',mode:absolute,to:'2016-05-13 11:52:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="74" t="str">
-        <f>IF(Y62&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V62" s="74">
-        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W62" s="74">
-        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X62" s="74">
-        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.331700000000001</v>
       </c>
       <c r="Y62" s="74">
-        <f>ABS(X62-W62)</f>
+        <f t="shared" si="16"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z62" s="75" t="e">
@@ -7606,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="61" t="str">
-        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
+        <f t="shared" si="17"/>
         <v>4037/4038</v>
       </c>
       <c r="L63" s="61" t="str">
@@ -7614,11 +7593,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M63" s="12">
-        <f>I63-F63</f>
+        <f t="shared" si="18"/>
         <v>3.0821759261016268E-2</v>
       </c>
       <c r="N63" s="13">
-        <f>$M63*24*60</f>
+        <f t="shared" si="22"/>
         <v>44.383333335863426</v>
       </c>
       <c r="O63" s="13"/>
@@ -7626,27 +7605,27 @@
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
       <c r="T63" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:01:27-0600',mode:absolute,to:'2016-05-13 12:49:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="74" t="str">
-        <f>IF(Y63&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V63" s="74">
-        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W63" s="74">
-        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.297599999999999</v>
       </c>
       <c r="X63" s="74">
-        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y63" s="74">
-        <f>ABS(X63-W63)</f>
+        <f t="shared" si="16"/>
         <v>23.283099999999997</v>
       </c>
       <c r="Z63" s="75" t="e">
@@ -7690,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="61" t="str">
-        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L64" s="61" t="str">
@@ -7698,11 +7677,11 @@
         <v>STORY</v>
       </c>
       <c r="M64" s="12">
-        <f>I64-F64</f>
+        <f t="shared" si="18"/>
         <v>2.4375000000873115E-2</v>
       </c>
       <c r="N64" s="13">
-        <f>$M64*24*60</f>
+        <f t="shared" si="22"/>
         <v>35.100000001257285</v>
       </c>
       <c r="O64" s="13"/>
@@ -7710,27 +7689,27 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
       <c r="T64" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 11:26:05-0600',mode:absolute,to:'2016-05-13 12:06:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="74" t="str">
-        <f>IF(Y64&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V64" s="74">
-        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W64" s="74">
-        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="X64" s="74">
-        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3307</v>
       </c>
       <c r="Y64" s="74">
-        <f>ABS(X64-W64)</f>
+        <f t="shared" si="16"/>
         <v>23.288499999999999</v>
       </c>
       <c r="Z64" s="75" t="e">
@@ -7774,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="61" t="str">
-        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
+        <f t="shared" si="17"/>
         <v>4019/4020</v>
       </c>
       <c r="L65" s="61" t="str">
@@ -7782,11 +7761,11 @@
         <v>STORY</v>
       </c>
       <c r="M65" s="12">
-        <f>I65-F65</f>
+        <f t="shared" si="18"/>
         <v>2.5995370371674653E-2</v>
       </c>
       <c r="N65" s="13">
-        <f>$M65*24*60</f>
+        <f t="shared" si="22"/>
         <v>37.433333335211501</v>
       </c>
       <c r="O65" s="13"/>
@@ -7794,27 +7773,27 @@
       <c r="Q65" s="62"/>
       <c r="R65" s="62"/>
       <c r="T65" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:21:15-0600',mode:absolute,to:'2016-05-13 13:03:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="74" t="str">
-        <f>IF(Y65&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V65" s="74">
-        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W65" s="74">
-        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>23.301500000000001</v>
       </c>
       <c r="X65" s="74">
-        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y65" s="74">
-        <f>ABS(X65-W65)</f>
+        <f t="shared" si="16"/>
         <v>23.286999999999999</v>
       </c>
       <c r="Z65" s="75" t="e">
@@ -7858,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="61" t="str">
-        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
+        <f t="shared" si="17"/>
         <v>4039/4040</v>
       </c>
       <c r="L66" s="61" t="str">
@@ -7866,11 +7845,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M66" s="12">
-        <f>I66-F66</f>
+        <f t="shared" si="18"/>
         <v>2.6863425926421769E-2</v>
       </c>
       <c r="N66" s="13">
-        <f>$M66*24*60</f>
+        <f t="shared" si="22"/>
         <v>38.683333334047347</v>
       </c>
       <c r="O66" s="13"/>
@@ -7878,27 +7857,27 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
       <c r="T66" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 11:38:27-0600',mode:absolute,to:'2016-05-13 12:21:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="74" t="str">
-        <f>IF(Y66&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V66" s="74">
-        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W66" s="74">
-        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
+        <f t="shared" si="14"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X66" s="74">
-        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3323</v>
       </c>
       <c r="Y66" s="74">
-        <f>ABS(X66-W66)</f>
+        <f t="shared" si="16"/>
         <v>23.286799999999999</v>
       </c>
       <c r="Z66" s="75" t="e">
@@ -7942,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="61" t="str">
-        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
+        <f t="shared" si="17"/>
         <v>4039/4040</v>
       </c>
       <c r="L67" s="61" t="str">
@@ -7950,11 +7929,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M67" s="12">
-        <f>I67-F67</f>
+        <f t="shared" si="18"/>
         <v>2.6585648141917773E-2</v>
       </c>
       <c r="N67" s="13">
-        <f>$M67*24*60</f>
+        <f t="shared" si="22"/>
         <v>38.283333324361593</v>
       </c>
       <c r="O67" s="13"/>
@@ -7962,27 +7941,27 @@
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
       <c r="T67" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="19"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:36:47-0600',mode:absolute,to:'2016-05-13 13:18:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="74" t="str">
-        <f>IF(Y67&lt;23,"Y","N")</f>
+        <f t="shared" si="20"/>
         <v>N</v>
       </c>
       <c r="V67" s="74">
-        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W67" s="74">
-        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
+        <f t="shared" ref="W67:W98" si="24">RIGHT(D67,LEN(D67)-4)/10000</f>
         <v>23.301100000000002</v>
       </c>
       <c r="X67" s="74">
-        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y67" s="74">
-        <f>ABS(X67-W67)</f>
+        <f t="shared" ref="Y67:Y98" si="25">ABS(X67-W67)</f>
         <v>23.285300000000003</v>
       </c>
       <c r="Z67" s="75" t="e">
@@ -8026,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="61" t="str">
-        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
+        <f t="shared" ref="K68:K99" si="26">IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L68" s="61" t="str">
@@ -8034,11 +8013,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M68" s="12">
-        <f>I68-F68</f>
+        <f t="shared" ref="M68:M99" si="27">I68-F68</f>
         <v>2.7974537035333924E-2</v>
       </c>
       <c r="N68" s="13">
-        <f>$M68*24*60</f>
+        <f t="shared" si="22"/>
         <v>40.283333330880851</v>
       </c>
       <c r="O68" s="13"/>
@@ -8046,27 +8025,27 @@
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
       <c r="T68" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T68:T99" si="28">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 11:50:03-0600',mode:absolute,to:'2016-05-13 12:38:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U68" s="74" t="str">
-        <f>IF(Y68&lt;23,"Y","N")</f>
+        <f t="shared" ref="U68:U99" si="29">IF(Y68&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V68" s="74">
-        <f>VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
+        <f t="shared" ref="V68:V99" si="30">VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
         <v>1</v>
       </c>
       <c r="W68" s="74">
-        <f>RIGHT(D68,LEN(D68)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.53E-2</v>
       </c>
       <c r="X68" s="74">
-        <f>RIGHT(H68,LEN(H68)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3309</v>
       </c>
       <c r="Y68" s="74">
-        <f>ABS(X68-W68)</f>
+        <f t="shared" si="25"/>
         <v>23.285599999999999</v>
       </c>
       <c r="Z68" s="75" t="e">
@@ -8110,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
+        <f t="shared" si="26"/>
         <v>4043/4044</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8118,11 +8097,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M69" s="12">
-        <f>I69-F69</f>
+        <f t="shared" si="27"/>
         <v>2.9317129628907423E-2</v>
       </c>
       <c r="N69" s="13">
-        <f>$M69*24*60</f>
+        <f t="shared" si="22"/>
         <v>42.21666666562669</v>
       </c>
       <c r="O69" s="13"/>
@@ -8130,27 +8109,27 @@
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="T69" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:44:35-0600',mode:absolute,to:'2016-05-13 13:34:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="74" t="str">
-        <f>IF(Y69&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V69" s="74">
-        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W69" s="74">
-        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X69" s="74">
-        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y69" s="74">
-        <f>ABS(X69-W69)</f>
+        <f t="shared" si="25"/>
         <v>23.284199999999998</v>
       </c>
       <c r="Z69" s="75" t="e">
@@ -8194,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <f t="shared" si="26"/>
         <v>4015/4016</v>
       </c>
       <c r="L70" s="61" t="str">
@@ -8202,11 +8181,11 @@
         <v>STEWART</v>
       </c>
       <c r="M70" s="12">
-        <f>I70-F70</f>
+        <f t="shared" si="27"/>
         <v>2.8217592596774921E-2</v>
       </c>
       <c r="N70" s="13">
-        <f>$M70*24*60</f>
+        <f t="shared" si="22"/>
         <v>40.633333339355886</v>
       </c>
       <c r="O70" s="13"/>
@@ -8214,27 +8193,27 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:07:36-0600',mode:absolute,to:'2016-05-13 12:51:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="74" t="str">
-        <f>IF(Y70&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V70" s="74">
-        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W70" s="74">
-        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X70" s="74">
-        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y70" s="74">
-        <f>ABS(X70-W70)</f>
+        <f t="shared" si="25"/>
         <v>23.285799999999998</v>
       </c>
       <c r="Z70" s="75" t="e">
@@ -8278,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="61" t="str">
-        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
+        <f t="shared" si="26"/>
         <v>4015/4016</v>
       </c>
       <c r="L71" s="61" t="str">
@@ -8286,7 +8265,7 @@
         <v>STEWART</v>
       </c>
       <c r="M71" s="12">
-        <f>I71-F71</f>
+        <f t="shared" si="27"/>
         <v>2.7719907404389232E-2</v>
       </c>
       <c r="N71" s="13"/>
@@ -8302,27 +8281,27 @@
         <v>427</v>
       </c>
       <c r="T71" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:04:53-0600',mode:absolute,to:'2016-05-13 13:48:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="74" t="str">
-        <f>IF(Y71&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>Y</v>
       </c>
       <c r="V71" s="74">
-        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W71" s="74">
-        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X71" s="74">
-        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>0.36680000000000001</v>
       </c>
       <c r="Y71" s="74">
-        <f>ABS(X71-W71)</f>
+        <f t="shared" si="25"/>
         <v>22.932499999999997</v>
       </c>
       <c r="Z71" s="75" t="e">
@@ -8366,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="61" t="str">
-        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
+        <f t="shared" si="26"/>
         <v>4009/4010</v>
       </c>
       <c r="L72" s="61" t="str">
@@ -8374,11 +8353,11 @@
         <v>NELSON</v>
       </c>
       <c r="M72" s="12">
-        <f>I72-F72</f>
+        <f t="shared" si="27"/>
         <v>3.0335648145410232E-2</v>
       </c>
       <c r="N72" s="13">
-        <f>$M72*24*60</f>
+        <f t="shared" ref="N72:N84" si="31">$M72*24*60</f>
         <v>43.683333329390734</v>
       </c>
       <c r="O72" s="13"/>
@@ -8386,27 +8365,27 @@
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
       <c r="T72" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:19:23-0600',mode:absolute,to:'2016-05-13 13:07:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="74" t="str">
-        <f>IF(Y72&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V72" s="74">
-        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W72" s="74">
-        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.58E-2</v>
       </c>
       <c r="X72" s="74">
-        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3309</v>
       </c>
       <c r="Y72" s="74">
-        <f>ABS(X72-W72)</f>
+        <f t="shared" si="25"/>
         <v>23.2851</v>
       </c>
       <c r="Z72" s="75" t="e">
@@ -8450,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="61" t="str">
-        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
+        <f t="shared" si="26"/>
         <v>4009/4010</v>
       </c>
       <c r="L73" s="61" t="str">
@@ -8458,11 +8437,11 @@
         <v>NELSON</v>
       </c>
       <c r="M73" s="12">
-        <f>I73-F73</f>
+        <f t="shared" si="27"/>
         <v>3.3645833333139308E-2</v>
       </c>
       <c r="N73" s="13">
-        <f>$M73*24*60</f>
+        <f t="shared" si="31"/>
         <v>48.449999999720603</v>
       </c>
       <c r="O73" s="13"/>
@@ -8470,27 +8449,27 @@
       <c r="Q73" s="62"/>
       <c r="R73" s="62"/>
       <c r="T73" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:13:32-0600',mode:absolute,to:'2016-05-13 14:05:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="74" t="str">
-        <f>IF(Y73&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V73" s="74">
-        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W73" s="74">
-        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X73" s="74">
-        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y73" s="74">
-        <f>ABS(X73-W73)</f>
+        <f t="shared" si="25"/>
         <v>23.283299999999997</v>
       </c>
       <c r="Z73" s="75" t="e">
@@ -8534,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="61" t="str">
-        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
+        <f t="shared" si="26"/>
         <v>4025/4026</v>
       </c>
       <c r="L74" s="61" t="str">
@@ -8542,11 +8521,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M74" s="12">
-        <f>I74-F74</f>
+        <f t="shared" si="27"/>
         <v>2.8900462959427387E-2</v>
       </c>
       <c r="N74" s="13">
-        <f>$M74*24*60</f>
+        <f t="shared" si="31"/>
         <v>41.616666661575437</v>
       </c>
       <c r="O74" s="13"/>
@@ -8554,27 +8533,27 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
       <c r="T74" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:36:33-0600',mode:absolute,to:'2016-05-13 13:22:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="74" t="str">
-        <f>IF(Y74&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V74" s="74">
-        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W74" s="74">
-        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X74" s="74">
-        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y74" s="74">
-        <f>ABS(X74-W74)</f>
+        <f t="shared" si="25"/>
         <v>23.284700000000001</v>
       </c>
       <c r="Z74" s="75" t="e">
@@ -8618,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="61" t="str">
-        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
+        <f t="shared" si="26"/>
         <v>4025/4026</v>
       </c>
       <c r="L75" s="61" t="str">
@@ -8626,11 +8605,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M75" s="12">
-        <f>I75-F75</f>
+        <f t="shared" si="27"/>
         <v>3.0520833337504882E-2</v>
       </c>
       <c r="N75" s="13">
-        <f>$M75*24*60</f>
+        <f t="shared" si="31"/>
         <v>43.950000006007031</v>
       </c>
       <c r="O75" s="13"/>
@@ -8638,27 +8617,27 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="T75" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:32:26-0600',mode:absolute,to:'2016-05-13 14:19:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="74" t="str">
-        <f>IF(Y75&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V75" s="74">
-        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W75" s="74">
-        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X75" s="74">
-        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y75" s="74">
-        <f>ABS(X75-W75)</f>
+        <f t="shared" si="25"/>
         <v>23.284499999999998</v>
       </c>
       <c r="Z75" s="75" t="e">
@@ -8702,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="61" t="str">
-        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
+        <f t="shared" si="26"/>
         <v>4037/4038</v>
       </c>
       <c r="L76" s="61" t="str">
@@ -8710,11 +8689,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M76" s="12">
-        <f>I76-F76</f>
+        <f t="shared" si="27"/>
         <v>2.8333333328191657E-2</v>
       </c>
       <c r="N76" s="13">
-        <f>$M76*24*60</f>
+        <f t="shared" si="31"/>
         <v>40.799999992595986</v>
       </c>
       <c r="O76" s="13"/>
@@ -8722,27 +8701,27 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
       <c r="T76" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 12:53:49-0600',mode:absolute,to:'2016-05-13 13:37:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="74" t="str">
-        <f>IF(Y76&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V76" s="74">
-        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W76" s="74">
-        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.58E-2</v>
       </c>
       <c r="X76" s="74">
-        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.331099999999999</v>
       </c>
       <c r="Y76" s="74">
-        <f>ABS(X76-W76)</f>
+        <f t="shared" si="25"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z76" s="75" t="e">
@@ -8786,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="61" t="str">
-        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
+        <f t="shared" si="26"/>
         <v>4037/4038</v>
       </c>
       <c r="L77" s="61" t="str">
@@ -8794,11 +8773,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M77" s="12">
-        <f>I77-F77</f>
+        <f t="shared" si="27"/>
         <v>3.0138888883811887E-2</v>
       </c>
       <c r="N77" s="13">
-        <f>$M77*24*60</f>
+        <f t="shared" si="31"/>
         <v>43.399999992689118</v>
       </c>
       <c r="O77" s="13"/>
@@ -8806,27 +8785,27 @@
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
       <c r="T77" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:47:17-0600',mode:absolute,to:'2016-05-13 14:34:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="74" t="str">
-        <f>IF(Y77&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V77" s="74">
-        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W77" s="74">
-        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X77" s="74">
-        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y77" s="74">
-        <f>ABS(X77-W77)</f>
+        <f t="shared" si="25"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z77" s="75" t="e">
@@ -8870,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="61" t="str">
-        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
+        <f t="shared" si="26"/>
         <v>4019/4020</v>
       </c>
       <c r="L78" s="61" t="str">
@@ -8878,11 +8857,11 @@
         <v>STORY</v>
       </c>
       <c r="M78" s="12">
-        <f>I78-F78</f>
+        <f t="shared" si="27"/>
         <v>2.8414351858373266E-2</v>
       </c>
       <c r="N78" s="13">
-        <f>$M78*24*60</f>
+        <f t="shared" si="31"/>
         <v>40.916666676057503</v>
       </c>
       <c r="O78" s="13"/>
@@ -8890,27 +8869,27 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
       <c r="T78" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:03:23-0600',mode:absolute,to:'2016-05-13 13:52:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="74" t="str">
-        <f>IF(Y78&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V78" s="74">
-        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W78" s="74">
-        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X78" s="74">
-        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.328700000000001</v>
       </c>
       <c r="Y78" s="74">
-        <f>ABS(X78-W78)</f>
+        <f t="shared" si="25"/>
         <v>23.283800000000003</v>
       </c>
       <c r="Z78" s="75" t="e">
@@ -8954,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="61" t="str">
-        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
+        <f t="shared" si="26"/>
         <v>4019/4020</v>
       </c>
       <c r="L79" s="61" t="str">
@@ -8962,11 +8941,11 @@
         <v>STORY</v>
       </c>
       <c r="M79" s="12">
-        <f>I79-F79</f>
+        <f t="shared" si="27"/>
         <v>3.2685185185982846E-2</v>
       </c>
       <c r="N79" s="13">
-        <f>$M79*24*60</f>
+        <f t="shared" si="31"/>
         <v>47.066666667815298</v>
       </c>
       <c r="O79" s="13"/>
@@ -8974,27 +8953,27 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
       <c r="T79" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:00:23-0600',mode:absolute,to:'2016-05-13 14:50:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="74" t="str">
-        <f>IF(Y79&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V79" s="74">
-        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W79" s="74">
-        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X79" s="74">
-        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.09E-2</v>
       </c>
       <c r="Y79" s="74">
-        <f>ABS(X79-W79)</f>
+        <f t="shared" si="25"/>
         <v>23.286799999999999</v>
       </c>
       <c r="Z79" s="75" t="e">
@@ -9038,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="61" t="str">
-        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
+        <f t="shared" si="26"/>
         <v>4039/4040</v>
       </c>
       <c r="L80" s="61" t="str">
@@ -9046,11 +9025,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M80" s="12">
-        <f>I80-F80</f>
+        <f t="shared" si="27"/>
         <v>2.9513888890505768E-2</v>
       </c>
       <c r="N80" s="13">
-        <f>$M80*24*60</f>
+        <f t="shared" si="31"/>
         <v>42.500000002328306</v>
       </c>
       <c r="O80" s="13"/>
@@ -9058,27 +9037,27 @@
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
       <c r="T80" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:20:16-0600',mode:absolute,to:'2016-05-13 14:06:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="74" t="str">
-        <f>IF(Y80&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V80" s="74">
-        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W80" s="74">
-        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.53E-2</v>
       </c>
       <c r="X80" s="74">
-        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3337</v>
       </c>
       <c r="Y80" s="74">
-        <f>ABS(X80-W80)</f>
+        <f t="shared" si="25"/>
         <v>23.288399999999999</v>
       </c>
       <c r="Z80" s="75" t="e">
@@ -9122,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" si="26"/>
         <v>4039/4040</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9130,11 +9109,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M81" s="12">
-        <f>I81-F81</f>
+        <f t="shared" si="27"/>
         <v>2.9965277775772847E-2</v>
       </c>
       <c r="N81" s="13">
-        <f>$M81*24*60</f>
+        <f t="shared" si="31"/>
         <v>43.1499999971129</v>
       </c>
       <c r="O81" s="13"/>
@@ -9142,27 +9121,27 @@
       <c r="Q81" s="62"/>
       <c r="R81" s="62"/>
       <c r="T81" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:17:42-0600',mode:absolute,to:'2016-05-13 15:04:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="74" t="str">
-        <f>IF(Y81&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V81" s="74">
-        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W81" s="74">
-        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.3019</v>
       </c>
       <c r="X81" s="74">
-        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y81" s="74">
-        <f>ABS(X81-W81)</f>
+        <f t="shared" si="25"/>
         <v>23.285599999999999</v>
       </c>
       <c r="Z81" s="75">
@@ -9206,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="61" t="str">
-        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
+        <f t="shared" si="26"/>
         <v>4043/4044</v>
       </c>
       <c r="L82" s="61" t="str">
@@ -9214,11 +9193,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M82" s="12">
-        <f>I82-F82</f>
+        <f t="shared" si="27"/>
         <v>2.8287037035624962E-2</v>
       </c>
       <c r="N82" s="13">
-        <f>$M82*24*60</f>
+        <f t="shared" si="31"/>
         <v>40.733333331299946</v>
       </c>
       <c r="O82" s="13"/>
@@ -9226,27 +9205,27 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:37:12-0600',mode:absolute,to:'2016-05-13 14:21:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="74" t="str">
-        <f>IF(Y82&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V82" s="74">
-        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W82" s="74">
-        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.58E-2</v>
       </c>
       <c r="X82" s="74">
-        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.333100000000002</v>
       </c>
       <c r="Y82" s="74">
-        <f>ABS(X82-W82)</f>
+        <f t="shared" si="25"/>
         <v>23.287300000000002</v>
       </c>
       <c r="Z82" s="75" t="e">
@@ -9290,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="61" t="str">
-        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
+        <f t="shared" si="26"/>
         <v>4043/4044</v>
       </c>
       <c r="L83" s="61" t="str">
@@ -9298,11 +9277,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M83" s="12">
-        <f>I83-F83</f>
+        <f t="shared" si="27"/>
         <v>3.1157407407590654E-2</v>
       </c>
       <c r="N83" s="13">
-        <f>$M83*24*60</f>
+        <f t="shared" si="31"/>
         <v>44.866666666930541</v>
       </c>
       <c r="O83" s="13"/>
@@ -9310,27 +9289,27 @@
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
       <c r="T83" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:29:34-0600',mode:absolute,to:'2016-05-13 15:18:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="74" t="str">
-        <f>IF(Y83&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V83" s="74">
-        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W83" s="74">
-        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.300599999999999</v>
       </c>
       <c r="X83" s="74">
-        <f>RIGHT(H83,LEN(H83)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y83" s="74">
-        <f>ABS(X83-W83)</f>
+        <f t="shared" si="25"/>
         <v>23.285899999999998</v>
       </c>
       <c r="Z83" s="75" t="e">
@@ -9374,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="61" t="str">
-        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
+        <f t="shared" si="26"/>
         <v>4015/4016</v>
       </c>
       <c r="L84" s="61" t="str">
@@ -9382,11 +9361,11 @@
         <v>STEWART</v>
       </c>
       <c r="M84" s="12">
-        <f>I84-F84</f>
+        <f t="shared" si="27"/>
         <v>2.7557870373129845E-2</v>
       </c>
       <c r="N84" s="13">
-        <f>$M84*24*60</f>
+        <f t="shared" si="31"/>
         <v>39.683333337306976</v>
       </c>
       <c r="O84" s="13"/>
@@ -9394,27 +9373,27 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
       <c r="T84" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 13:52:55-0600',mode:absolute,to:'2016-05-13 14:36:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="74" t="str">
-        <f>IF(Y84&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V84" s="74">
-        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W84" s="74">
-        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X84" s="74">
-        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y84" s="74">
-        <f>ABS(X84-W84)</f>
+        <f t="shared" si="25"/>
         <v>23.2822</v>
       </c>
       <c r="Z84" s="75" t="e">
@@ -9458,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="61" t="str">
-        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
+        <f t="shared" si="26"/>
         <v>4015/4016</v>
       </c>
       <c r="L85" s="61" t="str">
@@ -9466,7 +9445,7 @@
         <v>STEWART</v>
       </c>
       <c r="M85" s="12">
-        <f>I85-F85</f>
+        <f t="shared" si="27"/>
         <v>2.9872685183363501E-2</v>
       </c>
       <c r="N85" s="13"/>
@@ -9482,27 +9461,27 @@
         <v>427</v>
       </c>
       <c r="T85" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:47:00-0600',mode:absolute,to:'2016-05-13 15:33:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="74" t="str">
-        <f>IF(Y85&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>Y</v>
       </c>
       <c r="V85" s="74">
-        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W85" s="74">
-        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X85" s="74">
-        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>0.49249999999999999</v>
       </c>
       <c r="Y85" s="74">
-        <f>ABS(X85-W85)</f>
+        <f t="shared" si="25"/>
         <v>22.805900000000001</v>
       </c>
       <c r="Z85" s="75" t="e">
@@ -9546,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="61" t="str">
-        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
+        <f t="shared" si="26"/>
         <v>4009/4010</v>
       </c>
       <c r="L86" s="61" t="str">
@@ -9554,7 +9533,7 @@
         <v>ADANE</v>
       </c>
       <c r="M86" s="12">
-        <f>I86-F86</f>
+        <f t="shared" si="27"/>
         <v>2.6921296295768116E-2</v>
       </c>
       <c r="N86" s="13">
@@ -9566,27 +9545,27 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
       <c r="T86" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:07:37-0600',mode:absolute,to:'2016-05-13 14:52:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="74" t="str">
-        <f>IF(Y86&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V86" s="74">
-        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W86" s="74">
-        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.58E-2</v>
       </c>
       <c r="X86" s="74">
-        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>23.3385</v>
       </c>
       <c r="Y86" s="74">
-        <f>ABS(X86-W86)</f>
+        <f t="shared" si="25"/>
         <v>23.2927</v>
       </c>
       <c r="Z86" s="75" t="e">
@@ -9630,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="61" t="str">
-        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
+        <f t="shared" si="26"/>
         <v>4009/4010</v>
       </c>
       <c r="L87" s="61" t="str">
@@ -9638,7 +9617,7 @@
         <v>ADANE</v>
       </c>
       <c r="M87" s="12">
-        <f>I87-F87</f>
+        <f t="shared" si="27"/>
         <v>2.6979166665114462E-2</v>
       </c>
       <c r="N87" s="13">
@@ -9650,27 +9629,27 @@
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
       <c r="T87" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:06:48-0600',mode:absolute,to:'2016-05-13 15:49:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="74" t="str">
-        <f>IF(Y87&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V87" s="74">
-        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W87" s="74">
-        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.307600000000001</v>
       </c>
       <c r="X87" s="74">
-        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
+        <f t="shared" si="23"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y87" s="74">
-        <f>ABS(X87-W87)</f>
+        <f t="shared" si="25"/>
         <v>23.2942</v>
       </c>
       <c r="Z87" s="75" t="e">
@@ -9714,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="61" t="str">
-        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
+        <f t="shared" si="26"/>
         <v>4025/4026</v>
       </c>
       <c r="L88" s="61" t="str">
@@ -9722,7 +9701,7 @@
         <v>WEBSTER</v>
       </c>
       <c r="M88" s="12">
-        <f>I88-F88</f>
+        <f t="shared" si="27"/>
         <v>2.901620369812008E-2</v>
       </c>
       <c r="N88" s="13">
@@ -9734,27 +9713,27 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="T88" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:21:53-0600',mode:absolute,to:'2016-05-13 15:07:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="74" t="str">
-        <f>IF(Y88&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V88" s="74">
-        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W88" s="74">
-        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X88" s="74">
-        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
+        <f t="shared" ref="X88:X119" si="32">RIGHT(H88,LEN(H88)-4)/10000</f>
         <v>23.330300000000001</v>
       </c>
       <c r="Y88" s="74">
-        <f>ABS(X88-W88)</f>
+        <f t="shared" si="25"/>
         <v>23.2852</v>
       </c>
       <c r="Z88" s="75" t="e">
@@ -9798,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="61" t="str">
-        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
+        <f t="shared" si="26"/>
         <v>4025/4026</v>
       </c>
       <c r="L89" s="61" t="str">
@@ -9806,7 +9785,7 @@
         <v>WEBSTER</v>
       </c>
       <c r="M89" s="12">
-        <f>I89-F89</f>
+        <f t="shared" si="27"/>
         <v>2.9027777774899732E-2</v>
       </c>
       <c r="N89" s="13">
@@ -9818,27 +9797,27 @@
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
       <c r="T89" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:22:35-0600',mode:absolute,to:'2016-05-13 16:07:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="74" t="str">
-        <f>IF(Y89&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V89" s="74">
-        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W89" s="74">
-        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X89" s="74">
-        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y89" s="74">
-        <f>ABS(X89-W89)</f>
+        <f t="shared" si="25"/>
         <v>23.2819</v>
       </c>
       <c r="Z89" s="75" t="e">
@@ -9882,7 +9861,7 @@
         <v>2</v>
       </c>
       <c r="K90" s="61" t="str">
-        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
+        <f t="shared" si="26"/>
         <v>4037/4038</v>
       </c>
       <c r="L90" s="61" t="str">
@@ -9890,7 +9869,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M90" s="12">
-        <f>I90-F90</f>
+        <f t="shared" si="27"/>
         <v>2.7546296296350192E-2</v>
       </c>
       <c r="N90" s="13">
@@ -9902,27 +9881,27 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
       <c r="T90" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:39:25-0600',mode:absolute,to:'2016-05-13 15:22:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="74" t="str">
-        <f>IF(Y90&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V90" s="74">
-        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W90" s="74">
-        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="X90" s="74">
-        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.327000000000002</v>
       </c>
       <c r="Y90" s="74">
-        <f>ABS(X90-W90)</f>
+        <f t="shared" si="25"/>
         <v>23.283700000000003</v>
       </c>
       <c r="Z90" s="75" t="e">
@@ -9966,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="61" t="str">
-        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
+        <f t="shared" si="26"/>
         <v>4037/4038</v>
       </c>
       <c r="L91" s="61" t="str">
@@ -9974,7 +9953,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M91" s="12">
-        <f>I91-F91</f>
+        <f t="shared" si="27"/>
         <v>2.6238425925839692E-2</v>
       </c>
       <c r="N91" s="13"/>
@@ -9989,27 +9968,27 @@
         <v>428</v>
       </c>
       <c r="T91" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:28:02-0600',mode:absolute,to:'2016-05-13 16:08:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="74" t="str">
-        <f>IF(Y91&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>Y</v>
       </c>
       <c r="V91" s="74">
-        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W91" s="74">
-        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.295500000000001</v>
       </c>
       <c r="X91" s="74">
-        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>6.4058999999999999</v>
       </c>
       <c r="Y91" s="74">
-        <f>ABS(X91-W91)</f>
+        <f t="shared" si="25"/>
         <v>16.889600000000002</v>
       </c>
       <c r="Z91" s="75">
@@ -10053,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="61" t="str">
-        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
+        <f t="shared" si="26"/>
         <v>4037/4038</v>
       </c>
       <c r="L92" s="61" t="str">
@@ -10061,7 +10040,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M92" s="12">
-        <f>I92-F92</f>
+        <f t="shared" si="27"/>
         <v>7.2800925918272696E-3</v>
       </c>
       <c r="N92" s="13"/>
@@ -10070,27 +10049,27 @@
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
       <c r="T92" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:13:05-0600',mode:absolute,to:'2016-05-13 16:26:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="74" t="str">
-        <f>IF(Y92&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>Y</v>
       </c>
       <c r="V92" s="74">
-        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W92" s="74">
-        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>3.6775000000000002</v>
       </c>
       <c r="X92" s="74">
-        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y92" s="74">
-        <f>ABS(X92-W92)</f>
+        <f t="shared" si="25"/>
         <v>3.6632000000000002</v>
       </c>
       <c r="Z92" s="75">
@@ -10134,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="61" t="str">
-        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
+        <f t="shared" si="26"/>
         <v>4019/4020</v>
       </c>
       <c r="L93" s="61" t="str">
@@ -10142,7 +10121,7 @@
         <v>STORY</v>
       </c>
       <c r="M93" s="12">
-        <f>I93-F93</f>
+        <f t="shared" si="27"/>
         <v>1.5046296299260575E-2</v>
       </c>
       <c r="N93" s="13"/>
@@ -10155,30 +10134,30 @@
         <v>429</v>
       </c>
       <c r="R93" s="62" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="T93" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 14:52:51-0600',mode:absolute,to:'2016-05-13 15:18:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="74" t="str">
-        <f>IF(Y93&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>Y</v>
       </c>
       <c r="V93" s="74">
-        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W93" s="74">
-        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="X93" s="74">
-        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>5.2305000000000001</v>
       </c>
       <c r="Y93" s="74">
-        <f>ABS(X93-W93)</f>
+        <f t="shared" si="25"/>
         <v>5.1882999999999999</v>
       </c>
       <c r="Z93" s="75">
@@ -10222,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="61" t="str">
-        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
+        <f t="shared" si="26"/>
         <v>4019/4020</v>
       </c>
       <c r="L94" s="61" t="str">
@@ -10230,7 +10209,7 @@
         <v>STORY</v>
       </c>
       <c r="M94" s="12">
-        <f>I94-F94</f>
+        <f t="shared" si="27"/>
         <v>1.6782407408754807E-2</v>
       </c>
       <c r="N94" s="13"/>
@@ -10239,27 +10218,27 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
       <c r="T94" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:20:38-0600',mode:absolute,to:'2016-05-13 15:47:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="74" t="str">
-        <f>IF(Y94&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>Y</v>
       </c>
       <c r="V94" s="74">
-        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W94" s="74">
-        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>6.4706000000000001</v>
       </c>
       <c r="X94" s="74">
-        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.334700000000002</v>
       </c>
       <c r="Y94" s="74">
-        <f>ABS(X94-W94)</f>
+        <f t="shared" si="25"/>
         <v>16.864100000000001</v>
       </c>
       <c r="Z94" s="75">
@@ -10303,7 +10282,7 @@
         <v>3</v>
       </c>
       <c r="K95" s="61" t="str">
-        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
+        <f t="shared" si="26"/>
         <v>4019/4020</v>
       </c>
       <c r="L95" s="61" t="str">
@@ -10311,11 +10290,11 @@
         <v>STORY</v>
       </c>
       <c r="M95" s="12">
-        <f>I95-F95</f>
+        <f t="shared" si="27"/>
         <v>3.4282407403225079E-2</v>
       </c>
       <c r="N95" s="13">
-        <f>$M95*24*60</f>
+        <f t="shared" ref="N95:N100" si="33">$M95*24*60</f>
         <v>49.366666660644114</v>
       </c>
       <c r="O95" s="13"/>
@@ -10323,27 +10302,27 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
       <c r="T95" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:49:31-0600',mode:absolute,to:'2016-05-13 16:42:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="74" t="str">
-        <f>IF(Y95&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V95" s="74">
-        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W95" s="74">
-        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.303999999999998</v>
       </c>
       <c r="X95" s="74">
-        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y95" s="74">
-        <f>ABS(X95-W95)</f>
+        <f t="shared" si="25"/>
         <v>23.290099999999999</v>
       </c>
       <c r="Z95" s="75" t="e">
@@ -10387,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="61" t="str">
-        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
+        <f t="shared" si="26"/>
         <v>4039/4040</v>
       </c>
       <c r="L96" s="61" t="str">
@@ -10395,11 +10374,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M96" s="12">
-        <f>I96-F96</f>
+        <f t="shared" si="27"/>
         <v>2.8032407411956228E-2</v>
       </c>
       <c r="N96" s="13">
-        <f>$M96*24*60</f>
+        <f t="shared" si="33"/>
         <v>40.366666673216969</v>
       </c>
       <c r="O96" s="13"/>
@@ -10407,27 +10386,27 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
       <c r="T96" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:08:36-0600',mode:absolute,to:'2016-05-13 15:52:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="74" t="str">
-        <f>IF(Y96&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V96" s="74">
-        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W96" s="74">
-        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X96" s="74">
-        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.340599999999998</v>
       </c>
       <c r="Y96" s="74">
-        <f>ABS(X96-W96)</f>
+        <f t="shared" si="25"/>
         <v>23.293999999999997</v>
       </c>
       <c r="Z96" s="75" t="e">
@@ -10471,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
-        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
+        <f t="shared" si="26"/>
         <v>4039/4040</v>
       </c>
       <c r="L97" s="61" t="str">
@@ -10479,11 +10458,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M97" s="12">
-        <f>I97-F97</f>
+        <f t="shared" si="27"/>
         <v>2.7638888888759539E-2</v>
       </c>
       <c r="N97" s="13">
-        <f>$M97*24*60</f>
+        <f t="shared" si="33"/>
         <v>39.799999999813735</v>
       </c>
       <c r="O97" s="13"/>
@@ -10491,27 +10470,27 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
       <c r="T97" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:05:43-0600',mode:absolute,to:'2016-05-13 16:48:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="74" t="str">
-        <f>IF(Y97&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V97" s="74">
-        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W97" s="74">
-        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>23.306799999999999</v>
       </c>
       <c r="X97" s="74">
-        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y97" s="74">
-        <f>ABS(X97-W97)</f>
+        <f t="shared" si="25"/>
         <v>23.291899999999998</v>
       </c>
       <c r="Z97" s="75" t="e">
@@ -10555,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="61" t="str">
-        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
+        <f t="shared" si="26"/>
         <v>4043/4044</v>
       </c>
       <c r="L98" s="61" t="str">
@@ -10563,11 +10542,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M98" s="12">
-        <f>I98-F98</f>
+        <f t="shared" si="27"/>
         <v>3.2256944439723156E-2</v>
       </c>
       <c r="N98" s="13">
-        <f>$M98*24*60</f>
+        <f t="shared" si="33"/>
         <v>46.449999993201345</v>
       </c>
       <c r="O98" s="13"/>
@@ -10575,27 +10554,27 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="T98" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:21:44-0600',mode:absolute,to:'2016-05-13 16:11:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="74" t="str">
-        <f>IF(Y98&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V98" s="74">
-        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W98" s="74">
-        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
+        <f t="shared" si="24"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X98" s="74">
-        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.3353</v>
       </c>
       <c r="Y98" s="74">
-        <f>ABS(X98-W98)</f>
+        <f t="shared" si="25"/>
         <v>23.290900000000001</v>
       </c>
       <c r="Z98" s="75" t="e">
@@ -10639,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="61" t="str">
-        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
+        <f t="shared" si="26"/>
         <v>4043/4044</v>
       </c>
       <c r="L99" s="61" t="str">
@@ -10647,11 +10626,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M99" s="12">
-        <f>I99-F99</f>
+        <f t="shared" si="27"/>
         <v>3.107638889196096E-2</v>
       </c>
       <c r="N99" s="13">
-        <f>$M99*24*60</f>
+        <f t="shared" si="33"/>
         <v>44.750000004423782</v>
       </c>
       <c r="O99" s="13"/>
@@ -10659,27 +10638,27 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
       <c r="T99" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:16:01-0600',mode:absolute,to:'2016-05-13 17:04:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="74" t="str">
-        <f>IF(Y99&lt;23,"Y","N")</f>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V99" s="74">
-        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W99" s="74">
-        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
+        <f t="shared" ref="W99:W130" si="34">RIGHT(D99,LEN(D99)-4)/10000</f>
         <v>23.304600000000001</v>
       </c>
       <c r="X99" s="74">
-        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y99" s="74">
-        <f>ABS(X99-W99)</f>
+        <f t="shared" ref="Y99:Y130" si="35">ABS(X99-W99)</f>
         <v>23.289899999999999</v>
       </c>
       <c r="Z99" s="75" t="e">
@@ -10723,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="61" t="str">
-        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
+        <f t="shared" ref="K100:K131" si="36">IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
         <v>4015/4016</v>
       </c>
       <c r="L100" s="61" t="str">
@@ -10731,11 +10710,11 @@
         <v>STEWART</v>
       </c>
       <c r="M100" s="12">
-        <f>I100-F100</f>
+        <f t="shared" ref="M100:M131" si="37">I100-F100</f>
         <v>2.7175925926712807E-2</v>
       </c>
       <c r="N100" s="13">
-        <f>$M100*24*60</f>
+        <f t="shared" si="33"/>
         <v>39.133333334466442</v>
       </c>
       <c r="O100" s="13"/>
@@ -10743,27 +10722,27 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
       <c r="T100" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T100:T131" si="38">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:39:45-0600',mode:absolute,to:'2016-05-13 16:22:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="74" t="str">
-        <f>IF(Y100&lt;23,"Y","N")</f>
+        <f t="shared" ref="U100:U131" si="39">IF(Y100&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V100" s="74">
-        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
+        <f t="shared" ref="V100:V131" si="40">VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
         <v>1</v>
       </c>
       <c r="W100" s="74">
-        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X100" s="74">
-        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.335100000000001</v>
       </c>
       <c r="Y100" s="74">
-        <f>ABS(X100-W100)</f>
+        <f t="shared" si="35"/>
         <v>23.288700000000002</v>
       </c>
       <c r="Z100" s="75" t="e">
@@ -10807,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="61" t="str">
-        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
+        <f t="shared" si="36"/>
         <v>4015/4016</v>
       </c>
       <c r="L101" s="61" t="str">
@@ -10815,7 +10794,7 @@
         <v>STEWART</v>
       </c>
       <c r="M101" s="12">
-        <f>I101-F101</f>
+        <f t="shared" si="37"/>
         <v>2.8784722220734693E-2</v>
       </c>
       <c r="N101" s="13"/>
@@ -10828,30 +10807,30 @@
         <v>142</v>
       </c>
       <c r="R101" s="62" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T101" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:34:38-0600',mode:absolute,to:'2016-05-13 17:19:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="74" t="str">
-        <f>IF(Y101&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V101" s="74">
-        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W101" s="74">
-        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.305700000000002</v>
       </c>
       <c r="X101" s="74">
-        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>0.64980000000000004</v>
       </c>
       <c r="Y101" s="74">
-        <f>ABS(X101-W101)</f>
+        <f t="shared" si="35"/>
         <v>22.655900000000003</v>
       </c>
       <c r="Z101" s="75" t="e">
@@ -10895,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -10903,7 +10882,7 @@
         <v>ROCHA</v>
       </c>
       <c r="M102" s="12">
-        <f>I102-F102</f>
+        <f t="shared" si="37"/>
         <v>2.7106481480586808E-2</v>
       </c>
       <c r="N102" s="13">
@@ -10915,27 +10894,27 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
       <c r="T102" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 15:53:58-0600',mode:absolute,to:'2016-05-13 16:36:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="74" t="str">
-        <f>IF(Y102&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V102" s="74">
-        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W102" s="74">
-        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X102" s="74">
-        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.328600000000002</v>
       </c>
       <c r="Y102" s="74">
-        <f>ABS(X102-W102)</f>
+        <f t="shared" si="35"/>
         <v>23.2835</v>
       </c>
       <c r="Z102" s="75" t="e">
@@ -10979,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="61" t="str">
-        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L103" s="61" t="str">
@@ -10987,7 +10966,7 @@
         <v>ROCHA</v>
       </c>
       <c r="M103" s="12">
-        <f>I103-F103</f>
+        <f t="shared" si="37"/>
         <v>3.3969907410209998E-2</v>
       </c>
       <c r="N103" s="13">
@@ -10999,27 +10978,27 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:43:38-0600',mode:absolute,to:'2016-05-13 17:36:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="74" t="str">
-        <f>IF(Y103&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V103" s="74">
-        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W103" s="74">
-        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X103" s="74">
-        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y103" s="74">
-        <f>ABS(X103-W103)</f>
+        <f t="shared" si="35"/>
         <v>23.2821</v>
       </c>
       <c r="Z103" s="75" t="e">
@@ -11063,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="61" t="str">
-        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
+        <f t="shared" si="36"/>
         <v>4025/4026</v>
       </c>
       <c r="L104" s="61" t="str">
@@ -11071,7 +11050,7 @@
         <v>WEBSTER</v>
       </c>
       <c r="M104" s="12">
-        <f>I104-F104</f>
+        <f t="shared" si="37"/>
         <v>2.8090277781302575E-2</v>
       </c>
       <c r="N104" s="13">
@@ -11083,27 +11062,27 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:08:43-0600',mode:absolute,to:'2016-05-13 16:52:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="74" t="str">
-        <f>IF(Y104&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V104" s="74">
-        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W104" s="74">
-        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X104" s="74">
-        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y104" s="74">
-        <f>ABS(X104-W104)</f>
+        <f t="shared" si="35"/>
         <v>23.283800000000003</v>
       </c>
       <c r="Z104" s="75" t="e">
@@ -11147,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="61" t="str">
-        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
+        <f t="shared" si="36"/>
         <v>4025/4026</v>
       </c>
       <c r="L105" s="61" t="str">
@@ -11155,7 +11134,7 @@
         <v>WEBSTER</v>
       </c>
       <c r="M105" s="12">
-        <f>I105-F105</f>
+        <f t="shared" si="37"/>
         <v>2.9699074075324461E-2</v>
       </c>
       <c r="N105" s="13">
@@ -11167,27 +11146,27 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
       <c r="T105" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:04:34-0600',mode:absolute,to:'2016-05-13 17:50:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="74" t="str">
-        <f>IF(Y105&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V105" s="74">
-        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W105" s="74">
-        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.2987</v>
       </c>
       <c r="X105" s="74">
-        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y105" s="74">
-        <f>ABS(X105-W105)</f>
+        <f t="shared" si="35"/>
         <v>23.2849</v>
       </c>
       <c r="Z105" s="75" t="e">
@@ -11231,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="61" t="str">
-        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
+        <f t="shared" si="36"/>
         <v>4037/4038</v>
       </c>
       <c r="L106" s="61" t="str">
@@ -11239,7 +11218,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M106" s="12">
-        <f>I106-F106</f>
+        <f t="shared" si="37"/>
         <v>2.675925925723277E-2</v>
       </c>
       <c r="N106" s="13">
@@ -11251,27 +11230,27 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
       <c r="T106" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:30:35-0600',mode:absolute,to:'2016-05-13 17:12:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="74" t="str">
-        <f>IF(Y106&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V106" s="74">
-        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W106" s="74">
-        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X106" s="74">
-        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.3264</v>
       </c>
       <c r="Y106" s="74">
-        <f>ABS(X106-W106)</f>
+        <f t="shared" si="35"/>
         <v>23.2807</v>
       </c>
       <c r="Z106" s="75" t="e">
@@ -11315,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="61" t="str">
-        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
+        <f t="shared" si="36"/>
         <v>4037/4038</v>
       </c>
       <c r="L107" s="61" t="str">
@@ -11323,7 +11302,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M107" s="12">
-        <f>I107-F107</f>
+        <f t="shared" si="37"/>
         <v>2.0879629635601304E-2</v>
       </c>
       <c r="N107" s="13"/>
@@ -11333,33 +11312,33 @@
         <v>39.366666680434719</v>
       </c>
       <c r="Q107" s="62" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="R107" s="62" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="T107" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:36:02-0600',mode:absolute,to:'2016-05-13 18:09:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="74" t="str">
-        <f>IF(Y107&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V107" s="74">
-        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W107" s="74">
-        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>15.399699999999999</v>
       </c>
       <c r="X107" s="74">
-        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y107" s="74">
-        <f>ABS(X107-W107)</f>
+        <f t="shared" si="35"/>
         <v>15.385199999999999</v>
       </c>
       <c r="Z107" s="75" t="e">
@@ -11403,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="61" t="str">
-        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
+        <f t="shared" si="36"/>
         <v>4037/4038</v>
       </c>
       <c r="L108" s="61" t="str">
@@ -11411,7 +11390,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M108" s="12">
-        <f>I108-F108</f>
+        <f t="shared" si="37"/>
         <v>6.4583333369228058E-3</v>
       </c>
       <c r="N108" s="13"/>
@@ -11420,27 +11399,27 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
       <c r="T108" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:19:43-0600',mode:absolute,to:'2016-05-13 17:32:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="74" t="str">
-        <f>IF(Y108&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V108" s="74">
-        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W108" s="74">
-        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.2986</v>
       </c>
       <c r="X108" s="74">
-        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>19.276399999999999</v>
       </c>
       <c r="Y108" s="74">
-        <f>ABS(X108-W108)</f>
+        <f t="shared" si="35"/>
         <v>4.0222000000000016</v>
       </c>
       <c r="Z108" s="75" t="e">
@@ -11484,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="61" t="str">
-        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
+        <f t="shared" si="36"/>
         <v>4019/4020</v>
       </c>
       <c r="L109" s="61" t="str">
@@ -11492,11 +11471,11 @@
         <v>STORY</v>
       </c>
       <c r="M109" s="12">
-        <f>I109-F109</f>
+        <f t="shared" si="37"/>
         <v>2.4699074077943806E-2</v>
       </c>
       <c r="N109" s="13">
-        <f>$M109*24*60</f>
+        <f t="shared" ref="N109:N115" si="41">$M109*24*60</f>
         <v>35.56666667223908</v>
       </c>
       <c r="O109" s="13"/>
@@ -11504,27 +11483,27 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
       <c r="T109" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:42:00-0600',mode:absolute,to:'2016-05-13 17:21:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="74" t="str">
-        <f>IF(Y109&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V109" s="74">
-        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W109" s="74">
-        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X109" s="74">
-        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.337</v>
       </c>
       <c r="Y109" s="74">
-        <f>ABS(X109-W109)</f>
+        <f t="shared" si="35"/>
         <v>23.2926</v>
       </c>
       <c r="Z109" s="75" t="e">
@@ -11568,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="61" t="str">
-        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
+        <f t="shared" si="36"/>
         <v>4019/4020</v>
       </c>
       <c r="L110" s="61" t="str">
@@ -11576,11 +11555,11 @@
         <v>STORY</v>
       </c>
       <c r="M110" s="12">
-        <f>I110-F110</f>
+        <f t="shared" si="37"/>
         <v>2.7430555557657499E-2</v>
       </c>
       <c r="N110" s="13">
-        <f>$M110*24*60</f>
+        <f t="shared" si="41"/>
         <v>39.500000003026798</v>
       </c>
       <c r="O110" s="13"/>
@@ -11588,27 +11567,27 @@
       <c r="Q110" s="62"/>
       <c r="R110" s="62"/>
       <c r="T110" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:34:48-0600',mode:absolute,to:'2016-05-13 18:18:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="74" t="str">
-        <f>IF(Y110&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V110" s="74">
-        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W110" s="74">
-        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.3064</v>
       </c>
       <c r="X110" s="74">
-        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y110" s="74">
-        <f>ABS(X110-W110)</f>
+        <f t="shared" si="35"/>
         <v>23.292999999999999</v>
       </c>
       <c r="Z110" s="75" t="e">
@@ -11652,7 +11631,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="61" t="str">
-        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
+        <f t="shared" si="36"/>
         <v>4039/4040</v>
       </c>
       <c r="L111" s="61" t="str">
@@ -11660,11 +11639,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M111" s="12">
-        <f>I111-F111</f>
+        <f t="shared" si="37"/>
         <v>2.8090277774026617E-2</v>
       </c>
       <c r="N111" s="13">
-        <f>$M111*24*60</f>
+        <f t="shared" si="41"/>
         <v>40.449999994598329</v>
       </c>
       <c r="O111" s="13"/>
@@ -11672,27 +11651,27 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
       <c r="T111" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 16:52:40-0600',mode:absolute,to:'2016-05-13 17:36:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="74" t="str">
-        <f>IF(Y111&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V111" s="74">
-        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W111" s="74">
-        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X111" s="74">
-        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.333600000000001</v>
       </c>
       <c r="Y111" s="74">
-        <f>ABS(X111-W111)</f>
+        <f t="shared" si="35"/>
         <v>23.287600000000001</v>
       </c>
       <c r="Z111" s="75" t="e">
@@ -11736,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="61" t="str">
-        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
+        <f t="shared" si="36"/>
         <v>4039/4040</v>
       </c>
       <c r="L112" s="61" t="str">
@@ -11744,11 +11723,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M112" s="12">
-        <f>I112-F112</f>
+        <f t="shared" si="37"/>
         <v>2.7083333334303461E-2</v>
       </c>
       <c r="N112" s="13">
-        <f>$M112*24*60</f>
+        <f t="shared" si="41"/>
         <v>39.000000001396984</v>
       </c>
       <c r="O112" s="13"/>
@@ -11756,27 +11735,27 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
       <c r="T112" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:50:58-0600',mode:absolute,to:'2016-05-13 18:33:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="74" t="str">
-        <f>IF(Y112&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V112" s="74">
-        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W112" s="74">
-        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.3005</v>
       </c>
       <c r="X112" s="74">
-        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="Y112" s="74">
-        <f>ABS(X112-W112)</f>
+        <f t="shared" si="35"/>
         <v>23.2791</v>
       </c>
       <c r="Z112" s="75" t="e">
@@ -11820,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
+        <f t="shared" si="36"/>
         <v>4043/4044</v>
       </c>
       <c r="L113" s="61" t="str">
@@ -11828,11 +11807,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M113" s="12">
-        <f>I113-F113</f>
+        <f t="shared" si="37"/>
         <v>2.9953703698993195E-2</v>
       </c>
       <c r="N113" s="13">
-        <f>$M113*24*60</f>
+        <f t="shared" si="41"/>
         <v>43.133333326550201</v>
       </c>
       <c r="O113" s="13"/>
@@ -11840,27 +11819,27 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
       <c r="T113" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:07:26-0600',mode:absolute,to:'2016-05-13 17:54:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="74" t="str">
-        <f>IF(Y113&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V113" s="74">
-        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W113" s="74">
-        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X113" s="74">
-        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y113" s="74">
-        <f>ABS(X113-W113)</f>
+        <f t="shared" si="35"/>
         <v>23.2866</v>
       </c>
       <c r="Z113" s="75" t="e">
@@ -11904,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
+        <f t="shared" si="36"/>
         <v>4043/4044</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -11912,11 +11891,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M114" s="12">
-        <f>I114-F114</f>
+        <f t="shared" si="37"/>
         <v>3.1585648146574385E-2</v>
       </c>
       <c r="N114" s="13">
-        <f>$M114*24*60</f>
+        <f t="shared" si="41"/>
         <v>45.483333331067115</v>
       </c>
       <c r="O114" s="13"/>
@@ -11924,27 +11903,27 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 18:00:52-0600',mode:absolute,to:'2016-05-13 18:49:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="74" t="str">
-        <f>IF(Y114&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V114" s="74">
-        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W114" s="74">
-        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.297899999999998</v>
       </c>
       <c r="X114" s="74">
-        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y114" s="74">
-        <f>ABS(X114-W114)</f>
+        <f t="shared" si="35"/>
         <v>23.283199999999997</v>
       </c>
       <c r="Z114" s="75" t="e">
@@ -11988,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="61" t="str">
-        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
+        <f t="shared" si="36"/>
         <v>4015/4016</v>
       </c>
       <c r="L115" s="61" t="str">
@@ -11996,11 +11975,11 @@
         <v>STEWART</v>
       </c>
       <c r="M115" s="12">
-        <f>I115-F115</f>
+        <f t="shared" si="37"/>
         <v>2.5856481486698613E-2</v>
       </c>
       <c r="N115" s="13">
-        <f>$M115*24*60</f>
+        <f t="shared" si="41"/>
         <v>37.233333340846002</v>
       </c>
       <c r="O115" s="13"/>
@@ -12008,27 +11987,27 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
       <c r="T115" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:25:37-0600',mode:absolute,to:'2016-05-13 18:06:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="74" t="str">
-        <f>IF(Y115&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V115" s="74">
-        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W115" s="74">
-        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X115" s="74">
-        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.3307</v>
       </c>
       <c r="Y115" s="74">
-        <f>ABS(X115-W115)</f>
+        <f t="shared" si="35"/>
         <v>23.2865</v>
       </c>
       <c r="Z115" s="75" t="e">
@@ -12072,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="61" t="str">
-        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
+        <f t="shared" si="36"/>
         <v>4015/4016</v>
       </c>
       <c r="L116" s="61" t="str">
@@ -12080,7 +12059,7 @@
         <v>STEWART</v>
       </c>
       <c r="M116" s="12">
-        <f>I116-F116</f>
+        <f t="shared" si="37"/>
         <v>2.658564814919373E-2</v>
       </c>
       <c r="N116" s="13"/>
@@ -12096,27 +12075,27 @@
         <v>427</v>
       </c>
       <c r="T116" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 18:20:57-0600',mode:absolute,to:'2016-05-13 19:02:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="74" t="str">
-        <f>IF(Y116&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V116" s="74">
-        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W116" s="74">
-        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X116" s="74">
-        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>0.42799999999999999</v>
       </c>
       <c r="Y116" s="74">
-        <f>ABS(X116-W116)</f>
+        <f t="shared" si="35"/>
         <v>22.870999999999999</v>
       </c>
       <c r="Z116" s="75" t="e">
@@ -12160,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L117" s="61" t="str">
@@ -12168,7 +12147,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M117" s="12">
-        <f>I117-F117</f>
+        <f t="shared" si="37"/>
         <v>2.569444444088731E-2</v>
       </c>
       <c r="N117" s="13">
@@ -12180,27 +12159,27 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
       <c r="T117" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:42:21-0600',mode:absolute,to:'2016-05-13 18:23:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="74" t="str">
-        <f>IF(Y117&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V117" s="74">
-        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W117" s="74">
-        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X117" s="74">
-        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>23.331</v>
       </c>
       <c r="Y117" s="74">
-        <f>ABS(X117-W117)</f>
+        <f t="shared" si="35"/>
         <v>23.284299999999998</v>
       </c>
       <c r="Z117" s="75" t="e">
@@ -12244,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12252,7 +12231,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M118" s="12">
-        <f>I118-F118</f>
+        <f t="shared" si="37"/>
         <v>2.0578703704813961E-2</v>
       </c>
       <c r="N118" s="13"/>
@@ -12262,33 +12241,33 @@
         <v>43.01666667452082</v>
       </c>
       <c r="Q118" s="62" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="R118" s="62" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="T118" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 19:01:39-0600',mode:absolute,to:'2016-05-13 19:34:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="74" t="str">
-        <f>IF(Y118&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V118" s="74">
-        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W118" s="74">
-        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>15.400399999999999</v>
       </c>
       <c r="X118" s="74">
-        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>1.9199999999999998E-2</v>
       </c>
       <c r="Y118" s="74">
-        <f>ABS(X118-W118)</f>
+        <f t="shared" si="35"/>
         <v>15.3812</v>
       </c>
       <c r="Z118" s="75">
@@ -12332,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="K119" s="61" t="str">
-        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L119" s="61" t="str">
@@ -12340,7 +12319,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M119" s="12">
-        <f>I119-F119</f>
+        <f t="shared" si="37"/>
         <v>9.2939814858254977E-3</v>
       </c>
       <c r="N119" s="13"/>
@@ -12349,27 +12328,27 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
       <c r="T119" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 18:28:19-0600',mode:absolute,to:'2016-05-13 18:45:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="74" t="str">
-        <f>IF(Y119&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V119" s="74">
-        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W119" s="74">
-        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X119" s="74">
-        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>21.845500000000001</v>
       </c>
       <c r="Y119" s="74">
-        <f>ABS(X119-W119)</f>
+        <f t="shared" si="35"/>
         <v>1.4542999999999999</v>
       </c>
       <c r="Z119" s="75">
@@ -12413,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="61" t="str">
-        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
+        <f t="shared" si="36"/>
         <v>4025/4026</v>
       </c>
       <c r="L120" s="61" t="str">
@@ -12421,11 +12400,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M120" s="12">
-        <f>I120-F120</f>
+        <f t="shared" si="37"/>
         <v>2.8796296297514345E-2</v>
       </c>
       <c r="N120" s="13">
-        <f>$M120*24*60</f>
+        <f t="shared" ref="N120:N126" si="42">$M120*24*60</f>
         <v>41.466666668420658</v>
       </c>
       <c r="O120" s="13"/>
@@ -12433,27 +12412,27 @@
       <c r="Q120" s="62"/>
       <c r="R120" s="62"/>
       <c r="T120" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 17:52:09-0600',mode:absolute,to:'2016-05-13 18:37:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="74" t="str">
-        <f>IF(Y120&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V120" s="74">
-        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W120" s="74">
-        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X120" s="74">
-        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
+        <f t="shared" ref="X120:X138" si="43">RIGHT(H120,LEN(H120)-4)/10000</f>
         <v>23.330500000000001</v>
       </c>
       <c r="Y120" s="74">
-        <f>ABS(X120-W120)</f>
+        <f t="shared" si="35"/>
         <v>23.2865</v>
       </c>
       <c r="Z120" s="75" t="e">
@@ -12497,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="61" t="str">
-        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
+        <f t="shared" si="36"/>
         <v>4025/4026</v>
       </c>
       <c r="L121" s="61" t="str">
@@ -12505,11 +12484,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M121" s="12">
-        <f>I121-F121</f>
+        <f t="shared" si="37"/>
         <v>3.1608796292857733E-2</v>
       </c>
       <c r="N121" s="13">
-        <f>$M121*24*60</f>
+        <f t="shared" si="42"/>
         <v>45.516666661715135</v>
       </c>
       <c r="O121" s="13"/>
@@ -12517,27 +12496,27 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
       <c r="T121" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 18:49:55-0600',mode:absolute,to:'2016-05-13 19:40:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="74" t="str">
-        <f>IF(Y121&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V121" s="74">
-        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W121" s="74">
-        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.298200000000001</v>
       </c>
       <c r="X121" s="74">
-        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y121" s="74">
-        <f>ABS(X121-W121)</f>
+        <f t="shared" si="35"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z121" s="75" t="e">
@@ -12581,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="K122" s="61" t="str">
-        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
+        <f t="shared" si="36"/>
         <v>4037/4038</v>
       </c>
       <c r="L122" s="61" t="str">
@@ -12589,11 +12568,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M122" s="12">
-        <f>I122-F122</f>
+        <f t="shared" si="37"/>
         <v>3.0914351846149657E-2</v>
       </c>
       <c r="N122" s="13">
-        <f>$M122*24*60</f>
+        <f t="shared" si="42"/>
         <v>44.516666658455506</v>
       </c>
       <c r="O122" s="13"/>
@@ -12601,27 +12580,27 @@
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
       <c r="T122" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 18:11:59-0600',mode:absolute,to:'2016-05-13 19:00:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="74" t="str">
-        <f>IF(Y122&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V122" s="74">
-        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W122" s="74">
-        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X122" s="74">
-        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.3293</v>
       </c>
       <c r="Y122" s="74">
-        <f>ABS(X122-W122)</f>
+        <f t="shared" si="35"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z122" s="75">
@@ -12665,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
-        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
+        <f t="shared" si="36"/>
         <v>4037/4038</v>
       </c>
       <c r="L123" s="61" t="str">
@@ -12673,11 +12652,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M123" s="12">
-        <f>I123-F123</f>
+        <f t="shared" si="37"/>
         <v>3.0497685183945578E-2</v>
       </c>
       <c r="N123" s="13">
-        <f>$M123*24*60</f>
+        <f t="shared" si="42"/>
         <v>43.916666664881632</v>
       </c>
       <c r="O123" s="13"/>
@@ -12685,27 +12664,27 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
       <c r="T123" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 19:01:08-0600',mode:absolute,to:'2016-05-13 19:48:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="74" t="str">
-        <f>IF(Y123&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V123" s="74">
-        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W123" s="74">
-        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X123" s="74">
-        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y123" s="74">
-        <f>ABS(X123-W123)</f>
+        <f t="shared" si="35"/>
         <v>23.283999999999999</v>
       </c>
       <c r="Z123" s="75" t="e">
@@ -12749,7 +12728,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="61" t="str">
-        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
+        <f t="shared" si="36"/>
         <v>4019/4020</v>
       </c>
       <c r="L124" s="61" t="str">
@@ -12757,11 +12736,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M124" s="12">
-        <f>I124-F124</f>
+        <f t="shared" si="37"/>
         <v>3.2962962963210884E-2</v>
       </c>
       <c r="N124" s="13">
-        <f>$M124*24*60</f>
+        <f t="shared" si="42"/>
         <v>47.466666667023674</v>
       </c>
       <c r="O124" s="13"/>
@@ -12769,27 +12748,27 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
       <c r="T124" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 18:21:36-0600',mode:absolute,to:'2016-05-13 19:13:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="74" t="str">
-        <f>IF(Y124&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V124" s="74">
-        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W124" s="74">
-        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X124" s="74">
-        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y124" s="74">
-        <f>ABS(X124-W124)</f>
+        <f t="shared" si="35"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z124" s="75" t="e">
@@ -12833,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="61" t="str">
-        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
+        <f t="shared" si="36"/>
         <v>4019/4020</v>
       </c>
       <c r="L125" s="61" t="str">
@@ -12841,11 +12820,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M125" s="12">
-        <f>I125-F125</f>
+        <f t="shared" si="37"/>
         <v>2.7870370373420883E-2</v>
       </c>
       <c r="N125" s="13">
-        <f>$M125*24*60</f>
+        <f t="shared" si="42"/>
         <v>40.133333337726071</v>
       </c>
       <c r="O125" s="13"/>
@@ -12853,27 +12832,27 @@
       <c r="Q125" s="62"/>
       <c r="R125" s="62"/>
       <c r="T125" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 19:22:14-0600',mode:absolute,to:'2016-05-13 20:06:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="74" t="str">
-        <f>IF(Y125&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V125" s="74">
-        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W125" s="74">
-        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X125" s="74">
-        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y125" s="74">
-        <f>ABS(X125-W125)</f>
+        <f t="shared" si="35"/>
         <v>23.282299999999999</v>
       </c>
       <c r="Z125" s="75" t="e">
@@ -12917,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="61" t="str">
-        <f>IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
+        <f t="shared" si="36"/>
         <v>4043/4044</v>
       </c>
       <c r="L126" s="61" t="str">
@@ -12925,11 +12904,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M126" s="12">
-        <f>I126-F126</f>
+        <f t="shared" si="37"/>
         <v>3.1307870376622304E-2</v>
       </c>
       <c r="N126" s="13">
-        <f>$M126*24*60</f>
+        <f t="shared" si="42"/>
         <v>45.083333342336118</v>
       </c>
       <c r="O126" s="13"/>
@@ -12937,27 +12916,27 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
       <c r="T126" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 18:49:41-0600',mode:absolute,to:'2016-05-13 19:39:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="74" t="str">
-        <f>IF(Y126&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V126" s="74">
-        <f>VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W126" s="74">
-        <f>RIGHT(D126,LEN(D126)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="X126" s="74">
-        <f>RIGHT(H126,LEN(H126)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y126" s="74">
-        <f>ABS(X126-W126)</f>
+        <f t="shared" si="35"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z126" s="75" t="e">
@@ -13001,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="61" t="str">
-        <f>IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
+        <f t="shared" si="36"/>
         <v>4043/4044</v>
       </c>
       <c r="L127" s="61" t="str">
@@ -13009,7 +12988,7 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M127" s="12">
-        <f>I127-F127</f>
+        <f t="shared" si="37"/>
         <v>1.7210648147738539E-2</v>
       </c>
       <c r="N127" s="13"/>
@@ -13022,30 +13001,30 @@
         <v>429</v>
       </c>
       <c r="R127" s="62" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="T127" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E127-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I127+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B127&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 20:13:10-0600',mode:absolute,to:'2016-05-13 20:40:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="74" t="str">
-        <f>IF(Y127&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V127" s="74">
-        <f>VALUE(LEFT(A127,3))-VALUE(LEFT(A126,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W127" s="74">
-        <f>RIGHT(D127,LEN(D127)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>12.786099999999999</v>
       </c>
       <c r="X127" s="74">
-        <f>RIGHT(H127,LEN(H127)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y127" s="74">
-        <f>ABS(X127-W127)</f>
+        <f t="shared" si="35"/>
         <v>12.770299999999999</v>
       </c>
       <c r="Z127" s="75" t="e">
@@ -13089,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="61" t="str">
-        <f>IF(ISEVEN(B128),(B128-1)&amp;"/"&amp;B128,B128&amp;"/"&amp;(B128+1))</f>
+        <f t="shared" si="36"/>
         <v>4043/4044</v>
       </c>
       <c r="L128" s="61" t="str">
@@ -13097,7 +13076,7 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M128" s="12">
-        <f>I128-F128</f>
+        <f t="shared" si="37"/>
         <v>1.3541666667151731E-2</v>
       </c>
       <c r="N128" s="13"/>
@@ -13106,27 +13085,27 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
       <c r="T128" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E128-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I128+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B128&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 19:43:35-0600',mode:absolute,to:'2016-05-13 20:06:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="74" t="str">
-        <f>IF(Y128&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V128" s="74">
-        <f>VALUE(LEFT(A128,3))-VALUE(LEFT(A127,3))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W128" s="74">
-        <f>RIGHT(D128,LEN(D128)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>23.2959</v>
       </c>
       <c r="X128" s="74">
-        <f>RIGHT(H128,LEN(H128)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>15.8705</v>
       </c>
       <c r="Y128" s="74">
-        <f>ABS(X128-W128)</f>
+        <f t="shared" si="35"/>
         <v>7.4253999999999998</v>
       </c>
       <c r="Z128" s="75" t="e">
@@ -13170,7 +13149,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="61" t="str">
-        <f>IF(ISEVEN(B129),(B129-1)&amp;"/"&amp;B129,B129&amp;"/"&amp;(B129+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L129" s="61" t="str">
@@ -13178,7 +13157,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M129" s="12">
-        <f>I129-F129</f>
+        <f t="shared" si="37"/>
         <v>2.4189814816054422E-2</v>
       </c>
       <c r="N129" s="13"/>
@@ -13191,30 +13170,30 @@
         <v>142</v>
       </c>
       <c r="R129" s="62" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="T129" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E129-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I129+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B129&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 19:33:35-0600',mode:absolute,to:'2016-05-13 20:12:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="74" t="str">
-        <f>IF(Y129&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V129" s="74">
-        <f>VALUE(LEFT(A129,3))-VALUE(LEFT(A128,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W129" s="74">
-        <f>RIGHT(D129,LEN(D129)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>5.28E-2</v>
       </c>
       <c r="X129" s="74">
-        <f>RIGHT(H129,LEN(H129)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>15.455500000000001</v>
       </c>
       <c r="Y129" s="74">
-        <f>ABS(X129-W129)</f>
+        <f t="shared" si="35"/>
         <v>15.402700000000001</v>
       </c>
       <c r="Z129" s="75" t="e">
@@ -13258,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="61" t="str">
-        <f>IF(ISEVEN(B130),(B130-1)&amp;"/"&amp;B130,B130&amp;"/"&amp;(B130+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L130" s="61" t="str">
@@ -13266,7 +13245,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M130" s="12">
-        <f>I130-F130</f>
+        <f t="shared" si="37"/>
         <v>1.5162037016125396E-3</v>
       </c>
       <c r="N130" s="13"/>
@@ -13276,33 +13255,33 @@
         <v>87.883333330973983</v>
       </c>
       <c r="Q130" s="62" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T130" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E130-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I130+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B130&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 21:51:35-0600',mode:absolute,to:'2016-05-13 21:57:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="74" t="str">
-        <f>IF(Y130&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>Y</v>
       </c>
       <c r="V130" s="74">
-        <f>VALUE(LEFT(A130,3))-VALUE(LEFT(A129,3))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="W130" s="74">
-        <f>RIGHT(D130,LEN(D130)-4)/10000</f>
+        <f t="shared" si="34"/>
         <v>0.1328</v>
       </c>
       <c r="X130" s="74">
-        <f>RIGHT(H130,LEN(H130)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>0.1167</v>
       </c>
       <c r="Y130" s="74">
-        <f>ABS(X130-W130)</f>
+        <f t="shared" si="35"/>
         <v>1.6100000000000003E-2</v>
       </c>
       <c r="Z130" s="75">
@@ -13346,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="61" t="str">
-        <f>IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
+        <f t="shared" si="36"/>
         <v>4009/4010</v>
       </c>
       <c r="L131" s="61" t="str">
@@ -13354,7 +13333,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M131" s="12">
-        <f>I131-F131</f>
+        <f t="shared" si="37"/>
         <v>6.25E-2</v>
       </c>
       <c r="N131" s="13"/>
@@ -13363,27 +13342,27 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="38"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 20:24:27-0600',mode:absolute,to:'2016-05-13 21:57:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="74" t="str">
-        <f>IF(Y131&lt;23,"Y","N")</f>
+        <f t="shared" si="39"/>
         <v>N</v>
       </c>
       <c r="V131" s="74">
-        <f>VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W131" s="74">
-        <f>RIGHT(D131,LEN(D131)-4)/10000</f>
+        <f t="shared" ref="W131:W147" si="44">RIGHT(D131,LEN(D131)-4)/10000</f>
         <v>23.298200000000001</v>
       </c>
       <c r="X131" s="74">
-        <f>RIGHT(H131,LEN(H131)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>0.1167</v>
       </c>
       <c r="Y131" s="74">
-        <f>ABS(X131-W131)</f>
+        <f t="shared" ref="Y131:Y147" si="45">ABS(X131-W131)</f>
         <v>23.1815</v>
       </c>
       <c r="Z131" s="75">
@@ -13427,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="61" t="str">
-        <f>IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <f t="shared" ref="K132:K147" si="46">IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L132" s="61" t="str">
@@ -13435,7 +13414,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M132" s="12">
-        <f>I132-F132</f>
+        <f t="shared" ref="M132:M147" si="47">I132-F132</f>
         <v>6.1030092590954155E-2</v>
       </c>
       <c r="N132" s="13"/>
@@ -13444,27 +13423,27 @@
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
       <c r="T132" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T132:T147" si="48">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 20:24:27-0600',mode:absolute,to:'2016-05-13 21:57:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="74" t="str">
-        <f>IF(Y132&lt;23,"Y","N")</f>
+        <f t="shared" ref="U132:U147" si="49">IF(Y132&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V132" s="74">
-        <f>VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" ref="V132:V147" si="50">VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
         <v>0</v>
       </c>
       <c r="W132" s="74">
-        <f>RIGHT(D132,LEN(D132)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.298200000000001</v>
       </c>
       <c r="X132" s="74">
-        <f>RIGHT(H132,LEN(H132)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>0.1167</v>
       </c>
       <c r="Y132" s="74">
-        <f>ABS(X132-W132)</f>
+        <f t="shared" si="45"/>
         <v>23.1815</v>
       </c>
       <c r="Z132" s="75">
@@ -13508,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="61" t="str">
-        <f>IF(ISEVEN(B133),(B133-1)&amp;"/"&amp;B133,B133&amp;"/"&amp;(B133+1))</f>
+        <f t="shared" si="46"/>
         <v>4037/4038</v>
       </c>
       <c r="L133" s="61" t="str">
@@ -13516,7 +13495,7 @@
         <v>BRUDER</v>
       </c>
       <c r="M133" s="12">
-        <f>I133-F133</f>
+        <f t="shared" si="47"/>
         <v>2.6087962964083999E-2</v>
       </c>
       <c r="N133" s="13"/>
@@ -13529,30 +13508,30 @@
         <v>429</v>
       </c>
       <c r="R133" s="62" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="T133" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E133-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I133+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B133&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 19:49:08-0600',mode:absolute,to:'2016-05-13 20:30:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="74" t="str">
-        <f>IF(Y133&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>Y</v>
       </c>
       <c r="V133" s="74">
-        <f>VALUE(LEFT(A133,3))-VALUE(LEFT(A132,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W133" s="74">
-        <f>RIGHT(D133,LEN(D133)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X133" s="74">
-        <f>RIGHT(H133,LEN(H133)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>15.5128</v>
       </c>
       <c r="Y133" s="74">
-        <f>ABS(X133-W133)</f>
+        <f t="shared" si="45"/>
         <v>15.467700000000001</v>
       </c>
       <c r="Z133" s="75" t="e">
@@ -13596,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="61" t="str">
-        <f>IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
+        <f t="shared" si="46"/>
         <v>4037/4038</v>
       </c>
       <c r="L134" s="61" t="str">
@@ -13604,11 +13583,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M134" s="12">
-        <f>I134-F134</f>
+        <f t="shared" si="47"/>
         <v>2.8877314820419997E-2</v>
       </c>
       <c r="N134" s="13">
-        <f>$M134*24*60</f>
+        <f t="shared" ref="N134:N146" si="51">$M134*24*60</f>
         <v>41.583333341404796</v>
       </c>
       <c r="O134" s="13"/>
@@ -13616,27 +13595,27 @@
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
       <c r="T134" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E134-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I134+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B134&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 20:48:20-0600',mode:absolute,to:'2016-05-13 21:33:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="74" t="str">
-        <f>IF(Y134&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V134" s="74">
-        <f>VALUE(LEFT(A134,3))-VALUE(LEFT(A133,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W134" s="74">
-        <f>RIGHT(D134,LEN(D134)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.305700000000002</v>
       </c>
       <c r="X134" s="74">
-        <f>RIGHT(H134,LEN(H134)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.9199999999999998E-2</v>
       </c>
       <c r="Y134" s="74">
-        <f>ABS(X134-W134)</f>
+        <f t="shared" si="45"/>
         <v>23.2865</v>
       </c>
       <c r="Z134" s="75" t="e">
@@ -13680,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="61" t="str">
-        <f>IF(ISEVEN(B135),(B135-1)&amp;"/"&amp;B135,B135&amp;"/"&amp;(B135+1))</f>
+        <f t="shared" si="46"/>
         <v>4019/4020</v>
       </c>
       <c r="L135" s="61" t="str">
@@ -13688,11 +13667,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M135" s="12">
-        <f>I135-F135</f>
+        <f t="shared" si="47"/>
         <v>2.8043981481459923E-2</v>
       </c>
       <c r="N135" s="13">
-        <f>$M135*24*60</f>
+        <f t="shared" si="51"/>
         <v>40.383333333302289</v>
       </c>
       <c r="O135" s="13"/>
@@ -13700,27 +13679,27 @@
       <c r="Q135" s="62"/>
       <c r="R135" s="62"/>
       <c r="T135" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E135-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I135+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B135&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 20:22:41-0600',mode:absolute,to:'2016-05-13 21:07:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U135" s="74" t="str">
-        <f>IF(Y135&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V135" s="74">
-        <f>VALUE(LEFT(A135,3))-VALUE(LEFT(A134,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W135" s="74">
-        <f>RIGHT(D135,LEN(D135)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X135" s="74">
-        <f>RIGHT(H135,LEN(H135)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y135" s="74">
-        <f>ABS(X135-W135)</f>
+        <f t="shared" si="45"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z135" s="75" t="e">
@@ -13764,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="61" t="str">
-        <f>IF(ISEVEN(B136),(B136-1)&amp;"/"&amp;B136,B136&amp;"/"&amp;(B136+1))</f>
+        <f t="shared" si="46"/>
         <v>4019/4020</v>
       </c>
       <c r="L136" s="61" t="str">
@@ -13772,11 +13751,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M136" s="12">
-        <f>I136-F136</f>
+        <f t="shared" si="47"/>
         <v>2.6898148142208811E-2</v>
       </c>
       <c r="N136" s="13">
-        <f>$M136*24*60</f>
+        <f t="shared" si="51"/>
         <v>38.733333324780688</v>
       </c>
       <c r="O136" s="13"/>
@@ -13784,27 +13763,27 @@
       <c r="Q136" s="62"/>
       <c r="R136" s="62"/>
       <c r="T136" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E136-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I136+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B136&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 21:22:43-0600',mode:absolute,to:'2016-05-13 22:04:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U136" s="74" t="str">
-        <f>IF(Y136&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V136" s="74">
-        <f>VALUE(LEFT(A136,3))-VALUE(LEFT(A135,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W136" s="74">
-        <f>RIGHT(D136,LEN(D136)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.296299999999999</v>
       </c>
       <c r="X136" s="74">
-        <f>RIGHT(H136,LEN(H136)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y136" s="74">
-        <f>ABS(X136-W136)</f>
+        <f t="shared" si="45"/>
         <v>23.281399999999998</v>
       </c>
       <c r="Z136" s="75" t="e">
@@ -13848,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="61" t="str">
-        <f>IF(ISEVEN(B137),(B137-1)&amp;"/"&amp;B137,B137&amp;"/"&amp;(B137+1))</f>
+        <f t="shared" si="46"/>
         <v>4043/4044</v>
       </c>
       <c r="L137" s="61" t="str">
@@ -13856,11 +13835,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M137" s="12">
-        <f>I137-F137</f>
+        <f t="shared" si="47"/>
         <v>3.4444444441760425E-2</v>
       </c>
       <c r="N137" s="13">
-        <f>$M137*24*60</f>
+        <f t="shared" si="51"/>
         <v>49.599999996135011</v>
       </c>
       <c r="O137" s="13"/>
@@ -13868,27 +13847,27 @@
       <c r="Q137" s="62"/>
       <c r="R137" s="62"/>
       <c r="T137" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E137-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I137+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B137&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 20:44:11-0600',mode:absolute,to:'2016-05-13 21:37:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U137" s="74" t="str">
-        <f>IF(Y137&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V137" s="74">
-        <f>VALUE(LEFT(A137,3))-VALUE(LEFT(A136,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W137" s="74">
-        <f>RIGHT(D137,LEN(D137)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>4.53E-2</v>
       </c>
       <c r="X137" s="74">
-        <f>RIGHT(H137,LEN(H137)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y137" s="74">
-        <f>ABS(X137-W137)</f>
+        <f t="shared" si="45"/>
         <v>23.284599999999998</v>
       </c>
       <c r="Z137" s="75" t="e">
@@ -13932,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="61" t="str">
-        <f>IF(ISEVEN(B138),(B138-1)&amp;"/"&amp;B138,B138&amp;"/"&amp;(B138+1))</f>
+        <f t="shared" si="46"/>
         <v>4043/4044</v>
       </c>
       <c r="L138" s="61" t="str">
@@ -13940,11 +13919,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M138" s="12">
-        <f>I138-F138</f>
+        <f t="shared" si="47"/>
         <v>3.7800925929332152E-2</v>
       </c>
       <c r="N138" s="13">
-        <f>$M138*24*60</f>
+        <f t="shared" si="51"/>
         <v>54.433333338238299</v>
       </c>
       <c r="O138" s="13"/>
@@ -13952,27 +13931,27 @@
       <c r="Q138" s="62"/>
       <c r="R138" s="62"/>
       <c r="T138" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E138-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I138+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B138&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 21:39:18-0600',mode:absolute,to:'2016-05-13 22:37:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U138" s="74" t="str">
-        <f>IF(Y138&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V138" s="74">
-        <f>VALUE(LEFT(A138,3))-VALUE(LEFT(A137,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W138" s="74">
-        <f>RIGHT(D138,LEN(D138)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.298200000000001</v>
       </c>
       <c r="X138" s="74">
-        <f>RIGHT(H138,LEN(H138)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y138" s="74">
-        <f>ABS(X138-W138)</f>
+        <f t="shared" si="45"/>
         <v>23.282800000000002</v>
       </c>
       <c r="Z138" s="75" t="e">
@@ -14016,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="K139" s="61" t="str">
-        <f>IF(ISEVEN(B139),(B139-1)&amp;"/"&amp;B139,B139&amp;"/"&amp;(B139+1))</f>
+        <f t="shared" si="46"/>
         <v>4013/4014</v>
       </c>
       <c r="L139" s="61" t="str">
@@ -14024,11 +14003,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M139" s="12">
-        <f>I139-F139</f>
+        <f t="shared" si="47"/>
         <v>3.3078703709179536E-2</v>
       </c>
       <c r="N139" s="13">
-        <f>$M139*24*60</f>
+        <f t="shared" si="51"/>
         <v>47.633333341218531</v>
       </c>
       <c r="O139" s="13"/>
@@ -14036,26 +14015,26 @@
       <c r="Q139" s="62"/>
       <c r="R139" s="62"/>
       <c r="T139" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E139-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I139+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B139&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 21:17:59-0600',mode:absolute,to:'2016-05-13 22:09:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U139" s="74" t="str">
-        <f>IF(Y139&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V139" s="74">
-        <f>VALUE(LEFT(A139,3))-VALUE(LEFT(A138,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W139" s="74">
-        <f>RIGHT(D139,LEN(D139)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="X139" s="74">
         <v>23.3293</v>
       </c>
       <c r="Y139" s="74">
-        <f>ABS(X139-W139)</f>
+        <f t="shared" si="45"/>
         <v>23.280899999999999</v>
       </c>
       <c r="Z139" s="75" t="e">
@@ -14099,7 +14078,7 @@
         <v>2</v>
       </c>
       <c r="K140" s="61" t="str">
-        <f>IF(ISEVEN(B140),(B140-1)&amp;"/"&amp;B140,B140&amp;"/"&amp;(B140+1))</f>
+        <f t="shared" si="46"/>
         <v>4013/4014</v>
       </c>
       <c r="L140" s="61" t="str">
@@ -14107,11 +14086,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M140" s="12">
-        <f>I140-F140</f>
+        <f t="shared" si="47"/>
         <v>3.7465277775481809E-2</v>
       </c>
       <c r="N140" s="13">
-        <f>$M140*24*60</f>
+        <f t="shared" si="51"/>
         <v>53.949999996693805</v>
       </c>
       <c r="O140" s="13"/>
@@ -14119,27 +14098,27 @@
       <c r="Q140" s="62"/>
       <c r="R140" s="62"/>
       <c r="T140" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E140-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I140+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B140&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 22:11:24-0600',mode:absolute,to:'2016-05-13 23:09:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U140" s="74" t="str">
-        <f>IF(Y140&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V140" s="74">
-        <f>VALUE(LEFT(A140,3))-VALUE(LEFT(A139,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W140" s="74">
-        <f>RIGHT(D140,LEN(D140)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X140" s="74">
-        <f>RIGHT(H140,LEN(H140)-4)/10000</f>
+        <f t="shared" ref="X140:X147" si="52">RIGHT(H140,LEN(H140)-4)/10000</f>
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="Y140" s="74">
-        <f>ABS(X140-W140)</f>
+        <f t="shared" si="45"/>
         <v>23.266400000000001</v>
       </c>
       <c r="Z140" s="75" t="e">
@@ -14183,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="61" t="str">
-        <f>IF(ISEVEN(B141),(B141-1)&amp;"/"&amp;B141,B141&amp;"/"&amp;(B141+1))</f>
+        <f t="shared" si="46"/>
         <v>4037/4038</v>
       </c>
       <c r="L141" s="61" t="str">
@@ -14191,11 +14170,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M141" s="12">
-        <f>I141-F141</f>
+        <f t="shared" si="47"/>
         <v>4.1851851856335998E-2</v>
       </c>
       <c r="N141" s="13">
-        <f>$M141*24*60</f>
+        <f t="shared" si="51"/>
         <v>60.266666673123837</v>
       </c>
       <c r="O141" s="13"/>
@@ -14203,27 +14182,27 @@
       <c r="Q141" s="62"/>
       <c r="R141" s="62"/>
       <c r="T141" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E141-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I141+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B141&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 21:34:03-0600',mode:absolute,to:'2016-05-13 22:38:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U141" s="74" t="str">
-        <f>IF(Y141&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V141" s="74">
-        <f>VALUE(LEFT(A141,3))-VALUE(LEFT(A140,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W141" s="74">
-        <f>RIGHT(D141,LEN(D141)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>5.11E-2</v>
       </c>
       <c r="X141" s="74">
-        <f>RIGHT(H141,LEN(H141)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.332100000000001</v>
       </c>
       <c r="Y141" s="74">
-        <f>ABS(X141-W141)</f>
+        <f t="shared" si="45"/>
         <v>23.280999999999999</v>
       </c>
       <c r="Z141" s="75" t="e">
@@ -14267,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="61" t="str">
-        <f>IF(ISEVEN(B142),(B142-1)&amp;"/"&amp;B142,B142&amp;"/"&amp;(B142+1))</f>
+        <f t="shared" si="46"/>
         <v>4037/4038</v>
       </c>
       <c r="L142" s="61" t="str">
@@ -14275,11 +14254,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M142" s="12">
-        <f>I142-F142</f>
+        <f t="shared" si="47"/>
         <v>3.5474537035042886E-2</v>
       </c>
       <c r="N142" s="13">
-        <f>$M142*24*60</f>
+        <f t="shared" si="51"/>
         <v>51.083333330461755</v>
       </c>
       <c r="O142" s="13"/>
@@ -14287,27 +14266,27 @@
       <c r="Q142" s="62"/>
       <c r="R142" s="62"/>
       <c r="T142" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E142-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I142+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B142&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 22:38:21-0600',mode:absolute,to:'2016-05-13 23:34:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U142" s="74" t="str">
-        <f>IF(Y142&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V142" s="74">
-        <f>VALUE(LEFT(A142,3))-VALUE(LEFT(A141,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W142" s="74">
-        <f>RIGHT(D142,LEN(D142)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.2987</v>
       </c>
       <c r="X142" s="74">
-        <f>RIGHT(H142,LEN(H142)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y142" s="74">
-        <f>ABS(X142-W142)</f>
+        <f t="shared" si="45"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z142" s="75" t="e">
@@ -14351,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="61" t="str">
-        <f>IF(ISEVEN(B143),(B143-1)&amp;"/"&amp;B143,B143&amp;"/"&amp;(B143+1))</f>
+        <f t="shared" si="46"/>
         <v>4019/4020</v>
       </c>
       <c r="L143" s="61" t="str">
@@ -14359,11 +14338,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M143" s="12">
-        <f>I143-F143</f>
+        <f t="shared" si="47"/>
         <v>2.7951388889050577E-2</v>
       </c>
       <c r="N143" s="13">
-        <f>$M143*24*60</f>
+        <f t="shared" si="51"/>
         <v>40.250000000232831</v>
       </c>
       <c r="O143" s="13"/>
@@ -14371,27 +14350,27 @@
       <c r="Q143" s="62"/>
       <c r="R143" s="62"/>
       <c r="T143" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E143-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I143+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B143&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 22:23:18-0600',mode:absolute,to:'2016-05-13 23:07:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U143" s="74" t="str">
-        <f>IF(Y143&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V143" s="74">
-        <f>VALUE(LEFT(A143,3))-VALUE(LEFT(A142,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W143" s="74">
-        <f>RIGHT(D143,LEN(D143)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X143" s="74">
-        <f>RIGHT(H143,LEN(H143)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y143" s="74">
-        <f>ABS(X143-W143)</f>
+        <f t="shared" si="45"/>
         <v>23.284400000000002</v>
       </c>
       <c r="Z143" s="75" t="e">
@@ -14435,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="61" t="str">
-        <f>IF(ISEVEN(B144),(B144-1)&amp;"/"&amp;B144,B144&amp;"/"&amp;(B144+1))</f>
+        <f t="shared" si="46"/>
         <v>4019/4020</v>
       </c>
       <c r="L144" s="61" t="str">
@@ -14443,11 +14422,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M144" s="12">
-        <f>I144-F144</f>
+        <f t="shared" si="47"/>
         <v>2.880787036701804E-2</v>
       </c>
       <c r="N144" s="13">
-        <f>$M144*24*60</f>
+        <f t="shared" si="51"/>
         <v>41.483333328505978</v>
       </c>
       <c r="O144" s="13"/>
@@ -14455,27 +14434,27 @@
       <c r="Q144" s="62"/>
       <c r="R144" s="62"/>
       <c r="T144" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E144-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I144+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B144&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 23:21:11-0600',mode:absolute,to:'2016-05-14 00:06:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U144" s="74" t="str">
-        <f>IF(Y144&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V144" s="74">
-        <f>VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W144" s="74">
-        <f>RIGHT(D144,LEN(D144)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X144" s="74">
-        <f>RIGHT(H144,LEN(H144)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y144" s="74">
-        <f>ABS(X144-W144)</f>
+        <f t="shared" si="45"/>
         <v>23.2822</v>
       </c>
       <c r="Z144" s="75" t="e">
@@ -14519,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="61" t="str">
-        <f>IF(ISEVEN(B145),(B145-1)&amp;"/"&amp;B145,B145&amp;"/"&amp;(B145+1))</f>
+        <f t="shared" si="46"/>
         <v>4043/4044</v>
       </c>
       <c r="L145" s="61" t="str">
@@ -14527,11 +14506,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M145" s="12">
-        <f>I145-F145</f>
+        <f t="shared" si="47"/>
         <v>3.7766203698993195E-2</v>
       </c>
       <c r="N145" s="13">
-        <f>$M145*24*60</f>
+        <f t="shared" si="51"/>
         <v>54.383333326550201</v>
       </c>
       <c r="O145" s="13"/>
@@ -14539,27 +14518,27 @@
       <c r="Q145" s="62"/>
       <c r="R145" s="62"/>
       <c r="T145" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E145-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I145+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B145&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 22:42:31-0600',mode:absolute,to:'2016-05-13 23:40:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U145" s="74" t="str">
-        <f>IF(Y145&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V145" s="74">
-        <f>VALUE(LEFT(A145,3))-VALUE(LEFT(A144,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W145" s="74">
-        <f>RIGHT(D145,LEN(D145)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X145" s="74">
-        <f>RIGHT(H145,LEN(H145)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y145" s="74">
-        <f>ABS(X145-W145)</f>
+        <f t="shared" si="45"/>
         <v>23.2851</v>
       </c>
       <c r="Z145" s="75" t="e">
@@ -14603,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="K146" s="61" t="str">
-        <f>IF(ISEVEN(B146),(B146-1)&amp;"/"&amp;B146,B146&amp;"/"&amp;(B146+1))</f>
+        <f t="shared" si="46"/>
         <v>4043/4044</v>
       </c>
       <c r="L146" s="61" t="str">
@@ -14611,11 +14590,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M146" s="12">
-        <f>I146-F146</f>
+        <f t="shared" si="47"/>
         <v>2.9930555559985805E-2</v>
       </c>
       <c r="N146" s="13">
-        <f>$M146*24*60</f>
+        <f t="shared" si="51"/>
         <v>43.10000000637956</v>
       </c>
       <c r="O146" s="13"/>
@@ -14623,27 +14602,27 @@
       <c r="Q146" s="62"/>
       <c r="R146" s="62"/>
       <c r="T146" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E146-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I146+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B146&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 23:48:38-0600',mode:absolute,to:'2016-05-14 00:35:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U146" s="74" t="str">
-        <f>IF(Y146&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>N</v>
       </c>
       <c r="V146" s="74">
-        <f>VALUE(LEFT(A146,3))-VALUE(LEFT(A145,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W146" s="74">
-        <f>RIGHT(D146,LEN(D146)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X146" s="74">
-        <f>RIGHT(H146,LEN(H146)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y146" s="74">
-        <f>ABS(X146-W146)</f>
+        <f t="shared" si="45"/>
         <v>23.2819</v>
       </c>
       <c r="Z146" s="75" t="e">
@@ -14687,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="61" t="str">
-        <f>IF(ISEVEN(B147),(B147-1)&amp;"/"&amp;B147,B147&amp;"/"&amp;(B147+1))</f>
+        <f t="shared" si="46"/>
         <v>4013/4014</v>
       </c>
       <c r="L147" s="61" t="str">
@@ -14695,7 +14674,7 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M147" s="12">
-        <f>I147-F147</f>
+        <f t="shared" si="47"/>
         <v>9.9999999947613105E-3</v>
       </c>
       <c r="N147" s="13"/>
@@ -14708,30 +14687,30 @@
         <v>142</v>
       </c>
       <c r="R147" s="62" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="T147" s="74" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E147-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I147+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B147&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 23:12:31-0600',mode:absolute,to:'2016-05-13 23:31:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U147" s="74" t="str">
-        <f>IF(Y147&lt;23,"Y","N")</f>
+        <f t="shared" si="49"/>
         <v>Y</v>
       </c>
       <c r="V147" s="74">
-        <f>VALUE(LEFT(A147,3))-VALUE(LEFT(A146,3))</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W147" s="74">
-        <f>RIGHT(D147,LEN(D147)-4)/10000</f>
+        <f t="shared" si="44"/>
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="X147" s="74">
-        <f>RIGHT(H147,LEN(H147)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>6.3E-2</v>
       </c>
       <c r="Y147" s="74">
-        <f>ABS(X147-W147)</f>
+        <f t="shared" si="45"/>
         <v>2.3999999999999994E-3</v>
       </c>
       <c r="Z147" s="75" t="e">
@@ -14775,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="61" t="str">
-        <f t="shared" ref="K132:K154" si="5">IF(ISEVEN(B148),(B148-1)&amp;"/"&amp;B148,B148&amp;"/"&amp;(B148+1))</f>
+        <f t="shared" ref="K148:K154" si="53">IF(ISEVEN(B148),(B148-1)&amp;"/"&amp;B148,B148&amp;"/"&amp;(B148+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L148" s="61" t="str">
@@ -14783,11 +14762,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M148" s="12">
-        <f t="shared" ref="M132:M154" si="6">I148-F148</f>
+        <f t="shared" ref="M148:M154" si="54">I148-F148</f>
         <v>2.6469907410501037E-2</v>
       </c>
       <c r="N148" s="13">
-        <f t="shared" ref="N132:N154" si="7">$M148*24*60</f>
+        <f t="shared" ref="N148:N154" si="55">$M148*24*60</f>
         <v>38.116666671121493</v>
       </c>
       <c r="O148" s="13"/>
@@ -14795,27 +14774,27 @@
       <c r="Q148" s="62"/>
       <c r="R148" s="62"/>
       <c r="T148" s="74" t="str">
-        <f t="shared" ref="T133:T154" si="8">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E148-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I148+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B148&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T148:T154" si="56">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E148-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I148+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B148&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-14 00:24:14-0600',mode:absolute,to:'2016-05-14 01:05:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U148" s="74" t="str">
-        <f t="shared" ref="U133:U154" si="9">IF(Y148&lt;23,"Y","N")</f>
+        <f t="shared" ref="U148:U154" si="57">IF(Y148&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V148" s="74">
-        <f t="shared" ref="V133:V154" si="10">VALUE(LEFT(A148,3))-VALUE(LEFT(A147,3))</f>
+        <f t="shared" ref="V148:V154" si="58">VALUE(LEFT(A148,3))-VALUE(LEFT(A147,3))</f>
         <v>1</v>
       </c>
       <c r="W148" s="74">
-        <f t="shared" ref="W133:W154" si="11">RIGHT(D148,LEN(D148)-4)/10000</f>
+        <f t="shared" ref="W148:W154" si="59">RIGHT(D148,LEN(D148)-4)/10000</f>
         <v>23.296199999999999</v>
       </c>
       <c r="X148" s="74">
-        <f t="shared" ref="X133:X154" si="12">RIGHT(H148,LEN(H148)-4)/10000</f>
+        <f t="shared" ref="X148:X154" si="60">RIGHT(H148,LEN(H148)-4)/10000</f>
         <v>1.54E-2</v>
       </c>
       <c r="Y148" s="74">
-        <f t="shared" ref="Y133:Y154" si="13">ABS(X148-W148)</f>
+        <f t="shared" ref="Y148:Y154" si="61">ABS(X148-W148)</f>
         <v>23.280799999999999</v>
       </c>
       <c r="Z148" s="75" t="e">
@@ -14859,7 +14838,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="53"/>
         <v>4037/4038</v>
       </c>
       <c r="L149" s="61" t="str">
@@ -14867,11 +14846,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M149" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>3.718749999825377E-2</v>
       </c>
       <c r="N149" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="55"/>
         <v>53.549999997485429</v>
       </c>
       <c r="O149" s="13"/>
@@ -14879,27 +14858,27 @@
       <c r="Q149" s="62"/>
       <c r="R149" s="62"/>
       <c r="T149" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 23:41:44-0600',mode:absolute,to:'2016-05-14 00:38:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U149" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V149" s="74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W149" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="59"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X149" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="60"/>
         <v>23.3276</v>
       </c>
       <c r="Y149" s="74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="61"/>
         <v>23.282499999999999</v>
       </c>
       <c r="Z149" s="75" t="e">
@@ -14943,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="53"/>
         <v>4037/4038</v>
       </c>
       <c r="L150" s="61" t="str">
@@ -14951,11 +14930,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M150" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>3.2743055555329192E-2</v>
       </c>
       <c r="N150" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="55"/>
         <v>47.149999999674037</v>
       </c>
       <c r="O150" s="13"/>
@@ -14963,27 +14942,27 @@
       <c r="Q150" s="62"/>
       <c r="R150" s="62"/>
       <c r="T150" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-14 00:43:04-0600',mode:absolute,to:'2016-05-14 01:33:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U150" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V150" s="74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W150" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="59"/>
         <v>23.296199999999999</v>
       </c>
       <c r="X150" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="60"/>
         <v>1.72E-2</v>
       </c>
       <c r="Y150" s="74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="61"/>
         <v>23.279</v>
       </c>
       <c r="Z150" s="75" t="e">
@@ -15027,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="K151" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="53"/>
         <v>4019/4020</v>
       </c>
       <c r="L151" s="61" t="str">
@@ -15035,11 +15014,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M151" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>2.9108796290529426E-2</v>
       </c>
       <c r="N151" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="55"/>
         <v>41.916666658362374</v>
       </c>
       <c r="O151" s="13"/>
@@ -15047,27 +15026,27 @@
       <c r="Q151" s="62"/>
       <c r="R151" s="62"/>
       <c r="T151" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-14 00:22:15-0600',mode:absolute,to:'2016-05-14 01:07:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U151" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V151" s="74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W151" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="59"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X151" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="60"/>
         <v>23.3293</v>
       </c>
       <c r="Y151" s="74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="61"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z151" s="75" t="e">
@@ -15111,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="53"/>
         <v>4019/4020</v>
       </c>
       <c r="L152" s="61" t="str">
@@ -15119,11 +15098,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M152" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>2.7407407411374152E-2</v>
       </c>
       <c r="N152" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="55"/>
         <v>39.466666672378778</v>
       </c>
       <c r="O152" s="13"/>
@@ -15131,27 +15110,27 @@
       <c r="Q152" s="62"/>
       <c r="R152" s="62"/>
       <c r="T152" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-14 01:22:29-0600',mode:absolute,to:'2016-05-14 02:05:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U152" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V152" s="74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W152" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="59"/>
         <v>23.2974</v>
       </c>
       <c r="X152" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="60"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y152" s="74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="61"/>
         <v>23.282899999999998</v>
       </c>
       <c r="Z152" s="75" t="e">
@@ -15195,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="53"/>
         <v>4043/4044</v>
       </c>
       <c r="L153" s="61" t="str">
@@ -15203,11 +15182,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M153" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>3.5185185181035195E-2</v>
       </c>
       <c r="N153" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="55"/>
         <v>50.66666666069068</v>
       </c>
       <c r="O153" s="13"/>
@@ -15215,27 +15194,27 @@
       <c r="Q153" s="62"/>
       <c r="R153" s="62"/>
       <c r="T153" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-14 00:42:55-0600',mode:absolute,to:'2016-05-14 01:37:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U153" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V153" s="74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W153" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="59"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X153" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="60"/>
         <v>23.3306</v>
       </c>
       <c r="Y153" s="74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="61"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z153" s="75" t="e">
@@ -15279,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="53"/>
         <v>4043/4044</v>
       </c>
       <c r="L154" s="61" t="str">
@@ -15287,11 +15266,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M154" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>3.5219907411374152E-2</v>
       </c>
       <c r="N154" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="55"/>
         <v>50.716666672378778</v>
       </c>
       <c r="O154" s="13"/>
@@ -15299,27 +15278,27 @@
       <c r="Q154" s="62"/>
       <c r="R154" s="62"/>
       <c r="T154" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="56"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-14 01:39:48-0600',mode:absolute,to:'2016-05-14 02:35:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U154" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>N</v>
       </c>
       <c r="V154" s="74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W154" s="74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="59"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X154" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="60"/>
         <v>0.1186</v>
       </c>
       <c r="Y154" s="74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="61"/>
         <v>23.181000000000001</v>
       </c>
       <c r="Z154" s="75" t="e">
@@ -15815,28 +15794,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="8" priority="34">
+    <cfRule type="expression" dxfId="13" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="35">
+    <cfRule type="expression" dxfId="12" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="16" priority="76">
+    <cfRule type="expression" dxfId="11" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="77">
+    <cfRule type="expression" dxfId="10" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15868,8 +15847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15995,7 +15974,7 @@
         <v>96</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16040,7 +16019,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16085,7 +16064,7 @@
         <v>166</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16130,7 +16109,7 @@
         <v>96</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16175,7 +16154,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16310,7 +16289,7 @@
         <v>166</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16355,7 +16334,7 @@
         <v>166</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16400,7 +16379,7 @@
         <v>166</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -18894,17 +18873,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 B69:N70 B66:K68 N66:N68 L29:M68 M8:M12 M8:N10 M13:N28 B8:L28 B3:N7">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:K65 N29:N65">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19035,7 +19014,7 @@
         <v>1360000</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19086,7 +19065,7 @@
         <v>1430000</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -19256,7 +19235,7 @@
         <v>1120000</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19273,7 +19252,7 @@
         <v>1460000</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19307,7 +19286,7 @@
         <v>1120000</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -19392,7 +19371,7 @@
         <v>1360000</v>
       </c>
       <c r="E24" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -19426,7 +19405,7 @@
         <v>1110000</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -19443,7 +19422,7 @@
         <v>1110000</v>
       </c>
       <c r="E27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -19528,7 +19507,7 @@
         <v>1430000</v>
       </c>
       <c r="E32" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -19698,7 +19677,7 @@
         <v>1520000</v>
       </c>
       <c r="E42" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -19706,7 +19685,7 @@
         <v>42503.20952546296</v>
       </c>
       <c r="B43" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C43" t="s">
         <v>202</v>
@@ -19715,7 +19694,7 @@
         <v>1430000</v>
       </c>
       <c r="E43" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -19723,7 +19702,7 @@
         <v>42503.727569444447</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C44" t="s">
         <v>355</v>
@@ -19766,7 +19745,7 @@
         <v>950000</v>
       </c>
       <c r="E46" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -19783,7 +19762,7 @@
         <v>1360000</v>
       </c>
       <c r="E47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -19834,7 +19813,7 @@
         <v>950000</v>
       </c>
       <c r="E50" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -19876,7 +19855,7 @@
         <v>42503.285497685189</v>
       </c>
       <c r="B53" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C53" t="s">
         <v>220</v>
@@ -19885,7 +19864,7 @@
         <v>1430000</v>
       </c>
       <c r="E53" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -19902,7 +19881,7 @@
         <v>950000</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -19944,7 +19923,7 @@
         <v>42503.506724537037</v>
       </c>
       <c r="B57" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C57" t="s">
         <v>279</v>
@@ -19970,7 +19949,7 @@
         <v>1520000</v>
       </c>
       <c r="E58" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -20055,7 +20034,7 @@
         <v>1110000</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -20242,7 +20221,7 @@
         <v>950000</v>
       </c>
       <c r="E74" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -20310,7 +20289,7 @@
         <v>1110000</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -20361,7 +20340,7 @@
         <v>1430000</v>
       </c>
       <c r="E81" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -20378,7 +20357,7 @@
         <v>1110000</v>
       </c>
       <c r="E82" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -20412,7 +20391,7 @@
         <v>1460000</v>
       </c>
       <c r="E84" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -20429,7 +20408,7 @@
         <v>1430000</v>
       </c>
       <c r="E85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -20437,7 +20416,7 @@
         <v>42503.433530092596</v>
       </c>
       <c r="B86" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C86" t="s">
         <v>260</v>
@@ -20463,7 +20442,7 @@
         <v>1110000</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -20497,7 +20476,7 @@
         <v>1360000</v>
       </c>
       <c r="E89" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -20514,7 +20493,7 @@
         <v>950000</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -20548,7 +20527,7 @@
         <v>1110000</v>
       </c>
       <c r="E92" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -20565,7 +20544,7 @@
         <v>1430000</v>
       </c>
       <c r="E93" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -20599,7 +20578,7 @@
         <v>1110000</v>
       </c>
       <c r="E95" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -20633,7 +20612,7 @@
         <v>1360000</v>
       </c>
       <c r="E97" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -20684,7 +20663,7 @@
         <v>1430000</v>
       </c>
       <c r="E100" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -20718,7 +20697,7 @@
         <v>1120000</v>
       </c>
       <c r="E102" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -20735,7 +20714,7 @@
         <v>1360000</v>
       </c>
       <c r="E103" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -20786,7 +20765,7 @@
         <v>1430000</v>
       </c>
       <c r="E106" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -20854,7 +20833,7 @@
         <v>1520000</v>
       </c>
       <c r="E110" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -20871,7 +20850,7 @@
         <v>950000</v>
       </c>
       <c r="E111" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -20922,7 +20901,7 @@
         <v>1520000</v>
       </c>
       <c r="E114" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -20939,7 +20918,7 @@
         <v>1120000</v>
       </c>
       <c r="E115" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -20973,7 +20952,7 @@
         <v>950000</v>
       </c>
       <c r="E117" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -21007,7 +20986,7 @@
         <v>900000</v>
       </c>
       <c r="E119" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -21194,7 +21173,7 @@
         <v>1120000</v>
       </c>
       <c r="E130" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -21228,7 +21207,7 @@
         <v>950000</v>
       </c>
       <c r="E132" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -21256,13 +21235,13 @@
         <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D134">
         <v>900000</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -21279,7 +21258,7 @@
         <v>1120000</v>
       </c>
       <c r="E135" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -21313,7 +21292,7 @@
         <v>900000</v>
       </c>
       <c r="E137" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -21355,7 +21334,7 @@
         <v>42503.57984953704</v>
       </c>
       <c r="B140" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C140" t="s">
         <v>301</v>
@@ -21381,7 +21360,7 @@
         <v>1520000</v>
       </c>
       <c r="E141" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -21432,7 +21411,7 @@
         <v>1360000</v>
       </c>
       <c r="E144" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21449,7 +21428,7 @@
         <v>1120000</v>
       </c>
       <c r="E145" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -21457,7 +21436,7 @@
         <v>42503.358703703707</v>
       </c>
       <c r="B146" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C146" t="s">
         <v>240</v>
@@ -21466,7 +21445,7 @@
         <v>1430000</v>
       </c>
       <c r="E146" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -21542,7 +21521,7 @@
         <v>42503.65388888889</v>
       </c>
       <c r="B151" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s">
         <v>330</v>
@@ -21602,7 +21581,7 @@
         <v>1120000</v>
       </c>
       <c r="E154" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21772,7 +21751,7 @@
         <v>1360000</v>
       </c>
       <c r="E164" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -1337,15 +1337,9 @@
     <t>Routing at DUS Signal 2N</t>
   </si>
   <si>
-    <t>Routing at DUS (southbound signals)</t>
-  </si>
-  <si>
     <t>Premature downgrade at EC0629XH 63-1T 1S</t>
   </si>
   <si>
-    <t>Tentative</t>
-  </si>
-  <si>
     <t>Investigating</t>
   </si>
   <si>
@@ -1403,22 +1397,28 @@
     <t>Wi-MAX outage</t>
   </si>
   <si>
-    <t>Premature downgrade at EC0508RH 43-1T 1N</t>
-  </si>
-  <si>
     <t>No issue found in logs, no issue found in service log. Signals ahead were all PROCEED CAB. GPS was acceptable. Not sure why a cut out happened here.</t>
   </si>
   <si>
-    <t>Routing @ Pena, MAP DISAPPEARED</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Link failures to 78th</t>
   </si>
   <si>
     <t>Link failures to 61st</t>
+  </si>
+  <si>
+    <t>DUS WIU was not beaconing statuses. Maintenance?</t>
+  </si>
+  <si>
+    <t>Routing at DUS 2S</t>
+  </si>
+  <si>
+    <t>Comparator issue caused train comm outage</t>
+  </si>
+  <si>
+    <t>Train was cut out by message from TMDS at 05-13-2016 17:31:42.799</t>
+  </si>
+  <si>
+    <t>Onboard in-route failure</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1909,238 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2313,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R131" sqref="R131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,10 +2871,10 @@
         <v>34</v>
       </c>
       <c r="Q4" s="62" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="T4" s="74" t="str">
         <f t="shared" ref="T4:T35" si="10">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
@@ -2811,10 +3042,10 @@
         <v>35</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="T6" s="74" t="str">
         <f t="shared" si="10"/>
@@ -5332,7 +5563,7 @@
         <v>3.3333333267364651</v>
       </c>
       <c r="Q36" s="62" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R36" s="62" t="s">
         <v>426</v>
@@ -8275,10 +8506,10 @@
         <v>39.916666662320495</v>
       </c>
       <c r="Q71" s="62" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="R71" s="62" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="T71" s="74" t="str">
         <f t="shared" si="28"/>
@@ -9455,10 +9686,10 @@
         <v>43.016666664043441</v>
       </c>
       <c r="Q85" s="62" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="R85" s="62" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="T85" s="74" t="str">
         <f t="shared" si="28"/>
@@ -9962,10 +10193,10 @@
         <v>48</v>
       </c>
       <c r="Q91" s="62" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R91" s="62" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="T91" s="74" t="str">
         <f t="shared" si="28"/>
@@ -10131,10 +10362,10 @@
         <v>45.83333333954215</v>
       </c>
       <c r="Q93" s="62" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R93" s="62" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="T93" s="74" t="str">
         <f t="shared" si="28"/>
@@ -10807,7 +11038,7 @@
         <v>142</v>
       </c>
       <c r="R101" s="62" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="T101" s="74" t="str">
         <f t="shared" si="38"/>
@@ -11312,10 +11543,10 @@
         <v>39.366666680434719</v>
       </c>
       <c r="Q107" s="62" t="s">
-        <v>452</v>
+        <v>142</v>
       </c>
       <c r="R107" s="62" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T107" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12069,10 +12300,10 @@
         <v>38.283333334838971</v>
       </c>
       <c r="Q116" s="62" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="R116" s="62" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="T116" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12244,7 +12475,7 @@
         <v>142</v>
       </c>
       <c r="R118" s="62" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T118" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12998,10 +13229,10 @@
         <v>44.283333333441988</v>
       </c>
       <c r="Q127" s="62" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="R127" s="62" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="T127" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13170,7 +13401,7 @@
         <v>142</v>
       </c>
       <c r="R129" s="62" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="T129" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13255,10 +13486,10 @@
         <v>87.883333330973983</v>
       </c>
       <c r="Q130" s="62" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="T130" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13505,10 +13736,10 @@
         <v>37.566666668280959</v>
       </c>
       <c r="Q133" s="62" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="R133" s="62" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="T133" s="74" t="str">
         <f t="shared" si="48"/>
@@ -14687,7 +14918,7 @@
         <v>142</v>
       </c>
       <c r="R147" s="62" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T147" s="74" t="str">
         <f t="shared" si="48"/>
@@ -15794,28 +16025,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="13" priority="34">
+    <cfRule type="expression" dxfId="46" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="11" priority="76">
+    <cfRule type="expression" dxfId="44" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="77">
+    <cfRule type="expression" dxfId="43" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15974,7 +16205,7 @@
         <v>96</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16019,7 +16250,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16064,7 +16295,7 @@
         <v>166</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16109,7 +16340,7 @@
         <v>96</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16154,7 +16385,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16199,7 +16430,7 @@
         <v>166</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16244,7 +16475,7 @@
         <v>166</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16289,7 +16520,7 @@
         <v>166</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16334,7 +16565,7 @@
         <v>166</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16379,7 +16610,7 @@
         <v>166</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -18873,17 +19104,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 B69:N70 B66:K68 N66:N68 L29:M68 M8:M12 M8:N10 M13:N28 B8:L28 B3:N7">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:K65 N29:N65">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19014,7 +19245,7 @@
         <v>1360000</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19065,7 +19296,7 @@
         <v>1430000</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -19235,7 +19466,7 @@
         <v>1120000</v>
       </c>
       <c r="E16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19252,7 +19483,7 @@
         <v>1460000</v>
       </c>
       <c r="E17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19286,7 +19517,7 @@
         <v>1120000</v>
       </c>
       <c r="E19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -19371,7 +19602,7 @@
         <v>1360000</v>
       </c>
       <c r="E24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -19405,7 +19636,7 @@
         <v>1110000</v>
       </c>
       <c r="E26" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -19422,7 +19653,7 @@
         <v>1110000</v>
       </c>
       <c r="E27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -19507,7 +19738,7 @@
         <v>1430000</v>
       </c>
       <c r="E32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -19677,7 +19908,7 @@
         <v>1520000</v>
       </c>
       <c r="E42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -19685,7 +19916,7 @@
         <v>42503.20952546296</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C43" t="s">
         <v>202</v>
@@ -19694,7 +19925,7 @@
         <v>1430000</v>
       </c>
       <c r="E43" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -19702,7 +19933,7 @@
         <v>42503.727569444447</v>
       </c>
       <c r="B44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C44" t="s">
         <v>355</v>
@@ -19745,7 +19976,7 @@
         <v>950000</v>
       </c>
       <c r="E46" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -19762,7 +19993,7 @@
         <v>1360000</v>
       </c>
       <c r="E47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -19813,7 +20044,7 @@
         <v>950000</v>
       </c>
       <c r="E50" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -19855,7 +20086,7 @@
         <v>42503.285497685189</v>
       </c>
       <c r="B53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C53" t="s">
         <v>220</v>
@@ -19864,7 +20095,7 @@
         <v>1430000</v>
       </c>
       <c r="E53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -19881,7 +20112,7 @@
         <v>950000</v>
       </c>
       <c r="E54" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -19923,7 +20154,7 @@
         <v>42503.506724537037</v>
       </c>
       <c r="B57" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C57" t="s">
         <v>279</v>
@@ -19949,7 +20180,7 @@
         <v>1520000</v>
       </c>
       <c r="E58" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -20034,7 +20265,7 @@
         <v>1110000</v>
       </c>
       <c r="E63" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -20221,7 +20452,7 @@
         <v>950000</v>
       </c>
       <c r="E74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -20289,7 +20520,7 @@
         <v>1110000</v>
       </c>
       <c r="E78" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -20340,7 +20571,7 @@
         <v>1430000</v>
       </c>
       <c r="E81" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -20357,7 +20588,7 @@
         <v>1110000</v>
       </c>
       <c r="E82" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -20391,7 +20622,7 @@
         <v>1460000</v>
       </c>
       <c r="E84" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -20408,7 +20639,7 @@
         <v>1430000</v>
       </c>
       <c r="E85" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -20416,7 +20647,7 @@
         <v>42503.433530092596</v>
       </c>
       <c r="B86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C86" t="s">
         <v>260</v>
@@ -20442,7 +20673,7 @@
         <v>1110000</v>
       </c>
       <c r="E87" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -20476,7 +20707,7 @@
         <v>1360000</v>
       </c>
       <c r="E89" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -20493,7 +20724,7 @@
         <v>950000</v>
       </c>
       <c r="E90" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -20527,7 +20758,7 @@
         <v>1110000</v>
       </c>
       <c r="E92" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -20544,7 +20775,7 @@
         <v>1430000</v>
       </c>
       <c r="E93" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -20578,7 +20809,7 @@
         <v>1110000</v>
       </c>
       <c r="E95" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -20612,7 +20843,7 @@
         <v>1360000</v>
       </c>
       <c r="E97" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -20663,7 +20894,7 @@
         <v>1430000</v>
       </c>
       <c r="E100" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -20697,7 +20928,7 @@
         <v>1120000</v>
       </c>
       <c r="E102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -20714,7 +20945,7 @@
         <v>1360000</v>
       </c>
       <c r="E103" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -20765,7 +20996,7 @@
         <v>1430000</v>
       </c>
       <c r="E106" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -20833,7 +21064,7 @@
         <v>1520000</v>
       </c>
       <c r="E110" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -20850,7 +21081,7 @@
         <v>950000</v>
       </c>
       <c r="E111" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -20901,7 +21132,7 @@
         <v>1520000</v>
       </c>
       <c r="E114" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -20918,7 +21149,7 @@
         <v>1120000</v>
       </c>
       <c r="E115" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -20952,7 +21183,7 @@
         <v>950000</v>
       </c>
       <c r="E117" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -20986,7 +21217,7 @@
         <v>900000</v>
       </c>
       <c r="E119" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -21173,7 +21404,7 @@
         <v>1120000</v>
       </c>
       <c r="E130" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -21207,7 +21438,7 @@
         <v>950000</v>
       </c>
       <c r="E132" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -21235,13 +21466,13 @@
         <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D134">
         <v>900000</v>
       </c>
       <c r="E134" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -21258,7 +21489,7 @@
         <v>1120000</v>
       </c>
       <c r="E135" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -21292,7 +21523,7 @@
         <v>900000</v>
       </c>
       <c r="E137" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -21334,7 +21565,7 @@
         <v>42503.57984953704</v>
       </c>
       <c r="B140" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C140" t="s">
         <v>301</v>
@@ -21360,7 +21591,7 @@
         <v>1520000</v>
       </c>
       <c r="E141" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -21411,7 +21642,7 @@
         <v>1360000</v>
       </c>
       <c r="E144" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21428,7 +21659,7 @@
         <v>1120000</v>
       </c>
       <c r="E145" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -21436,7 +21667,7 @@
         <v>42503.358703703707</v>
       </c>
       <c r="B146" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C146" t="s">
         <v>240</v>
@@ -21445,7 +21676,7 @@
         <v>1430000</v>
       </c>
       <c r="E146" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -21521,7 +21752,7 @@
         <v>42503.65388888889</v>
       </c>
       <c r="B151" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s">
         <v>330</v>
@@ -21581,7 +21812,7 @@
         <v>1120000</v>
       </c>
       <c r="E154" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21751,7 +21982,7 @@
         <v>1360000</v>
       </c>
       <c r="E164" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="451">
   <si>
     <t>Train ID</t>
   </si>
@@ -1335,18 +1335,6 @@
   </si>
   <si>
     <t>Routing at DUS Signal 2N</t>
-  </si>
-  <si>
-    <t>Premature downgrade at EC0629XH 63-1T 1S</t>
-  </si>
-  <si>
-    <t>Investigating</t>
-  </si>
-  <si>
-    <t>Premature downgrade at 78th Signal 4S</t>
-  </si>
-  <si>
-    <t>Onboard entered a failed state</t>
   </si>
   <si>
     <t>Ticket Needed</t>
@@ -1909,280 +1897,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2544,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R131" sqref="R131"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,10 +2586,10 @@
         <v>34</v>
       </c>
       <c r="Q4" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="T4" s="74" t="str">
         <f t="shared" ref="T4:T35" si="10">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
@@ -3042,10 +2757,10 @@
         <v>35</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="T6" s="74" t="str">
         <f t="shared" si="10"/>
@@ -5563,7 +5278,7 @@
         <v>3.3333333267364651</v>
       </c>
       <c r="Q36" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R36" s="62" t="s">
         <v>426</v>
@@ -8509,7 +8224,7 @@
         <v>142</v>
       </c>
       <c r="R71" s="62" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="T71" s="74" t="str">
         <f t="shared" si="28"/>
@@ -9689,7 +9404,7 @@
         <v>142</v>
       </c>
       <c r="R85" s="62" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="T85" s="74" t="str">
         <f t="shared" si="28"/>
@@ -10193,10 +9908,10 @@
         <v>48</v>
       </c>
       <c r="Q91" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R91" s="62" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="T91" s="74" t="str">
         <f t="shared" si="28"/>
@@ -10362,10 +10077,10 @@
         <v>45.83333333954215</v>
       </c>
       <c r="Q93" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R93" s="62" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="T93" s="74" t="str">
         <f t="shared" si="28"/>
@@ -11038,7 +10753,7 @@
         <v>142</v>
       </c>
       <c r="R101" s="62" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="T101" s="74" t="str">
         <f t="shared" si="38"/>
@@ -11546,7 +11261,7 @@
         <v>142</v>
       </c>
       <c r="R107" s="62" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="T107" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12303,7 +12018,7 @@
         <v>142</v>
       </c>
       <c r="R116" s="62" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="T116" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12475,7 +12190,7 @@
         <v>142</v>
       </c>
       <c r="R118" s="62" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="T118" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13232,7 +12947,7 @@
         <v>142</v>
       </c>
       <c r="R127" s="62" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="T127" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13401,7 +13116,7 @@
         <v>142</v>
       </c>
       <c r="R129" s="62" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="T129" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13486,10 +13201,10 @@
         <v>87.883333330973983</v>
       </c>
       <c r="Q130" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T130" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13739,7 +13454,7 @@
         <v>142</v>
       </c>
       <c r="R133" s="62" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="T133" s="74" t="str">
         <f t="shared" si="48"/>
@@ -14918,7 +14633,7 @@
         <v>142</v>
       </c>
       <c r="R147" s="62" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="T147" s="74" t="str">
         <f t="shared" si="48"/>
@@ -16025,28 +15740,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="46" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="44" priority="76">
+    <cfRule type="expression" dxfId="5" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="77">
+    <cfRule type="expression" dxfId="4" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16078,8 +15793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16205,7 +15920,7 @@
         <v>96</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16250,7 +15965,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16295,7 +16010,7 @@
         <v>166</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16340,7 +16055,7 @@
         <v>96</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16385,7 +16100,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16430,7 +16145,7 @@
         <v>166</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16475,7 +16190,7 @@
         <v>166</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16520,7 +16235,7 @@
         <v>166</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16565,7 +16280,7 @@
         <v>166</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16610,7 +16325,7 @@
         <v>166</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -19104,17 +18819,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 B69:N70 B66:K68 N66:N68 L29:M68 M8:M12 M8:N10 M13:N28 B8:L28 B3:N7">
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:K65 N29:N65">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19245,7 +18960,7 @@
         <v>1360000</v>
       </c>
       <c r="E3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19296,7 +19011,7 @@
         <v>1430000</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -19466,7 +19181,7 @@
         <v>1120000</v>
       </c>
       <c r="E16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19483,7 +19198,7 @@
         <v>1460000</v>
       </c>
       <c r="E17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19517,7 +19232,7 @@
         <v>1120000</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -19602,7 +19317,7 @@
         <v>1360000</v>
       </c>
       <c r="E24" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -19636,7 +19351,7 @@
         <v>1110000</v>
       </c>
       <c r="E26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -19653,7 +19368,7 @@
         <v>1110000</v>
       </c>
       <c r="E27" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -19738,7 +19453,7 @@
         <v>1430000</v>
       </c>
       <c r="E32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -19908,7 +19623,7 @@
         <v>1520000</v>
       </c>
       <c r="E42" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -19916,7 +19631,7 @@
         <v>42503.20952546296</v>
       </c>
       <c r="B43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C43" t="s">
         <v>202</v>
@@ -19925,7 +19640,7 @@
         <v>1430000</v>
       </c>
       <c r="E43" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -19933,7 +19648,7 @@
         <v>42503.727569444447</v>
       </c>
       <c r="B44" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C44" t="s">
         <v>355</v>
@@ -19976,7 +19691,7 @@
         <v>950000</v>
       </c>
       <c r="E46" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -19993,7 +19708,7 @@
         <v>1360000</v>
       </c>
       <c r="E47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -20044,7 +19759,7 @@
         <v>950000</v>
       </c>
       <c r="E50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -20086,7 +19801,7 @@
         <v>42503.285497685189</v>
       </c>
       <c r="B53" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C53" t="s">
         <v>220</v>
@@ -20095,7 +19810,7 @@
         <v>1430000</v>
       </c>
       <c r="E53" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -20112,7 +19827,7 @@
         <v>950000</v>
       </c>
       <c r="E54" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -20154,7 +19869,7 @@
         <v>42503.506724537037</v>
       </c>
       <c r="B57" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C57" t="s">
         <v>279</v>
@@ -20180,7 +19895,7 @@
         <v>1520000</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -20265,7 +19980,7 @@
         <v>1110000</v>
       </c>
       <c r="E63" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -20452,7 +20167,7 @@
         <v>950000</v>
       </c>
       <c r="E74" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -20520,7 +20235,7 @@
         <v>1110000</v>
       </c>
       <c r="E78" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -20571,7 +20286,7 @@
         <v>1430000</v>
       </c>
       <c r="E81" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -20588,7 +20303,7 @@
         <v>1110000</v>
       </c>
       <c r="E82" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -20622,7 +20337,7 @@
         <v>1460000</v>
       </c>
       <c r="E84" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -20639,7 +20354,7 @@
         <v>1430000</v>
       </c>
       <c r="E85" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -20647,7 +20362,7 @@
         <v>42503.433530092596</v>
       </c>
       <c r="B86" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C86" t="s">
         <v>260</v>
@@ -20673,7 +20388,7 @@
         <v>1110000</v>
       </c>
       <c r="E87" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -20707,7 +20422,7 @@
         <v>1360000</v>
       </c>
       <c r="E89" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -20724,7 +20439,7 @@
         <v>950000</v>
       </c>
       <c r="E90" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -20758,7 +20473,7 @@
         <v>1110000</v>
       </c>
       <c r="E92" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -20775,7 +20490,7 @@
         <v>1430000</v>
       </c>
       <c r="E93" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -20809,7 +20524,7 @@
         <v>1110000</v>
       </c>
       <c r="E95" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -20843,7 +20558,7 @@
         <v>1360000</v>
       </c>
       <c r="E97" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -20894,7 +20609,7 @@
         <v>1430000</v>
       </c>
       <c r="E100" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -20928,7 +20643,7 @@
         <v>1120000</v>
       </c>
       <c r="E102" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -20945,7 +20660,7 @@
         <v>1360000</v>
       </c>
       <c r="E103" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -20996,7 +20711,7 @@
         <v>1430000</v>
       </c>
       <c r="E106" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -21064,7 +20779,7 @@
         <v>1520000</v>
       </c>
       <c r="E110" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -21081,7 +20796,7 @@
         <v>950000</v>
       </c>
       <c r="E111" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -21132,7 +20847,7 @@
         <v>1520000</v>
       </c>
       <c r="E114" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -21149,7 +20864,7 @@
         <v>1120000</v>
       </c>
       <c r="E115" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -21183,7 +20898,7 @@
         <v>950000</v>
       </c>
       <c r="E117" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -21217,7 +20932,7 @@
         <v>900000</v>
       </c>
       <c r="E119" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -21404,7 +21119,7 @@
         <v>1120000</v>
       </c>
       <c r="E130" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -21438,7 +21153,7 @@
         <v>950000</v>
       </c>
       <c r="E132" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -21466,13 +21181,13 @@
         <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D134">
         <v>900000</v>
       </c>
       <c r="E134" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -21489,7 +21204,7 @@
         <v>1120000</v>
       </c>
       <c r="E135" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -21523,7 +21238,7 @@
         <v>900000</v>
       </c>
       <c r="E137" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -21565,7 +21280,7 @@
         <v>42503.57984953704</v>
       </c>
       <c r="B140" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C140" t="s">
         <v>301</v>
@@ -21591,7 +21306,7 @@
         <v>1520000</v>
       </c>
       <c r="E141" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -21642,7 +21357,7 @@
         <v>1360000</v>
       </c>
       <c r="E144" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21659,7 +21374,7 @@
         <v>1120000</v>
       </c>
       <c r="E145" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -21667,7 +21382,7 @@
         <v>42503.358703703707</v>
       </c>
       <c r="B146" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C146" t="s">
         <v>240</v>
@@ -21676,7 +21391,7 @@
         <v>1430000</v>
       </c>
       <c r="E146" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -21752,7 +21467,7 @@
         <v>42503.65388888889</v>
       </c>
       <c r="B151" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C151" t="s">
         <v>330</v>
@@ -21812,7 +21527,7 @@
         <v>1120000</v>
       </c>
       <c r="E154" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21982,7 +21697,7 @@
         <v>1360000</v>
       </c>
       <c r="E164" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="450">
   <si>
     <t>Train ID</t>
   </si>
@@ -1334,12 +1334,6 @@
     <t>119-13</t>
   </si>
   <si>
-    <t>Routing at DUS Signal 2N</t>
-  </si>
-  <si>
-    <t>Ticket Needed</t>
-  </si>
-  <si>
     <t>Reverser handle needs to be in forward position when selecting track</t>
   </si>
   <si>
@@ -1394,12 +1388,6 @@
     <t>Link failures to 61st</t>
   </si>
   <si>
-    <t>DUS WIU was not beaconing statuses. Maintenance?</t>
-  </si>
-  <si>
-    <t>Routing at DUS 2S</t>
-  </si>
-  <si>
     <t>Comparator issue caused train comm outage</t>
   </si>
   <si>
@@ -1407,6 +1395,15 @@
   </si>
   <si>
     <t>Onboard in-route failure</t>
+  </si>
+  <si>
+    <t>DUS hardware issues</t>
+  </si>
+  <si>
+    <t>Train went backwards for unknown reasons. Operator error?</t>
+  </si>
+  <si>
+    <t>Discuss</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1894,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2259,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K166" sqref="K166"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q130" sqref="Q130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,10 +2667,10 @@
         <v>34</v>
       </c>
       <c r="Q4" s="62" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T4" s="74" t="str">
         <f t="shared" ref="T4:T35" si="10">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
@@ -2757,10 +2838,10 @@
         <v>35</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T6" s="74" t="str">
         <f t="shared" si="10"/>
@@ -5278,10 +5359,10 @@
         <v>3.3333333267364651</v>
       </c>
       <c r="Q36" s="62" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
       <c r="R36" s="62" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="T36" s="74" t="str">
         <f t="shared" ref="T36:T67" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
@@ -8224,7 +8305,7 @@
         <v>142</v>
       </c>
       <c r="R71" s="62" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T71" s="74" t="str">
         <f t="shared" si="28"/>
@@ -9908,10 +9989,10 @@
         <v>48</v>
       </c>
       <c r="Q91" s="62" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
       <c r="R91" s="62" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="T91" s="74" t="str">
         <f t="shared" si="28"/>
@@ -10077,10 +10158,10 @@
         <v>45.83333333954215</v>
       </c>
       <c r="Q93" s="62" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
       <c r="R93" s="62" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="T93" s="74" t="str">
         <f t="shared" si="28"/>
@@ -10753,7 +10834,7 @@
         <v>142</v>
       </c>
       <c r="R101" s="62" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T101" s="74" t="str">
         <f t="shared" si="38"/>
@@ -11261,7 +11342,7 @@
         <v>142</v>
       </c>
       <c r="R107" s="62" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="T107" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12018,7 +12099,7 @@
         <v>142</v>
       </c>
       <c r="R116" s="62" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T116" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12190,7 +12271,7 @@
         <v>142</v>
       </c>
       <c r="R118" s="62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T118" s="74" t="str">
         <f t="shared" si="38"/>
@@ -12947,7 +13028,7 @@
         <v>142</v>
       </c>
       <c r="R127" s="62" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T127" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13116,7 +13197,7 @@
         <v>142</v>
       </c>
       <c r="R129" s="62" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T129" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13201,10 +13282,10 @@
         <v>87.883333330973983</v>
       </c>
       <c r="Q130" s="62" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T130" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13454,7 +13535,7 @@
         <v>142</v>
       </c>
       <c r="R133" s="62" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T133" s="74" t="str">
         <f t="shared" si="48"/>
@@ -14633,7 +14714,7 @@
         <v>142</v>
       </c>
       <c r="R147" s="62" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T147" s="74" t="str">
         <f t="shared" si="48"/>
@@ -15740,28 +15821,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="5" priority="76">
+    <cfRule type="expression" dxfId="17" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="77">
+    <cfRule type="expression" dxfId="16" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15920,7 +16001,7 @@
         <v>96</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15965,7 +16046,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16010,7 +16091,7 @@
         <v>166</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16055,7 +16136,7 @@
         <v>96</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16100,7 +16181,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16145,7 +16226,7 @@
         <v>166</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16190,7 +16271,7 @@
         <v>166</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16235,7 +16316,7 @@
         <v>166</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16280,7 +16361,7 @@
         <v>166</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16325,7 +16406,7 @@
         <v>166</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -18819,17 +18900,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 B69:N70 B66:K68 N66:N68 L29:M68 M8:M12 M8:N10 M13:N28 B8:L28 B3:N7">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:K65 N29:N65">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18960,7 +19041,7 @@
         <v>1360000</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19011,7 +19092,7 @@
         <v>1430000</v>
       </c>
       <c r="E6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -19181,7 +19262,7 @@
         <v>1120000</v>
       </c>
       <c r="E16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19198,7 +19279,7 @@
         <v>1460000</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19232,7 +19313,7 @@
         <v>1120000</v>
       </c>
       <c r="E19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -19317,7 +19398,7 @@
         <v>1360000</v>
       </c>
       <c r="E24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -19351,7 +19432,7 @@
         <v>1110000</v>
       </c>
       <c r="E26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -19368,7 +19449,7 @@
         <v>1110000</v>
       </c>
       <c r="E27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -19453,7 +19534,7 @@
         <v>1430000</v>
       </c>
       <c r="E32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -19623,7 +19704,7 @@
         <v>1520000</v>
       </c>
       <c r="E42" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -19631,7 +19712,7 @@
         <v>42503.20952546296</v>
       </c>
       <c r="B43" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C43" t="s">
         <v>202</v>
@@ -19640,7 +19721,7 @@
         <v>1430000</v>
       </c>
       <c r="E43" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -19648,7 +19729,7 @@
         <v>42503.727569444447</v>
       </c>
       <c r="B44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C44" t="s">
         <v>355</v>
@@ -19691,7 +19772,7 @@
         <v>950000</v>
       </c>
       <c r="E46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -19708,7 +19789,7 @@
         <v>1360000</v>
       </c>
       <c r="E47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -19759,7 +19840,7 @@
         <v>950000</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -19801,7 +19882,7 @@
         <v>42503.285497685189</v>
       </c>
       <c r="B53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C53" t="s">
         <v>220</v>
@@ -19810,7 +19891,7 @@
         <v>1430000</v>
       </c>
       <c r="E53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -19827,7 +19908,7 @@
         <v>950000</v>
       </c>
       <c r="E54" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -19869,7 +19950,7 @@
         <v>42503.506724537037</v>
       </c>
       <c r="B57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C57" t="s">
         <v>279</v>
@@ -19895,7 +19976,7 @@
         <v>1520000</v>
       </c>
       <c r="E58" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -19980,7 +20061,7 @@
         <v>1110000</v>
       </c>
       <c r="E63" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -20167,7 +20248,7 @@
         <v>950000</v>
       </c>
       <c r="E74" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -20235,7 +20316,7 @@
         <v>1110000</v>
       </c>
       <c r="E78" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -20286,7 +20367,7 @@
         <v>1430000</v>
       </c>
       <c r="E81" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -20303,7 +20384,7 @@
         <v>1110000</v>
       </c>
       <c r="E82" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -20337,7 +20418,7 @@
         <v>1460000</v>
       </c>
       <c r="E84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -20354,7 +20435,7 @@
         <v>1430000</v>
       </c>
       <c r="E85" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -20362,7 +20443,7 @@
         <v>42503.433530092596</v>
       </c>
       <c r="B86" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C86" t="s">
         <v>260</v>
@@ -20388,7 +20469,7 @@
         <v>1110000</v>
       </c>
       <c r="E87" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -20422,7 +20503,7 @@
         <v>1360000</v>
       </c>
       <c r="E89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -20439,7 +20520,7 @@
         <v>950000</v>
       </c>
       <c r="E90" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -20473,7 +20554,7 @@
         <v>1110000</v>
       </c>
       <c r="E92" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -20490,7 +20571,7 @@
         <v>1430000</v>
       </c>
       <c r="E93" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -20524,7 +20605,7 @@
         <v>1110000</v>
       </c>
       <c r="E95" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -20558,7 +20639,7 @@
         <v>1360000</v>
       </c>
       <c r="E97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -20609,7 +20690,7 @@
         <v>1430000</v>
       </c>
       <c r="E100" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -20643,7 +20724,7 @@
         <v>1120000</v>
       </c>
       <c r="E102" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -20660,7 +20741,7 @@
         <v>1360000</v>
       </c>
       <c r="E103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -20711,7 +20792,7 @@
         <v>1430000</v>
       </c>
       <c r="E106" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -20779,7 +20860,7 @@
         <v>1520000</v>
       </c>
       <c r="E110" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -20796,7 +20877,7 @@
         <v>950000</v>
       </c>
       <c r="E111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -20847,7 +20928,7 @@
         <v>1520000</v>
       </c>
       <c r="E114" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -20864,7 +20945,7 @@
         <v>1120000</v>
       </c>
       <c r="E115" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -20898,7 +20979,7 @@
         <v>950000</v>
       </c>
       <c r="E117" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -20932,7 +21013,7 @@
         <v>900000</v>
       </c>
       <c r="E119" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -21119,7 +21200,7 @@
         <v>1120000</v>
       </c>
       <c r="E130" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -21153,7 +21234,7 @@
         <v>950000</v>
       </c>
       <c r="E132" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -21181,13 +21262,13 @@
         <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D134">
         <v>900000</v>
       </c>
       <c r="E134" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -21204,7 +21285,7 @@
         <v>1120000</v>
       </c>
       <c r="E135" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -21238,7 +21319,7 @@
         <v>900000</v>
       </c>
       <c r="E137" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -21280,7 +21361,7 @@
         <v>42503.57984953704</v>
       </c>
       <c r="B140" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C140" t="s">
         <v>301</v>
@@ -21306,7 +21387,7 @@
         <v>1520000</v>
       </c>
       <c r="E141" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -21357,7 +21438,7 @@
         <v>1360000</v>
       </c>
       <c r="E144" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21374,7 +21455,7 @@
         <v>1120000</v>
       </c>
       <c r="E145" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -21382,7 +21463,7 @@
         <v>42503.358703703707</v>
       </c>
       <c r="B146" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C146" t="s">
         <v>240</v>
@@ -21391,7 +21472,7 @@
         <v>1430000</v>
       </c>
       <c r="E146" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -21467,7 +21548,7 @@
         <v>42503.65388888889</v>
       </c>
       <c r="B151" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C151" t="s">
         <v>330</v>
@@ -21527,7 +21608,7 @@
         <v>1120000</v>
       </c>
       <c r="E154" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21697,7 +21778,7 @@
         <v>1360000</v>
       </c>
       <c r="E164" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -1894,91 +1894,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2340,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q130" sqref="Q130"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R107" sqref="R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15821,28 +15737,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="19" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="17" priority="76">
+    <cfRule type="expression" dxfId="5" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="77">
+    <cfRule type="expression" dxfId="4" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18900,17 +18816,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 B69:N70 B66:K68 N66:N68 L29:M68 M8:M12 M8:N10 M13:N28 B8:L28 B3:N7">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:K65 N29:N65">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -1397,13 +1397,13 @@
     <t>Onboard in-route failure</t>
   </si>
   <si>
-    <t>DUS hardware issues</t>
-  </si>
-  <si>
     <t>Train went backwards for unknown reasons. Operator error?</t>
   </si>
   <si>
     <t>Discuss</t>
+  </si>
+  <si>
+    <t>DUS routing issue</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1894,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2256,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R107" sqref="R107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2649,7 @@
         <v>142</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T4" s="74" t="str">
         <f t="shared" ref="T4:T35" si="10">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
@@ -2757,7 +2820,7 @@
         <v>142</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T6" s="74" t="str">
         <f t="shared" si="10"/>
@@ -5278,7 +5341,7 @@
         <v>142</v>
       </c>
       <c r="R36" s="62" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T36" s="74" t="str">
         <f t="shared" ref="T36:T67" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
@@ -9401,7 +9464,7 @@
         <v>142</v>
       </c>
       <c r="R85" s="62" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T85" s="74" t="str">
         <f t="shared" si="28"/>
@@ -13198,10 +13261,10 @@
         <v>87.883333330973983</v>
       </c>
       <c r="Q130" s="62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T130" s="74" t="str">
         <f t="shared" si="38"/>
@@ -15737,28 +15800,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="16" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="15" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="5" priority="76">
+    <cfRule type="expression" dxfId="14" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="77">
+    <cfRule type="expression" dxfId="13" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18816,17 +18879,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 B69:N70 B66:K68 N66:N68 L29:M68 M8:M12 M8:N10 M13:N28 B8:L28 B3:N7">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:K65 N29:N65">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="452">
   <si>
     <t>Train ID</t>
   </si>
@@ -1403,7 +1403,13 @@
     <t>Discuss</t>
   </si>
   <si>
-    <t>DUS routing issue</t>
+    <t>DUS was not communicating with back office</t>
+  </si>
+  <si>
+    <t>DUS routing issue (2N signal was STOP during entire event)</t>
+  </si>
+  <si>
+    <t>DUS routing issue (4S signal was STOP during entire event)</t>
   </si>
 </sst>
 </file>
@@ -1894,70 +1900,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2319,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R85" sqref="R85"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5341,7 +5284,7 @@
         <v>142</v>
       </c>
       <c r="R36" s="62" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T36" s="74" t="str">
         <f t="shared" ref="T36:T67" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
@@ -9464,7 +9407,7 @@
         <v>142</v>
       </c>
       <c r="R85" s="62" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="T85" s="74" t="str">
         <f t="shared" si="28"/>
@@ -15800,28 +15743,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="16" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="14" priority="76">
+    <cfRule type="expression" dxfId="5" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="77">
+    <cfRule type="expression" dxfId="4" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18879,17 +18822,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 B69:N70 B66:K68 N66:N68 L29:M68 M8:M12 M8:N10 M13:N28 B8:L28 B3:N7">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:K65 N29:N65">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-13.xlsx
@@ -1391,9 +1391,6 @@
     <t>Comparator issue caused train comm outage</t>
   </si>
   <si>
-    <t>Train was cut out by message from TMDS at 05-13-2016 17:31:42.799</t>
-  </si>
-  <si>
     <t>Onboard in-route failure</t>
   </si>
   <si>
@@ -1410,6 +1407,9 @@
   </si>
   <si>
     <t>DUS routing issue (4S signal was STOP during entire event)</t>
+  </si>
+  <si>
+    <t>Onboard entered a failsafe state that caused the dispatch system to cut it out</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R107" sqref="R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2592,7 @@
         <v>142</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T4" s="74" t="str">
         <f t="shared" ref="T4:T35" si="10">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
@@ -2763,7 +2763,7 @@
         <v>142</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T6" s="74" t="str">
         <f t="shared" si="10"/>
@@ -5284,7 +5284,7 @@
         <v>142</v>
       </c>
       <c r="R36" s="62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T36" s="74" t="str">
         <f t="shared" ref="T36:T67" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
@@ -9407,7 +9407,7 @@
         <v>142</v>
       </c>
       <c r="R85" s="62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T85" s="74" t="str">
         <f t="shared" si="28"/>
@@ -11264,7 +11264,7 @@
         <v>142</v>
       </c>
       <c r="R107" s="62" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="T107" s="74" t="str">
         <f t="shared" si="38"/>
@@ -13204,10 +13204,10 @@
         <v>87.883333330973983</v>
       </c>
       <c r="Q130" s="62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T130" s="74" t="str">
         <f t="shared" si="38"/>
@@ -16013,7 +16013,7 @@
         <v>166</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
